--- a/texts_fin.xlsx
+++ b/texts_fin.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\0000shakesp\0000Shakespeare-phrases-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D010F578-BCC7-431F-8945-93492D89BAFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5226129-9C47-49E3-8358-4E6C6C3570B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{BBE6E32D-62B2-4B13-BAAA-307AEDD5E135}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="181029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1023" uniqueCount="678">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2160" uniqueCount="1330">
   <si>
     <t>To be, or not to be,</t>
   </si>
@@ -2059,6 +2059,1962 @@
   </si>
   <si>
     <t>Ey, konkret so weiter?</t>
+  </si>
+  <si>
+    <t>kie</t>
+  </si>
+  <si>
+    <t>Hast gefragt,</t>
+  </si>
+  <si>
+    <t>ob du bist?</t>
+  </si>
+  <si>
+    <t>Isch hör Mist.</t>
+  </si>
+  <si>
+    <t>Is voll Gold.</t>
+  </si>
+  <si>
+    <t>Oder so!</t>
+  </si>
+  <si>
+    <t>Oder nix Gold?</t>
+  </si>
+  <si>
+    <t>Hab isch ihr gesagt:</t>
+  </si>
+  <si>
+    <t>Nix kommt von nix.</t>
+  </si>
+  <si>
+    <t>Und von nix</t>
+  </si>
+  <si>
+    <t>kommt nix.</t>
+  </si>
+  <si>
+    <t>Hastma verstanden?</t>
+  </si>
+  <si>
+    <t>Was es so gibt, so da om,</t>
+  </si>
+  <si>
+    <t>geht nisch in dein Kopp.</t>
+  </si>
+  <si>
+    <t>Stirbt en starker Typ nur</t>
+  </si>
+  <si>
+    <t>eema.</t>
+  </si>
+  <si>
+    <t>Kratzen Schisser</t>
+  </si>
+  <si>
+    <t>iksma ab.</t>
+  </si>
+  <si>
+    <t>Unter verstrubbeltn Haarn</t>
+  </si>
+  <si>
+    <t>steckt schomma</t>
+  </si>
+  <si>
+    <t>en Bratzkopf.</t>
+  </si>
+  <si>
+    <t>Leben is voll Scheißstory.</t>
+  </si>
+  <si>
+    <t>Kann isch mir des Jejaule</t>
+  </si>
+  <si>
+    <t>nisch mehr anhörn.</t>
+  </si>
+  <si>
+    <t>So wenn isch so voll voll bin.</t>
+  </si>
+  <si>
+    <t>En Dings is nisch so oder so.</t>
+  </si>
+  <si>
+    <t>Machma im Kopf.</t>
+  </si>
+  <si>
+    <t>Machens mittem Kopf.</t>
+  </si>
+  <si>
+    <t>Ey, Digga,</t>
+  </si>
+  <si>
+    <t>en Name sagt nix.</t>
+  </si>
+  <si>
+    <t>Ne Rose,</t>
+  </si>
+  <si>
+    <t>hättse andern Namen,</t>
+  </si>
+  <si>
+    <t>voll so süß.</t>
+  </si>
+  <si>
+    <t>The wound of peace is</t>
+  </si>
+  <si>
+    <t>surety.</t>
+  </si>
+  <si>
+    <t>Troilus and Cressida, Act 2, scene 2</t>
+  </si>
+  <si>
+    <t>Macht Sicherheit</t>
+  </si>
+  <si>
+    <t>Frieden schlapp,</t>
+  </si>
+  <si>
+    <t>wallah.</t>
+  </si>
+  <si>
+    <t>So gut Liebe suchen, Lan.</t>
+  </si>
+  <si>
+    <t>So gekriegt oder so</t>
+  </si>
+  <si>
+    <t>is supergeil.</t>
+  </si>
+  <si>
+    <t>Lieb isch ja nisch mittem</t>
+  </si>
+  <si>
+    <t>Kopp,</t>
+  </si>
+  <si>
+    <t>aber voll ? und voll geil.</t>
+  </si>
+  <si>
+    <t>Love alters not with his brief</t>
+  </si>
+  <si>
+    <t>hours and weeks,</t>
+  </si>
+  <si>
+    <t>but bears it out even to the</t>
+  </si>
+  <si>
+    <t>edge of doom.</t>
+  </si>
+  <si>
+    <t>Hab isch ihr so gesagt:</t>
+  </si>
+  <si>
+    <t>Unsere Liebe wird im Leben</t>
+  </si>
+  <si>
+    <t>nisch alt.</t>
+  </si>
+  <si>
+    <t>Lebt bis Ende von der Welt.</t>
+  </si>
+  <si>
+    <t>Kuckma,</t>
+  </si>
+  <si>
+    <t>wie tief meine Liebe.</t>
+  </si>
+  <si>
+    <t>Geb isch soo viel und</t>
+  </si>
+  <si>
+    <t>krieg isch voll mehr.</t>
+  </si>
+  <si>
+    <t>Wie schaff isch mein Herz</t>
+  </si>
+  <si>
+    <t>im Maul, ey?</t>
+  </si>
+  <si>
+    <t>Lan, zabbert rischtische Liebe,</t>
+  </si>
+  <si>
+    <t>echt.</t>
+  </si>
+  <si>
+    <t>Läuft krumme Wege.</t>
+  </si>
+  <si>
+    <t>Und Umleitung, ischwör, Lan.</t>
+  </si>
+  <si>
+    <t>Liebe?</t>
+  </si>
+  <si>
+    <t>Immer krass Heckmeck!</t>
+  </si>
+  <si>
+    <t>Kann einer</t>
+  </si>
+  <si>
+    <t>überdoppelt Rollen spielen ?</t>
+  </si>
+  <si>
+    <t>zu gleicher Zeit.</t>
+  </si>
+  <si>
+    <t>Ey, Mann, keine is eine.</t>
+  </si>
+  <si>
+    <t>Geht echt schwer chillen</t>
+  </si>
+  <si>
+    <t>mit som Dingsel</t>
+  </si>
+  <si>
+    <t>aufm Kopp.</t>
+  </si>
+  <si>
+    <t>Hast du geraucht?</t>
+  </si>
+  <si>
+    <t>Yallah, gibs klein Leben!</t>
+  </si>
+  <si>
+    <t>Ehrlisch oder gelogen?</t>
+  </si>
+  <si>
+    <t>Treu oder betrogen?</t>
+  </si>
+  <si>
+    <t>Isch lieb disch, mein Schatz!</t>
+  </si>
+  <si>
+    <t>Leben, Lan,</t>
+  </si>
+  <si>
+    <t>voll krasse Story.</t>
+  </si>
+  <si>
+    <t>Hochgepusht</t>
+  </si>
+  <si>
+    <t>vonnem Labermann.</t>
+  </si>
+  <si>
+    <t>Besser witziger Blödmann</t>
+  </si>
+  <si>
+    <t>wie blöder Witz, Mann.</t>
+  </si>
+  <si>
+    <t>Fair is foul, and foul is fair.</t>
+  </si>
+  <si>
+    <t>Schön is Shit,</t>
+  </si>
+  <si>
+    <t>und Shit is schön.</t>
+  </si>
+  <si>
+    <t>Ey, wer will dis verstehn?</t>
+  </si>
+  <si>
+    <t>Bescheuert bist du, meinste,</t>
+  </si>
+  <si>
+    <t>du bist schlau.</t>
+  </si>
+  <si>
+    <t>Biste schlau, weißte,</t>
+  </si>
+  <si>
+    <t>bescheuert biste.</t>
+  </si>
+  <si>
+    <t>Yallah, is besser ze früh.</t>
+  </si>
+  <si>
+    <t>Yallah, keine Minute ze</t>
+  </si>
+  <si>
+    <t>spät.</t>
+  </si>
+  <si>
+    <t>Schoma schön tun</t>
+  </si>
+  <si>
+    <t>und</t>
+  </si>
+  <si>
+    <t>ein Drecksschwein sein.</t>
+  </si>
+  <si>
+    <t>Alle gern ham,</t>
+  </si>
+  <si>
+    <t>wenig trauen,</t>
+  </si>
+  <si>
+    <t>aber keiner was tun.</t>
+  </si>
+  <si>
+    <t>Isch schmier en jeden,</t>
+  </si>
+  <si>
+    <t>wo misch schmiert.</t>
+  </si>
+  <si>
+    <t>Was für Gesicht hat</t>
+  </si>
+  <si>
+    <t>Allah dir gemacht!</t>
+  </si>
+  <si>
+    <t>Mach dir besseres,</t>
+  </si>
+  <si>
+    <t>Alde</t>
+  </si>
+  <si>
+    <t>Lass voll deine Scheißfalten</t>
+  </si>
+  <si>
+    <t>sehen,</t>
+  </si>
+  <si>
+    <t>wennste lachst und</t>
+  </si>
+  <si>
+    <t>happy bist.</t>
+  </si>
+  <si>
+    <t>Geh in disch,</t>
+  </si>
+  <si>
+    <t>horsch und gehorsch</t>
+  </si>
+  <si>
+    <t>dein Herz.</t>
+  </si>
+  <si>
+    <t>Let me be that I am,</t>
+  </si>
+  <si>
+    <t>Lassma Ruh!</t>
+  </si>
+  <si>
+    <t>Bleib isch, was isch bin.</t>
+  </si>
+  <si>
+    <t>Neither a borrower nor a</t>
+  </si>
+  <si>
+    <t>lender be: for loan oft loses</t>
+  </si>
+  <si>
+    <t>both itself and friend . . .</t>
+  </si>
+  <si>
+    <t>Nix pumpen und</t>
+  </si>
+  <si>
+    <t>nix verpumpen.</t>
+  </si>
+  <si>
+    <t>Verlepperst mit Pumpen</t>
+  </si>
+  <si>
+    <t>Moneten und</t>
+  </si>
+  <si>
+    <t>dein Kumpels voll.</t>
+  </si>
+  <si>
+    <t>So hell so scheint nisch,</t>
+  </si>
+  <si>
+    <t>so‘n bisschen,</t>
+  </si>
+  <si>
+    <t>was du Gutes tust.</t>
+  </si>
+  <si>
+    <t>Blendet nisch!</t>
+  </si>
+  <si>
+    <t>Labern tut voll gut.</t>
+  </si>
+  <si>
+    <t>Und kurz und voll</t>
+  </si>
+  <si>
+    <t>die Wahrheit, Lan?</t>
+  </si>
+  <si>
+    <t>And ‘t is a kind of good</t>
+  </si>
+  <si>
+    <t>Cool, ey, schon,</t>
+  </si>
+  <si>
+    <t>wennste Gutes sagst.</t>
+  </si>
+  <si>
+    <t>Ja, genau.</t>
+  </si>
+  <si>
+    <t>Aber sagen is nix machen.</t>
+  </si>
+  <si>
+    <t>Hör alle zu,</t>
+  </si>
+  <si>
+    <t>aber lasse nisch rumlabern.</t>
+  </si>
+  <si>
+    <t>Wörter sin leicht,</t>
+  </si>
+  <si>
+    <t>fliegen im Wind.</t>
+  </si>
+  <si>
+    <t>Und so gute Kumpels,</t>
+  </si>
+  <si>
+    <t>wie isch die find?</t>
+  </si>
+  <si>
+    <t>Was du sagst, Mann,</t>
+  </si>
+  <si>
+    <t>und nisch glaubst,</t>
+  </si>
+  <si>
+    <t>geht nisch an Himmel.</t>
+  </si>
+  <si>
+    <t>muss isch was sagen.</t>
+  </si>
+  <si>
+    <t>Was so denke isch,</t>
+  </si>
+  <si>
+    <t>kann isch auch sagen?</t>
+  </si>
+  <si>
+    <t>I would</t>
+  </si>
+  <si>
+    <t>my horse had the speed</t>
+  </si>
+  <si>
+    <t>Wär doch meine Kiste</t>
+  </si>
+  <si>
+    <t>so schnell,</t>
+  </si>
+  <si>
+    <t>wie deine Zunge labert!</t>
+  </si>
+  <si>
+    <t>Kann alles brauchen,</t>
+  </si>
+  <si>
+    <t>der Teufel.</t>
+  </si>
+  <si>
+    <t>Wallah, scheißt immer</t>
+  </si>
+  <si>
+    <t>gleiches Loch.</t>
+  </si>
+  <si>
+    <t>they are seldome</t>
+  </si>
+  <si>
+    <t>spent in vaine.</t>
+  </si>
+  <si>
+    <t>Wo de wenig sagst,</t>
+  </si>
+  <si>
+    <t>bläste wenig in Wind.</t>
+  </si>
+  <si>
+    <t>Many a true word hath been</t>
+  </si>
+  <si>
+    <t>spoken in jest.</t>
+  </si>
+  <si>
+    <t>Kannste mit Joke</t>
+  </si>
+  <si>
+    <t>voll krass Wahrheit sagen.</t>
+  </si>
+  <si>
+    <t>Sag nisch zu viel,</t>
+  </si>
+  <si>
+    <t>aber voll genug!</t>
+  </si>
+  <si>
+    <t>Wallah!</t>
+  </si>
+  <si>
+    <t>Soll isch echt so weiter</t>
+  </si>
+  <si>
+    <t>leben?</t>
+  </si>
+  <si>
+    <t>Oder gar nisch?</t>
+  </si>
+  <si>
+    <t>ufr</t>
+  </si>
+  <si>
+    <t>Hamlet, Act 3, Scene 1</t>
+  </si>
+  <si>
+    <t>Also ie fraag me ernschtlich,</t>
+  </si>
+  <si>
+    <t>ob e weidermache sott</t>
+  </si>
+  <si>
+    <t>odder</t>
+  </si>
+  <si>
+    <t>da Bäddel naaschmeiße.</t>
+  </si>
+  <si>
+    <t>The Merchant of Venice, Act 2, Scene 7</t>
+  </si>
+  <si>
+    <t>Net alles, des wo glänzt,</t>
+  </si>
+  <si>
+    <t>isch au Gold.</t>
+  </si>
+  <si>
+    <t>Awer, des merka d‘Leit</t>
+  </si>
+  <si>
+    <t>meischt erscht,</t>
+  </si>
+  <si>
+    <t>wenn se reiglegt worre sin.</t>
+  </si>
+  <si>
+    <t>King Lear, Act 1, Scene 1</t>
+  </si>
+  <si>
+    <t>Uugschafft</t>
+  </si>
+  <si>
+    <t>kommsch zu nix.</t>
+  </si>
+  <si>
+    <t>Hamlet, Act 1, Scene 5</t>
+  </si>
+  <si>
+    <t>In derra Welt gibt‘s an</t>
+  </si>
+  <si>
+    <t>Haufa Zeigs,</t>
+  </si>
+  <si>
+    <t>die hedsch dr net amaal</t>
+  </si>
+  <si>
+    <t>im Traum ausdengt.</t>
+  </si>
+  <si>
+    <t>Julius Caesar, Act 2, Scene 2</t>
+  </si>
+  <si>
+    <t>En Faigling isch scho dausent</t>
+  </si>
+  <si>
+    <t>mal gschtorba,</t>
+  </si>
+  <si>
+    <t>eh‘s so weit isch,</t>
+  </si>
+  <si>
+    <t>awer an dapfera Kerle hat</t>
+  </si>
+  <si>
+    <t>kaa Aangscht vorm Doot net</t>
+  </si>
+  <si>
+    <t>un scho gar net vorm Deifel.</t>
+  </si>
+  <si>
+    <t>A Comedy of Errors, Act 2, Scene 2</t>
+  </si>
+  <si>
+    <t>D‘ meischte Leit henn</t>
+  </si>
+  <si>
+    <t>mee Hoar uff am Meggel</t>
+  </si>
+  <si>
+    <t>wie Hirn in ihrm Deetz.</t>
+  </si>
+  <si>
+    <t>King John, Act 3, Scene 4</t>
+  </si>
+  <si>
+    <t>‘S Läba kaa fei stinkfad sei,</t>
+  </si>
+  <si>
+    <t>grad so wie die ewiche</t>
+  </si>
+  <si>
+    <t>Wiederholunga im Fernsäher.</t>
+  </si>
+  <si>
+    <t>Des kaa aam scho jessesmäßich</t>
+  </si>
+  <si>
+    <t>uff da Zeiger geha.</t>
+  </si>
+  <si>
+    <t>How poor are they that have</t>
+  </si>
+  <si>
+    <t>not patience!</t>
+  </si>
+  <si>
+    <t>What wound did ever heal</t>
+  </si>
+  <si>
+    <t>but by degrees?</t>
+  </si>
+  <si>
+    <t>Othello, Act 2, Scene 3</t>
+  </si>
+  <si>
+    <t>Wennsch net warta kaasch,</t>
+  </si>
+  <si>
+    <t>naa bisch an arma Bachel.</t>
+  </si>
+  <si>
+    <t>Odder isch verleicht scho</t>
+  </si>
+  <si>
+    <t>amol äbbes vo jetz</t>
+  </si>
+  <si>
+    <t>uff naachher besser worra?</t>
+  </si>
+  <si>
+    <t>Romeo and Juliet, Act 2, Scene 2</t>
+  </si>
+  <si>
+    <t>Was isch au scho an Naama?</t>
+  </si>
+  <si>
+    <t>A Ros dät gwieß</t>
+  </si>
+  <si>
+    <t>grad riecha so sieß,</t>
+  </si>
+  <si>
+    <t>wemmr se andrsch nenna dät.</t>
+  </si>
+  <si>
+    <t>Lifes but a walking shadow,</t>
+  </si>
+  <si>
+    <t>a poor player, that struts</t>
+  </si>
+  <si>
+    <t>and frets his hour upon the</t>
+  </si>
+  <si>
+    <t>stage,</t>
+  </si>
+  <si>
+    <t>and then is heard no more.</t>
+  </si>
+  <si>
+    <t>Macbeth, Act 5, Scene 5</t>
+  </si>
+  <si>
+    <t>‘S Läba isch net mee</t>
+  </si>
+  <si>
+    <t>wia an flüchtiga Schadda,</t>
+  </si>
+  <si>
+    <t>an lausiga Komedaspieler,</t>
+  </si>
+  <si>
+    <t>wo a weile uff dr Bühne</t>
+  </si>
+  <si>
+    <t>rummschtolziert, un von dem</t>
+  </si>
+  <si>
+    <t>mr scho ball nix mehr sieht</t>
+  </si>
+  <si>
+    <t>un heert.</t>
+  </si>
+  <si>
+    <t>Lifes a tale told by an idiot,</t>
+  </si>
+  <si>
+    <t>full of sound and fury,</t>
+  </si>
+  <si>
+    <t>signifying nothing.</t>
+  </si>
+  <si>
+    <t>‘S Leba isch wias Gschwädz</t>
+  </si>
+  <si>
+    <t>voma Bachel,</t>
+  </si>
+  <si>
+    <t>große Schbrüch</t>
+  </si>
+  <si>
+    <t>un nix dahinder.</t>
+  </si>
+  <si>
+    <t>Merry Wives of Windsor, Act 2, Scene 2</t>
+  </si>
+  <si>
+    <t>Wennd zfia droo bisch,</t>
+  </si>
+  <si>
+    <t>naa schtraaft de ‘s Leba.</t>
+  </si>
+  <si>
+    <t>A Midsummer Nights Dream, Act 1, Scene 1</t>
+  </si>
+  <si>
+    <t>Wemmr richdich mag,</t>
+  </si>
+  <si>
+    <t>suacht mr net</t>
+  </si>
+  <si>
+    <t>mit de Auge,</t>
+  </si>
+  <si>
+    <t>mr suacht mit am Gfiel;</t>
+  </si>
+  <si>
+    <t>un dodawäga isch‘s richdich,</t>
+  </si>
+  <si>
+    <t>wenn se da Cupido mit seine</t>
+  </si>
+  <si>
+    <t>Fliagl als an Blinda maala.</t>
+  </si>
+  <si>
+    <t>Hamlet, Act 2, Scene 2</t>
+  </si>
+  <si>
+    <t>Un wenn sonst nix vo dem</t>
+  </si>
+  <si>
+    <t>schtimmt, was e glaab,</t>
+  </si>
+  <si>
+    <t>an meinera Liab gibt‘s nix</t>
+  </si>
+  <si>
+    <t>zum deiteln.</t>
+  </si>
+  <si>
+    <t>didst thou first</t>
+  </si>
+  <si>
+    <t>fall in love with me?</t>
+  </si>
+  <si>
+    <t>Much Ado About Nothing, Act 5, Scene 2</t>
+  </si>
+  <si>
+    <t>Welle vo meine Macka</t>
+  </si>
+  <si>
+    <t>hat dr glei am Aafang</t>
+  </si>
+  <si>
+    <t>am beschde gfalla?</t>
+  </si>
+  <si>
+    <t>Twelfth Night, Act 1, Scene 1</t>
+  </si>
+  <si>
+    <t>Wenn d‘ Musik ‘s Fudder</t>
+  </si>
+  <si>
+    <t>fer ‘s Meega isch,</t>
+  </si>
+  <si>
+    <t>naa spiel grad weider.</t>
+  </si>
+  <si>
+    <t>I mag de so arg, dass scho</t>
+  </si>
+  <si>
+    <t>richdich weh tuat.</t>
+  </si>
+  <si>
+    <t>Je mehr i dr zeig, deschdo</t>
+  </si>
+  <si>
+    <t>mehr bleibt mr.</t>
+  </si>
+  <si>
+    <t>A rechte Liab hat aafach kaa</t>
+  </si>
+  <si>
+    <t>End.</t>
+  </si>
+  <si>
+    <t>Selbscht in da scheenschte</t>
+  </si>
+  <si>
+    <t>Liebesgschichda</t>
+  </si>
+  <si>
+    <t>ruggelt‘s scho amaal.</t>
+  </si>
+  <si>
+    <t>As You Like It, Act 2, Scene 6</t>
+  </si>
+  <si>
+    <t>D‘Liab</t>
+  </si>
+  <si>
+    <t>isch au net mee wie</t>
+  </si>
+  <si>
+    <t>a Narredei.</t>
+  </si>
+  <si>
+    <t>Love is a smoke made with</t>
+  </si>
+  <si>
+    <t>the fume of sighs.</t>
+  </si>
+  <si>
+    <t>Romeo and Juliet, Act 1, Scene 1</t>
+  </si>
+  <si>
+    <t>‘S Meega isch grad an</t>
+  </si>
+  <si>
+    <t>Dampf,</t>
+  </si>
+  <si>
+    <t>wo nach Seifzer riecht.</t>
+  </si>
+  <si>
+    <t>As You Like It, Act 2, Scene 7</t>
+  </si>
+  <si>
+    <t>Aan un derselbe Kerle</t>
+  </si>
+  <si>
+    <t>kaa ganz verschiedene</t>
+  </si>
+  <si>
+    <t>Gsichter hawwa.</t>
+  </si>
+  <si>
+    <t>Henry IV, Part 2, Act 3, Scene 1</t>
+  </si>
+  <si>
+    <t>Middra Kron uff am Deetz</t>
+  </si>
+  <si>
+    <t>schlaaft mr zimmlich</t>
+  </si>
+  <si>
+    <t>uagmiatlich.</t>
+  </si>
+  <si>
+    <t>For I ne‘er saw true beauty</t>
+  </si>
+  <si>
+    <t>Romeo and Juliet, Act 1, Scene 5</t>
+  </si>
+  <si>
+    <t>Well heit nacht hawwe serscht</t>
+  </si>
+  <si>
+    <t>maal</t>
+  </si>
+  <si>
+    <t>äbbas richdig schees gsäh.</t>
+  </si>
+  <si>
+    <t>Twelfth Night, Act 1, Scene 5</t>
+  </si>
+  <si>
+    <t>Mir isch an schlaua Dussel</t>
+  </si>
+  <si>
+    <t>gwieß liaber</t>
+  </si>
+  <si>
+    <t>wie an dusslicha Schlaumaier.</t>
+  </si>
+  <si>
+    <t>Macbeth, Act 1, Scene 1</t>
+  </si>
+  <si>
+    <t>Recht isch schlecht,</t>
+  </si>
+  <si>
+    <t>un schlecht isch recht.</t>
+  </si>
+  <si>
+    <t>As You Like It, Act 5, Scene 1</t>
+  </si>
+  <si>
+    <t>An Seggl held sich</t>
+  </si>
+  <si>
+    <t>fer schlau, awer aaner,</t>
+  </si>
+  <si>
+    <t>wo äbbes im Deetz hat,</t>
+  </si>
+  <si>
+    <t>der waas,</t>
+  </si>
+  <si>
+    <t>dass er bloß an arma Bachel</t>
+  </si>
+  <si>
+    <t>isch.</t>
+  </si>
+  <si>
+    <t>Aaner kaa dr schee do,</t>
+  </si>
+  <si>
+    <t>un schee do,</t>
+  </si>
+  <si>
+    <t>un isch doch an Lump.</t>
+  </si>
+  <si>
+    <t>All‘s Well That Ends Well, Act 1, Scene 1</t>
+  </si>
+  <si>
+    <t>Sei aaschtändich zu alle,</t>
+  </si>
+  <si>
+    <t>trau hechschtens a paar</t>
+  </si>
+  <si>
+    <t>über de Weg,</t>
+  </si>
+  <si>
+    <t>dua kaam äbbes aa.</t>
+  </si>
+  <si>
+    <t>Antony and Cleopatra, Act 2, Scene 6</t>
+  </si>
+  <si>
+    <t>I lob dr an jeda aa,</t>
+  </si>
+  <si>
+    <t>der wo mi lobt.</t>
+  </si>
+  <si>
+    <t>face, and you</t>
+  </si>
+  <si>
+    <t>‘S erschte Gsicht hat dr da</t>
+  </si>
+  <si>
+    <t>Herrgott gäwe,</t>
+  </si>
+  <si>
+    <t>wiasd schbäder aussiesch,</t>
+  </si>
+  <si>
+    <t>da draa bisch scho selber</t>
+  </si>
+  <si>
+    <t>schuld.</t>
+  </si>
+  <si>
+    <t>Let me be that I am and</t>
+  </si>
+  <si>
+    <t>Much Ado About Nothing, Act 1, Scene 3</t>
+  </si>
+  <si>
+    <t>Lass mi in Ruha</t>
+  </si>
+  <si>
+    <t>un mach net ständig</t>
+  </si>
+  <si>
+    <t>an mr rum!</t>
+  </si>
+  <si>
+    <t>lender be:</t>
+  </si>
+  <si>
+    <t>for loan oft loses both itself</t>
+  </si>
+  <si>
+    <t>and friend . . .</t>
+  </si>
+  <si>
+    <t>Hamlet, Act 1, Scene 3</t>
+  </si>
+  <si>
+    <t>Leih dr nix un verleih nix;</t>
+  </si>
+  <si>
+    <t>daadamit verliersch dei Geld</t>
+  </si>
+  <si>
+    <t>un deine beschde Freind dazua.</t>
+  </si>
+  <si>
+    <t>Self-love, my liege,</t>
+  </si>
+  <si>
+    <t>is not so vile a sin,</t>
+  </si>
+  <si>
+    <t>as self-neglecting.</t>
+  </si>
+  <si>
+    <t>Henry V, Act 2, Scene 4</t>
+  </si>
+  <si>
+    <t>Blooß aan sich selber denka,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">isch net halber </t>
+  </si>
+  <si>
+    <t>so schlimm,</t>
+  </si>
+  <si>
+    <t>wie wemmr nemme</t>
+  </si>
+  <si>
+    <t>uff sich selber uffbasst.</t>
+  </si>
+  <si>
+    <t>Hamlet, Act 3, Scene 2</t>
+  </si>
+  <si>
+    <t>Wemmr uns selber</t>
+  </si>
+  <si>
+    <t>nix vormacha,</t>
+  </si>
+  <si>
+    <t>misse mr au andere nix</t>
+  </si>
+  <si>
+    <t>vormacha.</t>
+  </si>
+  <si>
+    <t>A Midsummer Night‘s Dream, Act 5, Scene 1</t>
+  </si>
+  <si>
+    <t>‘S isch net gnuag,</t>
+  </si>
+  <si>
+    <t>dass mr schwätzd,</t>
+  </si>
+  <si>
+    <t>‘s muss ah waar sei,</t>
+  </si>
+  <si>
+    <t>was mr secht.</t>
+  </si>
+  <si>
+    <t>I am not bound to please</t>
+  </si>
+  <si>
+    <t>thee with my answer.</t>
+  </si>
+  <si>
+    <t>The Merchant of Venice, Act 4, Scene 1</t>
+  </si>
+  <si>
+    <t>Was i dr zum saga hab,</t>
+  </si>
+  <si>
+    <t>des muaß dr net gfalla.</t>
+  </si>
+  <si>
+    <t>My tongue will tell</t>
+  </si>
+  <si>
+    <t>the anger of my heart,</t>
+  </si>
+  <si>
+    <t>or else my heart concealing</t>
+  </si>
+  <si>
+    <t>it will break.</t>
+  </si>
+  <si>
+    <t>The Taming of the Shrew, Act 6, Scene 3</t>
+  </si>
+  <si>
+    <t>Wenn mir was richdig uff</t>
+  </si>
+  <si>
+    <t>da Zeiger geht,</t>
+  </si>
+  <si>
+    <t>naa muass des naus,</t>
+  </si>
+  <si>
+    <t>schonscht verropft‘s me.</t>
+  </si>
+  <si>
+    <t>Heer alle guat zua,</t>
+  </si>
+  <si>
+    <t>awer schwätz net mit ama jeda.</t>
+  </si>
+  <si>
+    <t>How art thou out of breath</t>
+  </si>
+  <si>
+    <t>when thou hast breath</t>
+  </si>
+  <si>
+    <t>to say to me</t>
+  </si>
+  <si>
+    <t>that thou art out of breath?</t>
+  </si>
+  <si>
+    <t>Romeo and Juliet, Act 2, Scene 5</t>
+  </si>
+  <si>
+    <t>Solangsch no saga kaasch,</t>
+  </si>
+  <si>
+    <t>dass ganz hie bisch,</t>
+  </si>
+  <si>
+    <t>naa bisch no lang net hie.</t>
+  </si>
+  <si>
+    <t>Words are easy,</t>
+  </si>
+  <si>
+    <t>like the wind;</t>
+  </si>
+  <si>
+    <t>D‘Leit schwätza daaher,</t>
+  </si>
+  <si>
+    <t>wenn dr Dag lang isch,</t>
+  </si>
+  <si>
+    <t>awer ächte freind findsch</t>
+  </si>
+  <si>
+    <t>net so leicht.</t>
+  </si>
+  <si>
+    <t>Hamlet, Act3, Scene 3</t>
+  </si>
+  <si>
+    <t>Wemmr äbbes</t>
+  </si>
+  <si>
+    <t>ohne verschdand</t>
+  </si>
+  <si>
+    <t>daher schwätzt,</t>
+  </si>
+  <si>
+    <t>naa sott mr besser d‘Gosch</t>
+  </si>
+  <si>
+    <t>halta.</t>
+  </si>
+  <si>
+    <t>Richard II., Act 2, Scene 1</t>
+  </si>
+  <si>
+    <t>Wo mr net viel schwätzt,</t>
+  </si>
+  <si>
+    <t>da heert mr ah selten</t>
+  </si>
+  <si>
+    <t>dumms Zeig.</t>
+  </si>
+  <si>
+    <t>The Merchant of Venice, Act 1, Scene 3</t>
+  </si>
+  <si>
+    <t>Ah de Deifel kaa d‘heilich</t>
+  </si>
+  <si>
+    <t>Schrift ziddiera,</t>
+  </si>
+  <si>
+    <t>wenn er dadamid naakriagt,</t>
+  </si>
+  <si>
+    <t>was er will.</t>
+  </si>
+  <si>
+    <t>King Lear, Act 3, Scene 2</t>
+  </si>
+  <si>
+    <t>Oft trifft äbbes,</t>
+  </si>
+  <si>
+    <t>wo bloß zum Spass gsagt</t>
+  </si>
+  <si>
+    <t>worra isch,</t>
+  </si>
+  <si>
+    <t>da Nagel voll uff da Kopf.</t>
+  </si>
+  <si>
+    <t>A man can die but once.</t>
+  </si>
+  <si>
+    <t>Henry IV, Part 2, Act 3</t>
+  </si>
+  <si>
+    <t>Sterba kaasch bloß aa Maal.</t>
+  </si>
+  <si>
+    <t>Timon of Athens, Act 4, Scene 2</t>
+  </si>
+  <si>
+    <t>Uns isch ah scho amaal</t>
+  </si>
+  <si>
+    <t>besser ganga.</t>
+  </si>
+  <si>
+    <t>Antonius und Cleopatra, Act 3, Scene 7</t>
+  </si>
+  <si>
+    <t>Kaaner schwärmt mee</t>
+  </si>
+  <si>
+    <t>davoo, alles schnell fertich</t>
+  </si>
+  <si>
+    <t>zu kriega,</t>
+  </si>
+  <si>
+    <t>wie die, wo mr zum jaga</t>
+  </si>
+  <si>
+    <t>traga muss.</t>
+  </si>
+  <si>
+    <t>Be great in, Act,</t>
+  </si>
+  <si>
+    <t>as you have been in thought.</t>
+  </si>
+  <si>
+    <t>King John, Act 4, Scene 2</t>
+  </si>
+  <si>
+    <t>Schwätz net lang rum,</t>
+  </si>
+  <si>
+    <t>tua‘s aafach.</t>
+  </si>
+  <si>
+    <t>to keep secrets.</t>
+  </si>
+  <si>
+    <t>Julius Caesar, Act 2, Scene 4</t>
+  </si>
+  <si>
+    <t>D‘Weibsleit kenna aafach</t>
+  </si>
+  <si>
+    <t>d‘Gosch net halta.</t>
+  </si>
+  <si>
+    <t>Sotte weitermacha oder</t>
+  </si>
+  <si>
+    <t>Die Fraag lässt me aafach</t>
+  </si>
+  <si>
+    <t>net los.</t>
+  </si>
+  <si>
+    <t>sta</t>
+  </si>
+  <si>
+    <t>To be, or not to be: that is the question.</t>
+  </si>
+  <si>
+    <t>Fragisthu:</t>
+  </si>
+  <si>
+    <t>Bistu</t>
+  </si>
+  <si>
+    <t>edo</t>
+  </si>
+  <si>
+    <t>bistu niwiht?</t>
+  </si>
+  <si>
+    <t>Ist diu werlte edo niwiht?</t>
+  </si>
+  <si>
+    <t>Guldin glizzan,</t>
+  </si>
+  <si>
+    <t>Sultu wizzan:</t>
+  </si>
+  <si>
+    <t>Trugilicho</t>
+  </si>
+  <si>
+    <t>Edilicho!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fonna niwiht kimmit </t>
+  </si>
+  <si>
+    <t>niwiht.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inti: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Niwiht kimmit fona </t>
+  </si>
+  <si>
+    <t xml:space="preserve">There are more things in heaven and earth, </t>
+  </si>
+  <si>
+    <t>Manec in himilo inti erdun garunî.</t>
+  </si>
+  <si>
+    <t>Manec gatunî.</t>
+  </si>
+  <si>
+    <t>Meere denne in droume.</t>
+  </si>
+  <si>
+    <t>Meere in werolts floume.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cowards die many times </t>
+  </si>
+  <si>
+    <t xml:space="preserve">before their deaths; </t>
+  </si>
+  <si>
+    <t>Ungiloubiga sterban ze tôde.</t>
+  </si>
+  <si>
+    <t>Giloubiga leban unsterbelîche.</t>
+  </si>
+  <si>
+    <t>Henry IV, Act 3, scene 2</t>
+  </si>
+  <si>
+    <t>Mennisco sterbant einazêm.</t>
+  </si>
+  <si>
+    <t>Eban alliu.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Theres many a man has </t>
+  </si>
+  <si>
+    <t>A Comedy of Errors,  Act 2, scene 2</t>
+  </si>
+  <si>
+    <t>Mihhil mennisgon habent filu wirran fahs ana houbit.</t>
+  </si>
+  <si>
+    <t>Inti lützel furstandida innan.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There is nothing either good or bad, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suntheiti edo slehtiness </t>
+  </si>
+  <si>
+    <t xml:space="preserve">niwiht sint. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wir skepfemes alse </t>
+  </si>
+  <si>
+    <t>in denkendom geiste.</t>
+  </si>
+  <si>
+    <t>Inti geistlîche?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Whats in a name? </t>
+  </si>
+  <si>
+    <t>A rose by any other name would smell as sweet.</t>
+  </si>
+  <si>
+    <t>Hwas sagit namo?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lilia inti rosa stinkint </t>
+  </si>
+  <si>
+    <t xml:space="preserve">gelîche suoze </t>
+  </si>
+  <si>
+    <t>mit iogihwelîh namôn.</t>
+  </si>
+  <si>
+    <t>Hwer rennit allze drâte,</t>
+  </si>
+  <si>
+    <t>Kimmit vil lîhte ze spâte.</t>
+  </si>
+  <si>
+    <t>Slipfant managî,</t>
+  </si>
+  <si>
+    <t>Slipfant in abgruntî.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Love sought is good, </t>
+  </si>
+  <si>
+    <t>Minna gisuochta?</t>
+  </si>
+  <si>
+    <t>Bezziro funtana!</t>
+  </si>
+  <si>
+    <t>Schouwn mit den ougen</t>
+  </si>
+  <si>
+    <t>will in der lîb nit tougen.</t>
+  </si>
+  <si>
+    <t>Mit mihhilon minnen</t>
+  </si>
+  <si>
+    <t>Wirsthu von sinnen.</t>
+  </si>
+  <si>
+    <t>Fliagist wie got von hinnen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Love alters not with his brief hours and weeks, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">but bears it out </t>
+  </si>
+  <si>
+    <t>Minna wirt niuwan elder.</t>
+  </si>
+  <si>
+    <t>Biswîlen lützel kelder.</t>
+  </si>
+  <si>
+    <t>Ih minno in êwo</t>
+  </si>
+  <si>
+    <t>Al inti iegilîcho.</t>
+  </si>
+  <si>
+    <t>Love is a smoke made with the fume of sighs.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minne glîchet wihrouch </t>
+  </si>
+  <si>
+    <t>trunchoni atumes.</t>
+  </si>
+  <si>
+    <t>For I ne‘er saw true beauty till this night.</t>
+  </si>
+  <si>
+    <t>Romeo and Juliet, Act 1, scene 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nachtlichemo zîte </t>
+  </si>
+  <si>
+    <t>arougta sih</t>
+  </si>
+  <si>
+    <t>skôni in nackoti.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">My love as deep; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">the more I give to thee, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">the more I have, </t>
+  </si>
+  <si>
+    <t>Minna ist widerhall.</t>
+  </si>
+  <si>
+    <t>Diu thu gibist,</t>
+  </si>
+  <si>
+    <t>sih wentit all.</t>
+  </si>
+  <si>
+    <t>If music be the food of love play on.</t>
+  </si>
+  <si>
+    <t>Minnes fuotar</t>
+  </si>
+  <si>
+    <t>Der harfn spîl</t>
+  </si>
+  <si>
+    <t>gît der minne vîl.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Darumbe spîl ih weiter </t>
+  </si>
+  <si>
+    <t>inti weiter.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minna gengit thuruch </t>
+  </si>
+  <si>
+    <t>durri steti</t>
+  </si>
+  <si>
+    <t>inti</t>
+  </si>
+  <si>
+    <t>widarbirgic.</t>
+  </si>
+  <si>
+    <t>Minna toleheiti ist.</t>
+  </si>
+  <si>
+    <t>They do not love that do not show their love.</t>
+  </si>
+  <si>
+    <t>The Two Gentlemen of Verona, Act 1, scene 2</t>
+  </si>
+  <si>
+    <t>Tougen minne, diu wîs guot?</t>
+  </si>
+  <si>
+    <t>Minna ni gebirc in herzun dînum.</t>
+  </si>
+  <si>
+    <t>that wears thecrown.</t>
+  </si>
+  <si>
+    <t>Korona anna houbit</t>
+  </si>
+  <si>
+    <t>schlafist</t>
+  </si>
+  <si>
+    <t>intbrettantî.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Doubt truth to be a liar, </t>
+  </si>
+  <si>
+    <t>Wâri edo goukulâri</t>
+  </si>
+  <si>
+    <t>minna mîn</t>
+  </si>
+  <si>
+    <t>blibet urmaari.</t>
+  </si>
+  <si>
+    <t>Lifes . . .  a tale told by an idiot . . .</t>
+  </si>
+  <si>
+    <t>Leban marili ist,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ingablasan </t>
+  </si>
+  <si>
+    <t>innemo tolem.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Better a witty fool </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wîsi wît </t>
+  </si>
+  <si>
+    <t>fora</t>
+  </si>
+  <si>
+    <t>Wîsi nâh?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wîzzi gimeino </t>
+  </si>
+  <si>
+    <t>Wîzzi cleino?</t>
+  </si>
+  <si>
+    <t>Gimeinô ist cleinô.</t>
+  </si>
+  <si>
+    <t>Inti</t>
+  </si>
+  <si>
+    <t>Cleinô ist gimeinô.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A fool thinks himself to be wise, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">but a wise man knows </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toler man dunket sih </t>
+  </si>
+  <si>
+    <t>spâhe.</t>
+  </si>
+  <si>
+    <t>Spâher wizzit, tole ist.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If we are true to ourselves, we can not be false </t>
+  </si>
+  <si>
+    <t>Bis dîn selbes triuwe,</t>
+  </si>
+  <si>
+    <t>Wirt dih niwiht geriuwe.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Be great in act, </t>
+  </si>
+  <si>
+    <t>In dînem tuon niht wanken</t>
+  </si>
+  <si>
+    <t>tuon als in gedanken.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Celerity is never </t>
+  </si>
+  <si>
+    <t xml:space="preserve">more admired </t>
+  </si>
+  <si>
+    <t>Antonius und Cleopatra, Act 3, scene 7</t>
+  </si>
+  <si>
+    <t>Hwas sûmselige versouman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lasset sie </t>
+  </si>
+  <si>
+    <t>von snellheit drouman.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wîsheit und bedachte </t>
+  </si>
+  <si>
+    <t>sûchan,</t>
+  </si>
+  <si>
+    <t>Biwaarit dih zuo ofta strûchan.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suspicion always haunts </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hwer sihhit eigan </t>
+  </si>
+  <si>
+    <t>süntigheit,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sicht andere </t>
+  </si>
+  <si>
+    <t>süntan bereit.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">One may smile, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">and smile, </t>
+  </si>
+  <si>
+    <t>Friuntlîche smutzeln</t>
+  </si>
+  <si>
+    <t>inti smutzeln</t>
+  </si>
+  <si>
+    <t xml:space="preserve">inti arsloh sîn. </t>
+  </si>
+  <si>
+    <t>Schlafisthu mit wutz,</t>
+  </si>
+  <si>
+    <t>Fangisthu sîn schmutz.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Love all, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">trust a few, </t>
+  </si>
+  <si>
+    <t>Elliu lîba,</t>
+  </si>
+  <si>
+    <t>Ni getriuwe eoman,</t>
+  </si>
+  <si>
+    <t>Missetuo neoman.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I will praise any man </t>
+  </si>
+  <si>
+    <t>Swer mih lobôt vollemunt,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Des lob ih sing </t>
+  </si>
+  <si>
+    <t>in werlte runt.</t>
+  </si>
+  <si>
+    <t>God has given you one face, and you make yourself another.</t>
+  </si>
+  <si>
+    <t>Antluzzi gab Herre dir.</t>
+  </si>
+  <si>
+    <t>Wiltu bezzirôn?</t>
+  </si>
+  <si>
+    <t>Wird dir misselingan.</t>
+  </si>
+  <si>
+    <t>The Merchant of Venice Quotes, Act 1, scene 1</t>
+  </si>
+  <si>
+    <t>Bî freuwen inti kussen</t>
+  </si>
+  <si>
+    <t>Lâz gifalta quemman.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Go to your bosom: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Knock there, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">and ask your heart </t>
+  </si>
+  <si>
+    <t>Ruari dîno brustin.</t>
+  </si>
+  <si>
+    <t>Gihôri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dînes herzuns </t>
+  </si>
+  <si>
+    <t>gizungi.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A good moral, my lord: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">it is not enough to speak, </t>
+  </si>
+  <si>
+    <t>Redinôn tugenthafti</t>
+  </si>
+  <si>
+    <t>idem</t>
+  </si>
+  <si>
+    <t>Redinôn waarihafti.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uneasy lies the head </t>
+  </si>
+  <si>
+    <t xml:space="preserve">It is a kind of good deed to say well; </t>
+  </si>
+  <si>
+    <t>Tâtim sagen</t>
+  </si>
+  <si>
+    <t>meere denne wort.</t>
+  </si>
+  <si>
+    <t>Ergo</t>
+  </si>
+  <si>
+    <t>Wôlasagen</t>
+  </si>
+  <si>
+    <t>Wôlatuon.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Give every man thine ear, </t>
+  </si>
+  <si>
+    <t>Dîn ora aller werlte.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ira stimma </t>
+  </si>
+  <si>
+    <t>ni gib nimma.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We know what we are, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">but know not </t>
+  </si>
+  <si>
+    <t>Wîzzan wir, hwas sint.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wîzzan wir niwiht, </t>
+  </si>
+  <si>
+    <t>hwas werdên.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Self-love, my liege, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">is not so vile a sin, </t>
+  </si>
+  <si>
+    <t>Henry V, Act 2, scene 4</t>
+  </si>
+  <si>
+    <t>Eiganliab ni sunta ist,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sunta ist </t>
+  </si>
+  <si>
+    <t>sih selbes intswebban.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Words without thoughts </t>
+  </si>
+  <si>
+    <t>For leeran worten</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nie offanôn sih </t>
+  </si>
+  <si>
+    <t>der himil pforten.</t>
+  </si>
+  <si>
+    <t>I wish my horse had the speed of your tongue.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Waret mîn ors sô draate </t>
+  </si>
+  <si>
+    <t>alse dîn zunga schwaate.</t>
+  </si>
+  <si>
+    <t>The devil can cite Scripture for his purpose.</t>
+  </si>
+  <si>
+    <t>Diufal,</t>
+  </si>
+  <si>
+    <t>der nuzzet all</t>
+  </si>
+  <si>
+    <t>des Heiligen gescribes.</t>
+  </si>
+  <si>
+    <t>Churtnassi</t>
+  </si>
+  <si>
+    <t>Sterkit</t>
+  </si>
+  <si>
+    <t>Geist.</t>
+  </si>
+  <si>
+    <t>Sich nach hintan,</t>
+  </si>
+  <si>
+    <t>Wiltu bessres findan.</t>
+  </si>
+  <si>
+    <t>Wirst du hintan</t>
+  </si>
+  <si>
+    <t>Bessres gifindan?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To be, or not to be: </t>
+  </si>
+  <si>
+    <t>Wuwuwu?</t>
+  </si>
+  <si>
+    <t>Wiltu weiter wesan</t>
+  </si>
+  <si>
+    <t>wiltu niwiht weiter wesan?</t>
   </si>
 </sst>
 </file>
@@ -2101,9 +4057,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2420,15 +4379,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A074AB5-1EF9-487A-9681-DA97360C2616}">
-  <dimension ref="A1:N145"/>
+  <dimension ref="A1:Q291"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A145"/>
+      <selection sqref="A1:A291"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="11.5546875" style="1"/>
+    <col min="1" max="1" width="11.5546875" style="2"/>
+    <col min="2" max="3" width="11.5546875" style="1"/>
     <col min="4" max="4" width="37.109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="21.44140625" style="1" customWidth="1"/>
     <col min="6" max="6" width="22.88671875" style="1" customWidth="1"/>
@@ -2443,7 +4403,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="36" x14ac:dyDescent="0.3">
-      <c r="A1" s="1">
+      <c r="A1" s="2">
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -2472,7 +4432,7 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="54" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
+      <c r="A2" s="2">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -2504,7 +4464,7 @@
       </c>
     </row>
     <row r="3" spans="1:14" ht="36" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
+      <c r="A3" s="2">
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -2530,7 +4490,7 @@
       </c>
     </row>
     <row r="4" spans="1:14" ht="36" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
+      <c r="A4" s="2">
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -2571,7 +4531,7 @@
       </c>
     </row>
     <row r="5" spans="1:14" ht="36" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
+      <c r="A5" s="2">
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -2606,7 +4566,7 @@
       </c>
     </row>
     <row r="6" spans="1:14" ht="36" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
+      <c r="A6" s="2">
         <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -2635,7 +4595,7 @@
       </c>
     </row>
     <row r="7" spans="1:14" ht="36" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
+      <c r="A7" s="2">
         <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -2670,7 +4630,7 @@
       </c>
     </row>
     <row r="8" spans="1:14" ht="36" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
+      <c r="A8" s="2">
         <v>8</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -2705,7 +4665,7 @@
       </c>
     </row>
     <row r="9" spans="1:14" ht="36" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
+      <c r="A9" s="2">
         <v>9</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -2740,7 +4700,7 @@
       </c>
     </row>
     <row r="10" spans="1:14" ht="36" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
+      <c r="A10" s="2">
         <v>10</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -2769,7 +4729,7 @@
       </c>
     </row>
     <row r="11" spans="1:14" ht="36" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
+      <c r="A11" s="2">
         <v>11</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -2810,7 +4770,7 @@
       </c>
     </row>
     <row r="12" spans="1:14" ht="54" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
+      <c r="A12" s="2">
         <v>12</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -2836,7 +4796,7 @@
       </c>
     </row>
     <row r="13" spans="1:14" ht="36" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
+      <c r="A13" s="2">
         <v>13</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -2868,7 +4828,7 @@
       </c>
     </row>
     <row r="14" spans="1:14" ht="36" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
+      <c r="A14" s="2">
         <v>14</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -2897,7 +4857,7 @@
       </c>
     </row>
     <row r="15" spans="1:14" ht="36" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
+      <c r="A15" s="2">
         <v>15</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -2935,7 +4895,7 @@
       </c>
     </row>
     <row r="16" spans="1:14" ht="36" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
+      <c r="A16" s="2">
         <v>16</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -2964,7 +4924,7 @@
       </c>
     </row>
     <row r="17" spans="1:13" ht="36" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
+      <c r="A17" s="2">
         <v>17</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -2993,7 +4953,7 @@
       </c>
     </row>
     <row r="18" spans="1:13" ht="54" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
+      <c r="A18" s="2">
         <v>18</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -3019,7 +4979,7 @@
       </c>
     </row>
     <row r="19" spans="1:13" ht="36" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
+      <c r="A19" s="2">
         <v>19</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -3042,7 +5002,7 @@
       </c>
     </row>
     <row r="20" spans="1:13" ht="36" x14ac:dyDescent="0.3">
-      <c r="A20" s="1">
+      <c r="A20" s="2">
         <v>20</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -3071,7 +5031,7 @@
       </c>
     </row>
     <row r="21" spans="1:13" ht="36" x14ac:dyDescent="0.3">
-      <c r="A21" s="1">
+      <c r="A21" s="2">
         <v>21</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -3097,7 +5057,7 @@
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A22" s="1">
+      <c r="A22" s="2">
         <v>22</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -3132,7 +5092,7 @@
       </c>
     </row>
     <row r="23" spans="1:13" ht="36" x14ac:dyDescent="0.3">
-      <c r="A23" s="1">
+      <c r="A23" s="2">
         <v>23</v>
       </c>
       <c r="B23" s="1" t="s">
@@ -3158,7 +5118,7 @@
       </c>
     </row>
     <row r="24" spans="1:13" ht="36" x14ac:dyDescent="0.3">
-      <c r="A24" s="1">
+      <c r="A24" s="2">
         <v>24</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -3184,7 +5144,7 @@
       </c>
     </row>
     <row r="25" spans="1:13" ht="36" x14ac:dyDescent="0.3">
-      <c r="A25" s="1">
+      <c r="A25" s="2">
         <v>25</v>
       </c>
       <c r="B25" s="1" t="s">
@@ -3216,7 +5176,7 @@
       </c>
     </row>
     <row r="26" spans="1:13" ht="36" x14ac:dyDescent="0.3">
-      <c r="A26" s="1">
+      <c r="A26" s="2">
         <v>26</v>
       </c>
       <c r="B26" s="1" t="s">
@@ -3254,7 +5214,7 @@
       </c>
     </row>
     <row r="27" spans="1:13" ht="36" x14ac:dyDescent="0.3">
-      <c r="A27" s="1">
+      <c r="A27" s="2">
         <v>27</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -3286,7 +5246,7 @@
       </c>
     </row>
     <row r="28" spans="1:13" ht="36" x14ac:dyDescent="0.3">
-      <c r="A28" s="1">
+      <c r="A28" s="2">
         <v>28</v>
       </c>
       <c r="B28" s="1" t="s">
@@ -3315,7 +5275,7 @@
       </c>
     </row>
     <row r="29" spans="1:13" ht="54" x14ac:dyDescent="0.3">
-      <c r="A29" s="1">
+      <c r="A29" s="2">
         <v>29</v>
       </c>
       <c r="B29" s="1" t="s">
@@ -3341,7 +5301,7 @@
       </c>
     </row>
     <row r="30" spans="1:13" ht="36" x14ac:dyDescent="0.3">
-      <c r="A30" s="1">
+      <c r="A30" s="2">
         <v>30</v>
       </c>
       <c r="B30" s="1" t="s">
@@ -3373,7 +5333,7 @@
       </c>
     </row>
     <row r="31" spans="1:13" ht="54" x14ac:dyDescent="0.3">
-      <c r="A31" s="1">
+      <c r="A31" s="2">
         <v>31</v>
       </c>
       <c r="B31" s="1" t="s">
@@ -3402,7 +5362,7 @@
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A32" s="1">
+      <c r="A32" s="2">
         <v>32</v>
       </c>
       <c r="B32" s="1" t="s">
@@ -3437,7 +5397,7 @@
       </c>
     </row>
     <row r="33" spans="1:14" ht="54" x14ac:dyDescent="0.3">
-      <c r="A33" s="1">
+      <c r="A33" s="2">
         <v>33</v>
       </c>
       <c r="B33" s="1" t="s">
@@ -3466,7 +5426,7 @@
       </c>
     </row>
     <row r="34" spans="1:14" ht="36" x14ac:dyDescent="0.3">
-      <c r="A34" s="1">
+      <c r="A34" s="2">
         <v>34</v>
       </c>
       <c r="B34" s="1" t="s">
@@ -3501,7 +5461,7 @@
       </c>
     </row>
     <row r="35" spans="1:14" ht="36" x14ac:dyDescent="0.3">
-      <c r="A35" s="1">
+      <c r="A35" s="2">
         <v>35</v>
       </c>
       <c r="B35" s="1" t="s">
@@ -3542,7 +5502,7 @@
       </c>
     </row>
     <row r="36" spans="1:14" ht="36" x14ac:dyDescent="0.3">
-      <c r="A36" s="1">
+      <c r="A36" s="2">
         <v>36</v>
       </c>
       <c r="B36" s="1" t="s">
@@ -3577,7 +5537,7 @@
       </c>
     </row>
     <row r="37" spans="1:14" ht="36" x14ac:dyDescent="0.3">
-      <c r="A37" s="1">
+      <c r="A37" s="2">
         <v>37</v>
       </c>
       <c r="B37" s="1" t="s">
@@ -3609,7 +5569,7 @@
       </c>
     </row>
     <row r="38" spans="1:14" ht="36" x14ac:dyDescent="0.3">
-      <c r="A38" s="1">
+      <c r="A38" s="2">
         <v>38</v>
       </c>
       <c r="B38" s="1" t="s">
@@ -3635,7 +5595,7 @@
       </c>
     </row>
     <row r="39" spans="1:14" ht="36" x14ac:dyDescent="0.3">
-      <c r="A39" s="1">
+      <c r="A39" s="2">
         <v>39</v>
       </c>
       <c r="B39" s="1" t="s">
@@ -3673,7 +5633,7 @@
       </c>
     </row>
     <row r="40" spans="1:14" ht="36" x14ac:dyDescent="0.3">
-      <c r="A40" s="1">
+      <c r="A40" s="2">
         <v>40</v>
       </c>
       <c r="B40" s="1" t="s">
@@ -3708,7 +5668,7 @@
       </c>
     </row>
     <row r="41" spans="1:14" ht="36" x14ac:dyDescent="0.3">
-      <c r="A41" s="1">
+      <c r="A41" s="2">
         <v>41</v>
       </c>
       <c r="B41" s="1" t="s">
@@ -3737,7 +5697,7 @@
       </c>
     </row>
     <row r="42" spans="1:14" ht="54" x14ac:dyDescent="0.3">
-      <c r="A42" s="1">
+      <c r="A42" s="2">
         <v>42</v>
       </c>
       <c r="B42" s="1" t="s">
@@ -3766,7 +5726,7 @@
       </c>
     </row>
     <row r="43" spans="1:14" ht="54" x14ac:dyDescent="0.3">
-      <c r="A43" s="1">
+      <c r="A43" s="2">
         <v>43</v>
       </c>
       <c r="B43" s="1" t="s">
@@ -3792,7 +5752,7 @@
       </c>
     </row>
     <row r="44" spans="1:14" ht="36" x14ac:dyDescent="0.3">
-      <c r="A44" s="1">
+      <c r="A44" s="2">
         <v>44</v>
       </c>
       <c r="B44" s="1" t="s">
@@ -3821,7 +5781,7 @@
       </c>
     </row>
     <row r="45" spans="1:14" ht="36" x14ac:dyDescent="0.3">
-      <c r="A45" s="1">
+      <c r="A45" s="2">
         <v>45</v>
       </c>
       <c r="B45" s="1" t="s">
@@ -3853,7 +5813,7 @@
       </c>
     </row>
     <row r="46" spans="1:14" ht="36" x14ac:dyDescent="0.3">
-      <c r="A46" s="1">
+      <c r="A46" s="2">
         <v>46</v>
       </c>
       <c r="B46" s="1" t="s">
@@ -3882,7 +5842,7 @@
       </c>
     </row>
     <row r="47" spans="1:14" ht="36" x14ac:dyDescent="0.3">
-      <c r="A47" s="1">
+      <c r="A47" s="2">
         <v>47</v>
       </c>
       <c r="B47" s="1" t="s">
@@ -3911,7 +5871,7 @@
       </c>
     </row>
     <row r="48" spans="1:14" ht="36" x14ac:dyDescent="0.3">
-      <c r="A48" s="1">
+      <c r="A48" s="2">
         <v>48</v>
       </c>
       <c r="B48" s="1" t="s">
@@ -3940,7 +5900,7 @@
       </c>
     </row>
     <row r="49" spans="1:13" ht="54" x14ac:dyDescent="0.3">
-      <c r="A49" s="1">
+      <c r="A49" s="2">
         <v>49</v>
       </c>
       <c r="B49" s="1" t="s">
@@ -3969,7 +5929,7 @@
       </c>
     </row>
     <row r="50" spans="1:13" ht="36" x14ac:dyDescent="0.3">
-      <c r="A50" s="1">
+      <c r="A50" s="2">
         <v>50</v>
       </c>
       <c r="B50" s="1" t="s">
@@ -3992,7 +5952,7 @@
       </c>
     </row>
     <row r="51" spans="1:13" ht="36" x14ac:dyDescent="0.3">
-      <c r="A51" s="1">
+      <c r="A51" s="2">
         <v>51</v>
       </c>
       <c r="B51" s="1" t="s">
@@ -4021,7 +5981,7 @@
       </c>
     </row>
     <row r="52" spans="1:13" ht="54" x14ac:dyDescent="0.3">
-      <c r="A52" s="1">
+      <c r="A52" s="2">
         <v>52</v>
       </c>
       <c r="B52" s="1" t="s">
@@ -4050,7 +6010,7 @@
       </c>
     </row>
     <row r="53" spans="1:13" ht="36" x14ac:dyDescent="0.3">
-      <c r="A53" s="1">
+      <c r="A53" s="2">
         <v>53</v>
       </c>
       <c r="B53" s="1" t="s">
@@ -4076,7 +6036,7 @@
       </c>
     </row>
     <row r="54" spans="1:13" ht="54" x14ac:dyDescent="0.3">
-      <c r="A54" s="1">
+      <c r="A54" s="2">
         <v>54</v>
       </c>
       <c r="B54" s="1" t="s">
@@ -4111,7 +6071,7 @@
       </c>
     </row>
     <row r="55" spans="1:13" ht="36" x14ac:dyDescent="0.3">
-      <c r="A55" s="1">
+      <c r="A55" s="2">
         <v>55</v>
       </c>
       <c r="B55" s="1" t="s">
@@ -4143,7 +6103,7 @@
       </c>
     </row>
     <row r="56" spans="1:13" ht="36" x14ac:dyDescent="0.3">
-      <c r="A56" s="1">
+      <c r="A56" s="2">
         <v>56</v>
       </c>
       <c r="B56" s="1" t="s">
@@ -4175,7 +6135,7 @@
       </c>
     </row>
     <row r="57" spans="1:13" ht="54" x14ac:dyDescent="0.3">
-      <c r="A57" s="1">
+      <c r="A57" s="2">
         <v>57</v>
       </c>
       <c r="B57" s="1" t="s">
@@ -4198,7 +6158,7 @@
       </c>
     </row>
     <row r="58" spans="1:13" ht="36" x14ac:dyDescent="0.3">
-      <c r="A58" s="1">
+      <c r="A58" s="2">
         <v>58</v>
       </c>
       <c r="B58" s="1" t="s">
@@ -4224,7 +6184,7 @@
       </c>
     </row>
     <row r="59" spans="1:13" ht="54" x14ac:dyDescent="0.3">
-      <c r="A59" s="1">
+      <c r="A59" s="2">
         <v>59</v>
       </c>
       <c r="B59" s="1" t="s">
@@ -4256,7 +6216,7 @@
       </c>
     </row>
     <row r="60" spans="1:13" ht="36" x14ac:dyDescent="0.3">
-      <c r="A60" s="1">
+      <c r="A60" s="2">
         <v>60</v>
       </c>
       <c r="B60" s="1" t="s">
@@ -4282,7 +6242,7 @@
       </c>
     </row>
     <row r="61" spans="1:13" ht="36" x14ac:dyDescent="0.3">
-      <c r="A61" s="1">
+      <c r="A61" s="2">
         <v>61</v>
       </c>
       <c r="B61" s="1" t="s">
@@ -4314,7 +6274,7 @@
       </c>
     </row>
     <row r="62" spans="1:13" ht="36" x14ac:dyDescent="0.3">
-      <c r="A62" s="1">
+      <c r="A62" s="2">
         <v>62</v>
       </c>
       <c r="B62" s="1" t="s">
@@ -4352,7 +6312,7 @@
       </c>
     </row>
     <row r="63" spans="1:13" ht="36" x14ac:dyDescent="0.3">
-      <c r="A63" s="1">
+      <c r="A63" s="2">
         <v>63</v>
       </c>
       <c r="B63" s="1" t="s">
@@ -4378,7 +6338,7 @@
       </c>
     </row>
     <row r="64" spans="1:13" ht="54" x14ac:dyDescent="0.3">
-      <c r="A64" s="1">
+      <c r="A64" s="2">
         <v>64</v>
       </c>
       <c r="B64" s="1" t="s">
@@ -4398,7 +6358,7 @@
       </c>
     </row>
     <row r="65" spans="1:12" ht="36" x14ac:dyDescent="0.3">
-      <c r="A65" s="1">
+      <c r="A65" s="2">
         <v>65</v>
       </c>
       <c r="B65" s="1" t="s">
@@ -4424,7 +6384,7 @@
       </c>
     </row>
     <row r="66" spans="1:12" ht="36" x14ac:dyDescent="0.3">
-      <c r="A66" s="1">
+      <c r="A66" s="2">
         <v>66</v>
       </c>
       <c r="B66" s="1" t="s">
@@ -4447,7 +6407,7 @@
       </c>
     </row>
     <row r="67" spans="1:12" ht="36" x14ac:dyDescent="0.3">
-      <c r="A67" s="1">
+      <c r="A67" s="2">
         <v>67</v>
       </c>
       <c r="B67" s="1" t="s">
@@ -4473,7 +6433,7 @@
       </c>
     </row>
     <row r="68" spans="1:12" ht="36" x14ac:dyDescent="0.3">
-      <c r="A68" s="1">
+      <c r="A68" s="2">
         <v>68</v>
       </c>
       <c r="B68" s="1" t="s">
@@ -4502,7 +6462,7 @@
       </c>
     </row>
     <row r="69" spans="1:12" ht="36" x14ac:dyDescent="0.3">
-      <c r="A69" s="1">
+      <c r="A69" s="2">
         <v>69</v>
       </c>
       <c r="B69" s="1" t="s">
@@ -4531,7 +6491,7 @@
       </c>
     </row>
     <row r="70" spans="1:12" ht="36" x14ac:dyDescent="0.3">
-      <c r="A70" s="1">
+      <c r="A70" s="2">
         <v>70</v>
       </c>
       <c r="B70" s="1" t="s">
@@ -4554,7 +6514,7 @@
       </c>
     </row>
     <row r="71" spans="1:12" ht="36" x14ac:dyDescent="0.3">
-      <c r="A71" s="1">
+      <c r="A71" s="2">
         <v>71</v>
       </c>
       <c r="B71" s="1" t="s">
@@ -4580,7 +6540,7 @@
       </c>
     </row>
     <row r="72" spans="1:12" ht="36" x14ac:dyDescent="0.3">
-      <c r="A72" s="1">
+      <c r="A72" s="2">
         <v>72</v>
       </c>
       <c r="B72" s="1" t="s">
@@ -4606,7 +6566,7 @@
       </c>
     </row>
     <row r="73" spans="1:12" ht="36" x14ac:dyDescent="0.3">
-      <c r="A73" s="1">
+      <c r="A73" s="2">
         <v>73</v>
       </c>
       <c r="B73" s="1" t="s">
@@ -4641,7 +6601,7 @@
       </c>
     </row>
     <row r="74" spans="1:12" ht="36" x14ac:dyDescent="0.3">
-      <c r="A74" s="1">
+      <c r="A74" s="2">
         <v>74</v>
       </c>
       <c r="B74" s="1" t="s">
@@ -4664,7 +6624,7 @@
       </c>
     </row>
     <row r="75" spans="1:12" ht="36" x14ac:dyDescent="0.3">
-      <c r="A75" s="1">
+      <c r="A75" s="2">
         <v>75</v>
       </c>
       <c r="B75" s="1" t="s">
@@ -4693,7 +6653,7 @@
       </c>
     </row>
     <row r="76" spans="1:12" ht="54" x14ac:dyDescent="0.3">
-      <c r="A76" s="1">
+      <c r="A76" s="2">
         <v>76</v>
       </c>
       <c r="B76" s="1" t="s">
@@ -4716,7 +6676,7 @@
       </c>
     </row>
     <row r="77" spans="1:12" ht="36" x14ac:dyDescent="0.3">
-      <c r="A77" s="1">
+      <c r="A77" s="2">
         <v>77</v>
       </c>
       <c r="B77" s="1" t="s">
@@ -4742,7 +6702,7 @@
       </c>
     </row>
     <row r="78" spans="1:12" ht="54" x14ac:dyDescent="0.3">
-      <c r="A78" s="1">
+      <c r="A78" s="2">
         <v>78</v>
       </c>
       <c r="B78" s="1" t="s">
@@ -4765,7 +6725,7 @@
       </c>
     </row>
     <row r="79" spans="1:12" ht="36" x14ac:dyDescent="0.3">
-      <c r="A79" s="1">
+      <c r="A79" s="2">
         <v>79</v>
       </c>
       <c r="B79" s="1" t="s">
@@ -4791,7 +6751,7 @@
       </c>
     </row>
     <row r="80" spans="1:12" ht="54" x14ac:dyDescent="0.3">
-      <c r="A80" s="1">
+      <c r="A80" s="2">
         <v>80</v>
       </c>
       <c r="B80" s="1" t="s">
@@ -4817,7 +6777,7 @@
       </c>
     </row>
     <row r="81" spans="1:12" ht="54" x14ac:dyDescent="0.3">
-      <c r="A81" s="1">
+      <c r="A81" s="2">
         <v>81</v>
       </c>
       <c r="B81" s="1" t="s">
@@ -4846,7 +6806,7 @@
       </c>
     </row>
     <row r="82" spans="1:12" ht="54" x14ac:dyDescent="0.3">
-      <c r="A82" s="1">
+      <c r="A82" s="2">
         <v>82</v>
       </c>
       <c r="B82" s="1" t="s">
@@ -4875,7 +6835,7 @@
       </c>
     </row>
     <row r="83" spans="1:12" ht="36" x14ac:dyDescent="0.3">
-      <c r="A83" s="1">
+      <c r="A83" s="2">
         <v>83</v>
       </c>
       <c r="B83" s="1" t="s">
@@ -4910,7 +6870,7 @@
       </c>
     </row>
     <row r="84" spans="1:12" ht="36" x14ac:dyDescent="0.3">
-      <c r="A84" s="1">
+      <c r="A84" s="2">
         <v>84</v>
       </c>
       <c r="B84" s="1" t="s">
@@ -4942,7 +6902,7 @@
       </c>
     </row>
     <row r="85" spans="1:12" ht="36" x14ac:dyDescent="0.3">
-      <c r="A85" s="1">
+      <c r="A85" s="2">
         <v>85</v>
       </c>
       <c r="B85" s="1" t="s">
@@ -4968,7 +6928,7 @@
       </c>
     </row>
     <row r="86" spans="1:12" ht="36" x14ac:dyDescent="0.3">
-      <c r="A86" s="1">
+      <c r="A86" s="2">
         <v>86</v>
       </c>
       <c r="B86" s="1" t="s">
@@ -5000,7 +6960,7 @@
       </c>
     </row>
     <row r="87" spans="1:12" ht="36" x14ac:dyDescent="0.3">
-      <c r="A87" s="1">
+      <c r="A87" s="2">
         <v>87</v>
       </c>
       <c r="B87" s="1" t="s">
@@ -5026,7 +6986,7 @@
       </c>
     </row>
     <row r="88" spans="1:12" ht="36" x14ac:dyDescent="0.3">
-      <c r="A88" s="1">
+      <c r="A88" s="2">
         <v>88</v>
       </c>
       <c r="B88" s="1" t="s">
@@ -5055,7 +7015,7 @@
       </c>
     </row>
     <row r="89" spans="1:12" ht="54" x14ac:dyDescent="0.3">
-      <c r="A89" s="1">
+      <c r="A89" s="2">
         <v>89</v>
       </c>
       <c r="B89" s="1" t="s">
@@ -5081,7 +7041,7 @@
       </c>
     </row>
     <row r="90" spans="1:12" ht="36" x14ac:dyDescent="0.3">
-      <c r="A90" s="1">
+      <c r="A90" s="2">
         <v>90</v>
       </c>
       <c r="B90" s="1" t="s">
@@ -5107,7 +7067,7 @@
       </c>
     </row>
     <row r="91" spans="1:12" ht="54" x14ac:dyDescent="0.3">
-      <c r="A91" s="1">
+      <c r="A91" s="2">
         <v>91</v>
       </c>
       <c r="B91" s="1" t="s">
@@ -5133,7 +7093,7 @@
       </c>
     </row>
     <row r="92" spans="1:12" ht="36" x14ac:dyDescent="0.3">
-      <c r="A92" s="1">
+      <c r="A92" s="2">
         <v>92</v>
       </c>
       <c r="B92" s="1" t="s">
@@ -5162,7 +7122,7 @@
       </c>
     </row>
     <row r="93" spans="1:12" ht="36" x14ac:dyDescent="0.3">
-      <c r="A93" s="1">
+      <c r="A93" s="2">
         <v>93</v>
       </c>
       <c r="B93" s="1" t="s">
@@ -5188,7 +7148,7 @@
       </c>
     </row>
     <row r="94" spans="1:12" ht="36" x14ac:dyDescent="0.3">
-      <c r="A94" s="1">
+      <c r="A94" s="2">
         <v>94</v>
       </c>
       <c r="B94" s="1" t="s">
@@ -5211,7 +7171,7 @@
       </c>
     </row>
     <row r="95" spans="1:12" ht="54" x14ac:dyDescent="0.3">
-      <c r="A95" s="1">
+      <c r="A95" s="2">
         <v>95</v>
       </c>
       <c r="B95" s="1" t="s">
@@ -5243,7 +7203,7 @@
       </c>
     </row>
     <row r="96" spans="1:12" ht="36" x14ac:dyDescent="0.3">
-      <c r="A96" s="1">
+      <c r="A96" s="2">
         <v>96</v>
       </c>
       <c r="B96" s="1" t="s">
@@ -5269,7 +7229,7 @@
       </c>
     </row>
     <row r="97" spans="1:12" ht="54" x14ac:dyDescent="0.3">
-      <c r="A97" s="1">
+      <c r="A97" s="2">
         <v>97</v>
       </c>
       <c r="B97" s="1" t="s">
@@ -5292,7 +7252,7 @@
       </c>
     </row>
     <row r="98" spans="1:12" ht="36" x14ac:dyDescent="0.3">
-      <c r="A98" s="1">
+      <c r="A98" s="2">
         <v>98</v>
       </c>
       <c r="B98" s="1" t="s">
@@ -5318,7 +7278,7 @@
       </c>
     </row>
     <row r="99" spans="1:12" ht="36" x14ac:dyDescent="0.3">
-      <c r="A99" s="1">
+      <c r="A99" s="2">
         <v>99</v>
       </c>
       <c r="B99" s="1" t="s">
@@ -5353,7 +7313,7 @@
       </c>
     </row>
     <row r="100" spans="1:12" ht="36" x14ac:dyDescent="0.3">
-      <c r="A100" s="1">
+      <c r="A100" s="2">
         <v>100</v>
       </c>
       <c r="B100" s="1" t="s">
@@ -5385,7 +7345,7 @@
       </c>
     </row>
     <row r="101" spans="1:12" ht="36" x14ac:dyDescent="0.3">
-      <c r="A101" s="1">
+      <c r="A101" s="2">
         <v>101</v>
       </c>
       <c r="B101" s="1" t="s">
@@ -5411,7 +7371,7 @@
       </c>
     </row>
     <row r="102" spans="1:12" ht="36" x14ac:dyDescent="0.3">
-      <c r="A102" s="1">
+      <c r="A102" s="2">
         <v>102</v>
       </c>
       <c r="B102" s="1" t="s">
@@ -5440,7 +7400,7 @@
       </c>
     </row>
     <row r="103" spans="1:12" ht="36" x14ac:dyDescent="0.3">
-      <c r="A103" s="1">
+      <c r="A103" s="2">
         <v>103</v>
       </c>
       <c r="B103" s="1" t="s">
@@ -5472,7 +7432,7 @@
       </c>
     </row>
     <row r="104" spans="1:12" ht="54" x14ac:dyDescent="0.3">
-      <c r="A104" s="1">
+      <c r="A104" s="2">
         <v>104</v>
       </c>
       <c r="B104" s="1" t="s">
@@ -5498,7 +7458,7 @@
       </c>
     </row>
     <row r="105" spans="1:12" ht="36" x14ac:dyDescent="0.3">
-      <c r="A105" s="1">
+      <c r="A105" s="2">
         <v>105</v>
       </c>
       <c r="B105" s="1" t="s">
@@ -5524,7 +7484,7 @@
       </c>
     </row>
     <row r="106" spans="1:12" ht="36" x14ac:dyDescent="0.3">
-      <c r="A106" s="1">
+      <c r="A106" s="2">
         <v>106</v>
       </c>
       <c r="B106" s="1" t="s">
@@ -5556,7 +7516,7 @@
       </c>
     </row>
     <row r="107" spans="1:12" ht="36" x14ac:dyDescent="0.3">
-      <c r="A107" s="1">
+      <c r="A107" s="2">
         <v>107</v>
       </c>
       <c r="B107" s="1" t="s">
@@ -5585,7 +7545,7 @@
       </c>
     </row>
     <row r="108" spans="1:12" ht="36" x14ac:dyDescent="0.3">
-      <c r="A108" s="1">
+      <c r="A108" s="2">
         <v>108</v>
       </c>
       <c r="B108" s="1" t="s">
@@ -5617,7 +7577,7 @@
       </c>
     </row>
     <row r="109" spans="1:12" ht="36" x14ac:dyDescent="0.3">
-      <c r="A109" s="1">
+      <c r="A109" s="2">
         <v>109</v>
       </c>
       <c r="B109" s="1" t="s">
@@ -5646,7 +7606,7 @@
       </c>
     </row>
     <row r="110" spans="1:12" ht="54" x14ac:dyDescent="0.3">
-      <c r="A110" s="1">
+      <c r="A110" s="2">
         <v>110</v>
       </c>
       <c r="B110" s="1" t="s">
@@ -5675,7 +7635,7 @@
       </c>
     </row>
     <row r="111" spans="1:12" ht="36" x14ac:dyDescent="0.3">
-      <c r="A111" s="1">
+      <c r="A111" s="2">
         <v>111</v>
       </c>
       <c r="B111" s="1" t="s">
@@ -5710,7 +7670,7 @@
       </c>
     </row>
     <row r="112" spans="1:12" ht="36" x14ac:dyDescent="0.3">
-      <c r="A112" s="1">
+      <c r="A112" s="2">
         <v>112</v>
       </c>
       <c r="B112" s="1" t="s">
@@ -5739,7 +7699,7 @@
       </c>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A113" s="1">
+      <c r="A113" s="2">
         <v>113</v>
       </c>
       <c r="B113" s="1" t="s">
@@ -5771,7 +7731,7 @@
       </c>
     </row>
     <row r="114" spans="1:13" ht="36" x14ac:dyDescent="0.3">
-      <c r="A114" s="1">
+      <c r="A114" s="2">
         <v>114</v>
       </c>
       <c r="B114" s="1" t="s">
@@ -5803,7 +7763,7 @@
       </c>
     </row>
     <row r="115" spans="1:13" ht="36" x14ac:dyDescent="0.3">
-      <c r="A115" s="1">
+      <c r="A115" s="2">
         <v>115</v>
       </c>
       <c r="B115" s="1" t="s">
@@ -5829,7 +7789,7 @@
       </c>
     </row>
     <row r="116" spans="1:13" ht="36" x14ac:dyDescent="0.3">
-      <c r="A116" s="1">
+      <c r="A116" s="2">
         <v>116</v>
       </c>
       <c r="B116" s="1" t="s">
@@ -5855,7 +7815,7 @@
       </c>
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A117" s="1">
+      <c r="A117" s="2">
         <v>117</v>
       </c>
       <c r="B117" s="1" t="s">
@@ -5887,7 +7847,7 @@
       </c>
     </row>
     <row r="118" spans="1:13" ht="36" x14ac:dyDescent="0.3">
-      <c r="A118" s="1">
+      <c r="A118" s="2">
         <v>118</v>
       </c>
       <c r="B118" s="1" t="s">
@@ -5913,7 +7873,7 @@
       </c>
     </row>
     <row r="119" spans="1:13" ht="36" x14ac:dyDescent="0.3">
-      <c r="A119" s="1">
+      <c r="A119" s="2">
         <v>119</v>
       </c>
       <c r="B119" s="1" t="s">
@@ -5939,7 +7899,7 @@
       </c>
     </row>
     <row r="120" spans="1:13" ht="36" x14ac:dyDescent="0.3">
-      <c r="A120" s="1">
+      <c r="A120" s="2">
         <v>120</v>
       </c>
       <c r="B120" s="1" t="s">
@@ -5965,7 +7925,7 @@
       </c>
     </row>
     <row r="121" spans="1:13" ht="36" x14ac:dyDescent="0.3">
-      <c r="A121" s="1">
+      <c r="A121" s="2">
         <v>121</v>
       </c>
       <c r="B121" s="1" t="s">
@@ -5994,7 +7954,7 @@
       </c>
     </row>
     <row r="122" spans="1:13" ht="36" x14ac:dyDescent="0.3">
-      <c r="A122" s="1">
+      <c r="A122" s="2">
         <v>122</v>
       </c>
       <c r="B122" s="1" t="s">
@@ -6032,7 +7992,7 @@
       </c>
     </row>
     <row r="123" spans="1:13" ht="36" x14ac:dyDescent="0.3">
-      <c r="A123" s="1">
+      <c r="A123" s="2">
         <v>123</v>
       </c>
       <c r="B123" s="1" t="s">
@@ -6058,7 +8018,7 @@
       </c>
     </row>
     <row r="124" spans="1:13" ht="36" x14ac:dyDescent="0.3">
-      <c r="A124" s="1">
+      <c r="A124" s="2">
         <v>124</v>
       </c>
       <c r="B124" s="1" t="s">
@@ -6087,7 +8047,7 @@
       </c>
     </row>
     <row r="125" spans="1:13" ht="54" x14ac:dyDescent="0.3">
-      <c r="A125" s="1">
+      <c r="A125" s="2">
         <v>125</v>
       </c>
       <c r="B125" s="1" t="s">
@@ -6113,7 +8073,7 @@
       </c>
     </row>
     <row r="126" spans="1:13" ht="36" x14ac:dyDescent="0.3">
-      <c r="A126" s="1">
+      <c r="A126" s="2">
         <v>126</v>
       </c>
       <c r="B126" s="1" t="s">
@@ -6148,7 +8108,7 @@
       </c>
     </row>
     <row r="127" spans="1:13" ht="54" x14ac:dyDescent="0.3">
-      <c r="A127" s="1">
+      <c r="A127" s="2">
         <v>127</v>
       </c>
       <c r="B127" s="1" t="s">
@@ -6177,7 +8137,7 @@
       </c>
     </row>
     <row r="128" spans="1:13" ht="36" x14ac:dyDescent="0.3">
-      <c r="A128" s="1">
+      <c r="A128" s="2">
         <v>128</v>
       </c>
       <c r="B128" s="1" t="s">
@@ -6206,7 +8166,7 @@
       </c>
     </row>
     <row r="129" spans="1:12" ht="54" x14ac:dyDescent="0.3">
-      <c r="A129" s="1">
+      <c r="A129" s="2">
         <v>129</v>
       </c>
       <c r="B129" s="1" t="s">
@@ -6235,7 +8195,7 @@
       </c>
     </row>
     <row r="130" spans="1:12" ht="54" x14ac:dyDescent="0.3">
-      <c r="A130" s="1">
+      <c r="A130" s="2">
         <v>130</v>
       </c>
       <c r="B130" s="1" t="s">
@@ -6264,7 +8224,7 @@
       </c>
     </row>
     <row r="131" spans="1:12" ht="36" x14ac:dyDescent="0.3">
-      <c r="A131" s="1">
+      <c r="A131" s="2">
         <v>131</v>
       </c>
       <c r="B131" s="1" t="s">
@@ -6293,7 +8253,7 @@
       </c>
     </row>
     <row r="132" spans="1:12" ht="36" x14ac:dyDescent="0.3">
-      <c r="A132" s="1">
+      <c r="A132" s="2">
         <v>132</v>
       </c>
       <c r="B132" s="1" t="s">
@@ -6325,7 +8285,7 @@
       </c>
     </row>
     <row r="133" spans="1:12" ht="36" x14ac:dyDescent="0.3">
-      <c r="A133" s="1">
+      <c r="A133" s="2">
         <v>133</v>
       </c>
       <c r="B133" s="1" t="s">
@@ -6354,7 +8314,7 @@
       </c>
     </row>
     <row r="134" spans="1:12" ht="36" x14ac:dyDescent="0.3">
-      <c r="A134" s="1">
+      <c r="A134" s="2">
         <v>134</v>
       </c>
       <c r="B134" s="1" t="s">
@@ -6380,7 +8340,7 @@
       </c>
     </row>
     <row r="135" spans="1:12" ht="36" x14ac:dyDescent="0.3">
-      <c r="A135" s="1">
+      <c r="A135" s="2">
         <v>135</v>
       </c>
       <c r="B135" s="1" t="s">
@@ -6415,7 +8375,7 @@
       </c>
     </row>
     <row r="136" spans="1:12" ht="36" x14ac:dyDescent="0.3">
-      <c r="A136" s="1">
+      <c r="A136" s="2">
         <v>136</v>
       </c>
       <c r="B136" s="1" t="s">
@@ -6441,7 +8401,7 @@
       </c>
     </row>
     <row r="137" spans="1:12" ht="36" x14ac:dyDescent="0.3">
-      <c r="A137" s="1">
+      <c r="A137" s="2">
         <v>137</v>
       </c>
       <c r="B137" s="1" t="s">
@@ -6464,7 +8424,7 @@
       </c>
     </row>
     <row r="138" spans="1:12" ht="54" x14ac:dyDescent="0.3">
-      <c r="A138" s="1">
+      <c r="A138" s="2">
         <v>138</v>
       </c>
       <c r="B138" s="1" t="s">
@@ -6493,7 +8453,7 @@
       </c>
     </row>
     <row r="139" spans="1:12" ht="36" x14ac:dyDescent="0.3">
-      <c r="A139" s="1">
+      <c r="A139" s="2">
         <v>139</v>
       </c>
       <c r="B139" s="1" t="s">
@@ -6522,7 +8482,7 @@
       </c>
     </row>
     <row r="140" spans="1:12" ht="36" x14ac:dyDescent="0.3">
-      <c r="A140" s="1">
+      <c r="A140" s="2">
         <v>140</v>
       </c>
       <c r="B140" s="1" t="s">
@@ -6551,7 +8511,7 @@
       </c>
     </row>
     <row r="141" spans="1:12" ht="36" x14ac:dyDescent="0.3">
-      <c r="A141" s="1">
+      <c r="A141" s="2">
         <v>141</v>
       </c>
       <c r="B141" s="1" t="s">
@@ -6577,7 +8537,7 @@
       </c>
     </row>
     <row r="142" spans="1:12" ht="36" x14ac:dyDescent="0.3">
-      <c r="A142" s="1">
+      <c r="A142" s="2">
         <v>142</v>
       </c>
       <c r="B142" s="1" t="s">
@@ -6603,7 +8563,7 @@
       </c>
     </row>
     <row r="143" spans="1:12" ht="36" x14ac:dyDescent="0.3">
-      <c r="A143" s="1">
+      <c r="A143" s="2">
         <v>143</v>
       </c>
       <c r="B143" s="1" t="s">
@@ -6629,7 +8589,7 @@
       </c>
     </row>
     <row r="144" spans="1:12" ht="36" x14ac:dyDescent="0.3">
-      <c r="A144" s="1">
+      <c r="A144" s="2">
         <v>144</v>
       </c>
       <c r="B144" s="1" t="s">
@@ -6648,8 +8608,8 @@
         <v>676</v>
       </c>
     </row>
-    <row r="145" spans="1:8" ht="36" x14ac:dyDescent="0.3">
-      <c r="A145" s="1">
+    <row r="145" spans="1:14" ht="36" x14ac:dyDescent="0.3">
+      <c r="A145" s="2">
         <v>145</v>
       </c>
       <c r="B145" s="1" t="s">
@@ -6669,6 +8629,4588 @@
       </c>
       <c r="H145" s="1" t="s">
         <v>677</v>
+      </c>
+    </row>
+    <row r="146" spans="1:14" ht="36" x14ac:dyDescent="0.3">
+      <c r="A146" s="2">
+        <v>146</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="C146" s="1">
+        <v>401</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F146" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H146" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="I146" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="J146" s="1" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="147" spans="1:14" ht="54" x14ac:dyDescent="0.3">
+      <c r="A147" s="2">
+        <v>147</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="C147" s="1">
+        <v>402</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G147" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="H147" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="I147" s="1" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="148" spans="1:14" ht="36" x14ac:dyDescent="0.3">
+      <c r="A148" s="2">
+        <v>148</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="C148" s="1">
+        <v>403</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="E148" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="F148" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="H148" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="I148" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="J148" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="K148" s="1" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="149" spans="1:14" ht="36" x14ac:dyDescent="0.3">
+      <c r="A149" s="2">
+        <v>149</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="C149" s="1">
+        <v>404</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E149" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F149" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G149" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H149" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I149" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="K149" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="L149" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="M149" s="1" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="150" spans="1:14" ht="36" x14ac:dyDescent="0.3">
+      <c r="A150" s="2">
+        <v>150</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="C150" s="1">
+        <v>405</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E150" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F150" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G150" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H150" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="J150" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="K150" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="L150" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="M150" s="1" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="151" spans="1:14" ht="36" x14ac:dyDescent="0.3">
+      <c r="A151" s="2">
+        <v>151</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="C151" s="1">
+        <v>406</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="E151" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="F151" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="H151" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="I151" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="J151" s="1" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="152" spans="1:14" ht="36" x14ac:dyDescent="0.3">
+      <c r="A152" s="2">
+        <v>152</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="C152" s="1">
+        <v>407</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E152" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F152" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G152" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="I152" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="J152" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="K152" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="L152" s="1" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="153" spans="1:14" ht="36" x14ac:dyDescent="0.3">
+      <c r="A153" s="2">
+        <v>153</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="C153" s="1">
+        <v>408</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E153" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F153" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G153" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="I153" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="J153" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="K153" s="1" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="154" spans="1:14" ht="36" x14ac:dyDescent="0.3">
+      <c r="A154" s="2">
+        <v>154</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="C154" s="1">
+        <v>409</v>
+      </c>
+      <c r="D154" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E154" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="F154" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="G154" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="H154" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="J154" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="K154" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="L154" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="M154" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="N154" s="1" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="155" spans="1:14" ht="36" x14ac:dyDescent="0.3">
+      <c r="A155" s="2">
+        <v>155</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="C155" s="1">
+        <v>410</v>
+      </c>
+      <c r="D155" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="E155" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="F155" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="H155" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="I155" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="J155" s="1" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="156" spans="1:14" ht="36" x14ac:dyDescent="0.3">
+      <c r="A156" s="2">
+        <v>156</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="C156" s="1">
+        <v>411</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E156" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F156" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="H156" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="I156" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="J156" s="1" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="157" spans="1:14" ht="36" x14ac:dyDescent="0.3">
+      <c r="A157" s="2">
+        <v>157</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="C157" s="1">
+        <v>412</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E157" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="F157" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="G157" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="I157" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="J157" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="K157" s="1" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="158" spans="1:14" ht="36" x14ac:dyDescent="0.3">
+      <c r="A158" s="2">
+        <v>158</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="C158" s="1">
+        <v>413</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="E158" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="F158" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="G158" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="H158" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="J158" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="K158" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="L158" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="M158" s="1" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="159" spans="1:14" ht="36" x14ac:dyDescent="0.3">
+      <c r="A159" s="2">
+        <v>159</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="C159" s="1">
+        <v>414</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E159" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F159" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G159" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H159" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="J159" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="K159" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="L159" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="M159" s="1" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="160" spans="1:14" ht="36" x14ac:dyDescent="0.3">
+      <c r="A160" s="2">
+        <v>160</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="C160" s="1">
+        <v>415</v>
+      </c>
+      <c r="D160" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="E160" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="F160" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="H160" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="I160" s="1" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="161" spans="1:13" ht="54" x14ac:dyDescent="0.3">
+      <c r="A161" s="2">
+        <v>161</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="C161" s="1">
+        <v>416</v>
+      </c>
+      <c r="D161" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E161" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F161" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="H161" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="I161" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="J161" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="K161" s="1" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13" ht="36" x14ac:dyDescent="0.3">
+      <c r="A162" s="2">
+        <v>162</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="C162" s="1">
+        <v>417</v>
+      </c>
+      <c r="D162" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="E162" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="G162" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="H162" s="1" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13" ht="36" x14ac:dyDescent="0.3">
+      <c r="A163" s="2">
+        <v>163</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="C163" s="1">
+        <v>418</v>
+      </c>
+      <c r="D163" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E163" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F163" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="H163" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="I163" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="J163" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="K163" s="1" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="164" spans="1:13" ht="36" x14ac:dyDescent="0.3">
+      <c r="A164" s="2">
+        <v>164</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="C164" s="1">
+        <v>419</v>
+      </c>
+      <c r="D164" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E164" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F164" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="H164" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="I164" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="J164" s="1" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="165" spans="1:13" ht="36" x14ac:dyDescent="0.3">
+      <c r="A165" s="2">
+        <v>165</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="C165" s="1">
+        <v>420</v>
+      </c>
+      <c r="D165" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E165" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="F165" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="G165" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="H165" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="J165" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="K165" s="1" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="166" spans="1:13" ht="36" x14ac:dyDescent="0.3">
+      <c r="A166" s="2">
+        <v>166</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="C166" s="1">
+        <v>421</v>
+      </c>
+      <c r="D166" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E166" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F166" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="H166" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="I166" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="J166" s="1" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="167" spans="1:13" ht="36" x14ac:dyDescent="0.3">
+      <c r="A167" s="2">
+        <v>167</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="C167" s="1">
+        <v>422</v>
+      </c>
+      <c r="D167" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="E167" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="F167" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="H167" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="I167" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="J167" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="K167" s="1" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="168" spans="1:13" ht="36" x14ac:dyDescent="0.3">
+      <c r="A168" s="2">
+        <v>168</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="C168" s="1">
+        <v>423</v>
+      </c>
+      <c r="D168" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E168" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F168" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="H168" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="I168" s="1" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="169" spans="1:13" ht="36" x14ac:dyDescent="0.3">
+      <c r="A169" s="2">
+        <v>169</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="C169" s="1">
+        <v>424</v>
+      </c>
+      <c r="D169" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="E169" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="G169" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="H169" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="I169" s="1" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="170" spans="1:13" ht="36" x14ac:dyDescent="0.3">
+      <c r="A170" s="2">
+        <v>170</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="C170" s="1">
+        <v>425</v>
+      </c>
+      <c r="D170" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E170" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F170" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G170" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H170" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="J170" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="K170" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="L170" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="M170" s="1" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="171" spans="1:13" ht="54" x14ac:dyDescent="0.3">
+      <c r="A171" s="2">
+        <v>171</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="C171" s="1">
+        <v>426</v>
+      </c>
+      <c r="D171" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E171" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F171" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="H171" s="1" t="s">
+        <v>769</v>
+      </c>
+      <c r="I171" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="J171" s="1" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="172" spans="1:13" ht="36" x14ac:dyDescent="0.3">
+      <c r="A172" s="2">
+        <v>172</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="C172" s="1">
+        <v>427</v>
+      </c>
+      <c r="D172" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="E172" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="F172" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H172" s="1" t="s">
+        <v>772</v>
+      </c>
+      <c r="I172" s="1" t="s">
+        <v>773</v>
+      </c>
+      <c r="J172" s="1" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="173" spans="1:13" ht="36" x14ac:dyDescent="0.3">
+      <c r="A173" s="2">
+        <v>173</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="C173" s="1">
+        <v>428</v>
+      </c>
+      <c r="D173" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E173" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F173" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="H173" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="I173" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="J173" s="1" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="174" spans="1:13" ht="54" x14ac:dyDescent="0.3">
+      <c r="A174" s="2">
+        <v>174</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="C174" s="1">
+        <v>429</v>
+      </c>
+      <c r="D174" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E174" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F174" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="H174" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="I174" s="1" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="175" spans="1:13" ht="36" x14ac:dyDescent="0.3">
+      <c r="A175" s="2">
+        <v>175</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="C175" s="1">
+        <v>430</v>
+      </c>
+      <c r="D175" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E175" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="F175" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="G175" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="I175" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="J175" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="K175" s="1" t="s">
+        <v>782</v>
+      </c>
+      <c r="L175" s="1" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="176" spans="1:13" ht="54" x14ac:dyDescent="0.3">
+      <c r="A176" s="2">
+        <v>176</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="C176" s="1">
+        <v>431</v>
+      </c>
+      <c r="D176" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="E176" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="F176" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="H176" s="1" t="s">
+        <v>784</v>
+      </c>
+      <c r="I176" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="J176" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="K176" s="1" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="177" spans="1:13" ht="36" x14ac:dyDescent="0.3">
+      <c r="A177" s="2">
+        <v>177</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="C177" s="1">
+        <v>432</v>
+      </c>
+      <c r="D177" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="E177" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="F177" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="G177" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="I177" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="J177" s="1" t="s">
+        <v>789</v>
+      </c>
+      <c r="K177" s="1" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="178" spans="1:13" ht="54" x14ac:dyDescent="0.3">
+      <c r="A178" s="2">
+        <v>178</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="C178" s="1">
+        <v>433</v>
+      </c>
+      <c r="D178" s="1" t="s">
+        <v>791</v>
+      </c>
+      <c r="E178" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="F178" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="H178" s="1" t="s">
+        <v>792</v>
+      </c>
+      <c r="I178" s="1" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="179" spans="1:13" ht="36" x14ac:dyDescent="0.3">
+      <c r="A179" s="2">
+        <v>179</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="C179" s="1">
+        <v>434</v>
+      </c>
+      <c r="D179" s="1" t="s">
+        <v>794</v>
+      </c>
+      <c r="E179" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="F179" s="1" t="s">
+        <v>796</v>
+      </c>
+      <c r="G179" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="I179" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="J179" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="K179" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="L179" s="1" t="s">
+        <v>800</v>
+      </c>
+      <c r="M179" s="1" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="180" spans="1:13" ht="36" x14ac:dyDescent="0.3">
+      <c r="A180" s="2">
+        <v>180</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="C180" s="1">
+        <v>435</v>
+      </c>
+      <c r="D180" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="E180" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="F180" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="G180" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="H180" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="J180" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="K180" s="1" t="s">
+        <v>803</v>
+      </c>
+      <c r="L180" s="1" t="s">
+        <v>804</v>
+      </c>
+      <c r="M180" s="1" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="181" spans="1:13" ht="36" x14ac:dyDescent="0.3">
+      <c r="A181" s="2">
+        <v>181</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="C181" s="1">
+        <v>436</v>
+      </c>
+      <c r="D181" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E181" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F181" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G181" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="I181" s="1" t="s">
+        <v>806</v>
+      </c>
+      <c r="J181" s="1" t="s">
+        <v>807</v>
+      </c>
+      <c r="K181" s="1" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="182" spans="1:13" ht="36" x14ac:dyDescent="0.3">
+      <c r="A182" s="2">
+        <v>182</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="C182" s="1">
+        <v>437</v>
+      </c>
+      <c r="D182" s="1" t="s">
+        <v>809</v>
+      </c>
+      <c r="E182" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="F182" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="G182" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="I182" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="J182" s="1" t="s">
+        <v>811</v>
+      </c>
+      <c r="K182" s="1" t="s">
+        <v>812</v>
+      </c>
+      <c r="L182" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="183" spans="1:13" ht="36" x14ac:dyDescent="0.3">
+      <c r="A183" s="2">
+        <v>183</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="C183" s="1">
+        <v>438</v>
+      </c>
+      <c r="D183" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E183" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F183" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="H183" s="1" t="s">
+        <v>814</v>
+      </c>
+      <c r="I183" s="1" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="184" spans="1:13" ht="36" x14ac:dyDescent="0.3">
+      <c r="A184" s="2">
+        <v>184</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="C184" s="1">
+        <v>439</v>
+      </c>
+      <c r="D184" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="E184" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="F184" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G184" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H184" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J184" s="1" t="s">
+        <v>816</v>
+      </c>
+      <c r="K184" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="L184" s="1" t="s">
+        <v>818</v>
+      </c>
+      <c r="M184" s="1" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="185" spans="1:13" ht="36" x14ac:dyDescent="0.3">
+      <c r="A185" s="2">
+        <v>185</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="C185" s="1">
+        <v>440</v>
+      </c>
+      <c r="D185" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E185" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F185" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="H185" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="I185" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="J185" s="1" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="186" spans="1:13" ht="36" x14ac:dyDescent="0.3">
+      <c r="A186" s="2">
+        <v>186</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="C186" s="1">
+        <v>441</v>
+      </c>
+      <c r="D186" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="E186" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="G186" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="H186" s="1" t="s">
+        <v>823</v>
+      </c>
+      <c r="I186" s="1" t="s">
+        <v>824</v>
+      </c>
+      <c r="J186" s="1" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="187" spans="1:13" ht="36" x14ac:dyDescent="0.3">
+      <c r="A187" s="2">
+        <v>187</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="C187" s="1">
+        <v>442</v>
+      </c>
+      <c r="D187" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="E187" s="1" t="s">
+        <v>827</v>
+      </c>
+      <c r="F187" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="H187" s="1" t="s">
+        <v>828</v>
+      </c>
+      <c r="I187" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="J187" s="1" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="188" spans="1:13" ht="54" x14ac:dyDescent="0.3">
+      <c r="A188" s="2">
+        <v>188</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="C188" s="1">
+        <v>443</v>
+      </c>
+      <c r="D188" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E188" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F188" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="H188" s="1" t="s">
+        <v>831</v>
+      </c>
+      <c r="I188" s="1" t="s">
+        <v>832</v>
+      </c>
+      <c r="J188" s="1" t="s">
+        <v>833</v>
+      </c>
+      <c r="K188" s="1" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="189" spans="1:13" ht="36" x14ac:dyDescent="0.3">
+      <c r="A189" s="2">
+        <v>189</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="C189" s="1">
+        <v>444</v>
+      </c>
+      <c r="D189" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E189" s="1" t="s">
+        <v>835</v>
+      </c>
+      <c r="F189" s="1" t="s">
+        <v>836</v>
+      </c>
+      <c r="G189" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="I189" s="1" t="s">
+        <v>837</v>
+      </c>
+      <c r="J189" s="1" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="190" spans="1:13" ht="36" x14ac:dyDescent="0.3">
+      <c r="A190" s="2">
+        <v>190</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="C190" s="1">
+        <v>445</v>
+      </c>
+      <c r="D190" s="1" t="s">
+        <v>839</v>
+      </c>
+      <c r="E190" s="1" t="s">
+        <v>840</v>
+      </c>
+      <c r="F190" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="H190" s="1" t="s">
+        <v>841</v>
+      </c>
+      <c r="I190" s="1" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="191" spans="1:13" ht="36" x14ac:dyDescent="0.3">
+      <c r="A191" s="2">
+        <v>191</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="C191" s="1">
+        <v>446</v>
+      </c>
+      <c r="D191" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="E191" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="F191" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="H191" s="1" t="s">
+        <v>843</v>
+      </c>
+      <c r="I191" s="1" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="192" spans="1:13" ht="36" x14ac:dyDescent="0.3">
+      <c r="A192" s="2">
+        <v>192</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="C192" s="1">
+        <v>447</v>
+      </c>
+      <c r="D192" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E192" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F192" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H192" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="I192" s="1" t="s">
+        <v>846</v>
+      </c>
+      <c r="J192" s="1" t="s">
+        <v>847</v>
+      </c>
+      <c r="K192" s="1" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="193" spans="1:17" ht="36" x14ac:dyDescent="0.3">
+      <c r="A193" s="2">
+        <v>193</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="C193" s="1">
+        <v>101</v>
+      </c>
+      <c r="D193" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E193" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F193" s="1" t="s">
+        <v>850</v>
+      </c>
+      <c r="H193" s="1" t="s">
+        <v>851</v>
+      </c>
+      <c r="I193" s="1" t="s">
+        <v>852</v>
+      </c>
+      <c r="J193" s="1" t="s">
+        <v>853</v>
+      </c>
+      <c r="K193" s="1" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="194" spans="1:17" ht="54" x14ac:dyDescent="0.3">
+      <c r="A194" s="2">
+        <v>194</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="C194" s="1">
+        <v>102</v>
+      </c>
+      <c r="D194" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E194" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F194" s="1" t="s">
+        <v>855</v>
+      </c>
+      <c r="H194" s="1" t="s">
+        <v>856</v>
+      </c>
+      <c r="I194" s="1" t="s">
+        <v>857</v>
+      </c>
+      <c r="J194" s="1" t="s">
+        <v>858</v>
+      </c>
+      <c r="K194" s="1" t="s">
+        <v>859</v>
+      </c>
+      <c r="L194" s="1" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="195" spans="1:17" ht="36" x14ac:dyDescent="0.3">
+      <c r="A195" s="2">
+        <v>195</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="C195" s="1">
+        <v>103</v>
+      </c>
+      <c r="D195" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E195" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F195" s="1" t="s">
+        <v>861</v>
+      </c>
+      <c r="H195" s="1" t="s">
+        <v>862</v>
+      </c>
+      <c r="I195" s="1" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="196" spans="1:17" ht="36" x14ac:dyDescent="0.3">
+      <c r="A196" s="2">
+        <v>196</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="C196" s="1">
+        <v>104</v>
+      </c>
+      <c r="D196" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E196" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F196" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G196" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H196" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I196" s="1" t="s">
+        <v>864</v>
+      </c>
+      <c r="K196" s="1" t="s">
+        <v>865</v>
+      </c>
+      <c r="L196" s="1" t="s">
+        <v>866</v>
+      </c>
+      <c r="M196" s="1" t="s">
+        <v>867</v>
+      </c>
+      <c r="N196" s="1" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="197" spans="1:17" ht="72" x14ac:dyDescent="0.3">
+      <c r="A197" s="2">
+        <v>197</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="C197" s="1">
+        <v>105</v>
+      </c>
+      <c r="D197" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E197" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F197" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G197" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H197" s="1" t="s">
+        <v>869</v>
+      </c>
+      <c r="J197" s="1" t="s">
+        <v>870</v>
+      </c>
+      <c r="K197" s="1" t="s">
+        <v>871</v>
+      </c>
+      <c r="L197" s="1" t="s">
+        <v>872</v>
+      </c>
+      <c r="M197" s="1" t="s">
+        <v>873</v>
+      </c>
+      <c r="N197" s="1" t="s">
+        <v>874</v>
+      </c>
+      <c r="O197" s="1" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="198" spans="1:17" ht="36" x14ac:dyDescent="0.3">
+      <c r="A198" s="2">
+        <v>198</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="C198" s="1">
+        <v>106</v>
+      </c>
+      <c r="D198" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E198" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F198" s="1" t="s">
+        <v>876</v>
+      </c>
+      <c r="H198" s="1" t="s">
+        <v>877</v>
+      </c>
+      <c r="I198" s="1" t="s">
+        <v>878</v>
+      </c>
+      <c r="J198" s="1" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="199" spans="1:17" ht="36" x14ac:dyDescent="0.3">
+      <c r="A199" s="2">
+        <v>199</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="C199" s="1">
+        <v>107</v>
+      </c>
+      <c r="D199" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E199" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F199" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G199" s="1" t="s">
+        <v>880</v>
+      </c>
+      <c r="I199" s="1" t="s">
+        <v>881</v>
+      </c>
+      <c r="J199" s="1" t="s">
+        <v>882</v>
+      </c>
+      <c r="K199" s="1" t="s">
+        <v>883</v>
+      </c>
+      <c r="L199" s="1" t="s">
+        <v>884</v>
+      </c>
+      <c r="M199" s="1" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="200" spans="1:17" ht="72" x14ac:dyDescent="0.3">
+      <c r="A200" s="2">
+        <v>200</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="C200" s="1">
+        <v>108</v>
+      </c>
+      <c r="D200" s="1" t="s">
+        <v>886</v>
+      </c>
+      <c r="E200" s="1" t="s">
+        <v>887</v>
+      </c>
+      <c r="F200" s="1" t="s">
+        <v>888</v>
+      </c>
+      <c r="G200" s="1" t="s">
+        <v>889</v>
+      </c>
+      <c r="H200" s="1" t="s">
+        <v>890</v>
+      </c>
+      <c r="J200" s="1" t="s">
+        <v>891</v>
+      </c>
+      <c r="K200" s="1" t="s">
+        <v>892</v>
+      </c>
+      <c r="L200" s="1" t="s">
+        <v>893</v>
+      </c>
+      <c r="M200" s="1" t="s">
+        <v>894</v>
+      </c>
+      <c r="N200" s="1" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="201" spans="1:17" ht="36" x14ac:dyDescent="0.3">
+      <c r="A201" s="2">
+        <v>201</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="C201" s="1">
+        <v>109</v>
+      </c>
+      <c r="D201" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E201" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F201" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G201" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H201" s="1" t="s">
+        <v>896</v>
+      </c>
+      <c r="J201" s="1" t="s">
+        <v>897</v>
+      </c>
+      <c r="K201" s="1" t="s">
+        <v>898</v>
+      </c>
+      <c r="L201" s="1" t="s">
+        <v>899</v>
+      </c>
+      <c r="M201" s="1" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="202" spans="1:17" ht="72" x14ac:dyDescent="0.3">
+      <c r="A202" s="2">
+        <v>202</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="C202" s="1">
+        <v>110</v>
+      </c>
+      <c r="D202" s="1" t="s">
+        <v>901</v>
+      </c>
+      <c r="E202" s="1" t="s">
+        <v>902</v>
+      </c>
+      <c r="F202" s="1" t="s">
+        <v>903</v>
+      </c>
+      <c r="G202" s="1" t="s">
+        <v>904</v>
+      </c>
+      <c r="H202" s="1" t="s">
+        <v>905</v>
+      </c>
+      <c r="I202" s="1" t="s">
+        <v>906</v>
+      </c>
+      <c r="K202" s="1" t="s">
+        <v>907</v>
+      </c>
+      <c r="L202" s="1" t="s">
+        <v>908</v>
+      </c>
+      <c r="M202" s="1" t="s">
+        <v>909</v>
+      </c>
+      <c r="N202" s="1" t="s">
+        <v>910</v>
+      </c>
+      <c r="O202" s="1" t="s">
+        <v>911</v>
+      </c>
+      <c r="P202" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="Q202" s="1" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="203" spans="1:17" ht="36" x14ac:dyDescent="0.3">
+      <c r="A203" s="2">
+        <v>203</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="C203" s="1">
+        <v>111</v>
+      </c>
+      <c r="D203" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="E203" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="F203" s="1" t="s">
+        <v>916</v>
+      </c>
+      <c r="G203" s="1" t="s">
+        <v>906</v>
+      </c>
+      <c r="I203" s="1" t="s">
+        <v>917</v>
+      </c>
+      <c r="J203" s="1" t="s">
+        <v>918</v>
+      </c>
+      <c r="K203" s="1" t="s">
+        <v>919</v>
+      </c>
+      <c r="L203" s="1" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="204" spans="1:17" ht="54" x14ac:dyDescent="0.3">
+      <c r="A204" s="2">
+        <v>204</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="C204" s="1">
+        <v>112</v>
+      </c>
+      <c r="D204" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E204" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F204" s="1" t="s">
+        <v>921</v>
+      </c>
+      <c r="H204" s="1" t="s">
+        <v>922</v>
+      </c>
+      <c r="I204" s="1" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="205" spans="1:17" ht="72" x14ac:dyDescent="0.3">
+      <c r="A205" s="2">
+        <v>205</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="C205" s="1">
+        <v>113</v>
+      </c>
+      <c r="D205" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E205" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F205" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G205" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H205" s="1" t="s">
+        <v>924</v>
+      </c>
+      <c r="I205" s="1">
+        <v>4</v>
+      </c>
+      <c r="K205" s="1" t="s">
+        <v>925</v>
+      </c>
+      <c r="L205" s="1" t="s">
+        <v>926</v>
+      </c>
+      <c r="M205" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="N205" s="1" t="s">
+        <v>928</v>
+      </c>
+      <c r="O205" s="1" t="s">
+        <v>929</v>
+      </c>
+      <c r="P205" s="1" t="s">
+        <v>930</v>
+      </c>
+      <c r="Q205" s="1" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="206" spans="1:17" ht="36" x14ac:dyDescent="0.3">
+      <c r="A206" s="2">
+        <v>206</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="C206" s="1">
+        <v>114</v>
+      </c>
+      <c r="D206" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E206" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F206" s="1" t="s">
+        <v>932</v>
+      </c>
+      <c r="H206" s="1" t="s">
+        <v>933</v>
+      </c>
+      <c r="I206" s="1" t="s">
+        <v>934</v>
+      </c>
+      <c r="J206" s="1" t="s">
+        <v>935</v>
+      </c>
+      <c r="K206" s="1" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="207" spans="1:17" ht="54" x14ac:dyDescent="0.3">
+      <c r="A207" s="2">
+        <v>207</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="C207" s="1">
+        <v>115</v>
+      </c>
+      <c r="D207" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E207" s="1" t="s">
+        <v>937</v>
+      </c>
+      <c r="F207" s="1" t="s">
+        <v>938</v>
+      </c>
+      <c r="G207" s="1" t="s">
+        <v>939</v>
+      </c>
+      <c r="I207" s="1" t="s">
+        <v>940</v>
+      </c>
+      <c r="J207" s="1" t="s">
+        <v>941</v>
+      </c>
+      <c r="K207" s="1" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="208" spans="1:17" ht="36" x14ac:dyDescent="0.3">
+      <c r="A208" s="2">
+        <v>208</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="C208" s="1">
+        <v>116</v>
+      </c>
+      <c r="D208" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E208" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F208" s="1" t="s">
+        <v>943</v>
+      </c>
+      <c r="H208" s="1" t="s">
+        <v>944</v>
+      </c>
+      <c r="I208" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="J208" s="1" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="209" spans="1:15" ht="72" x14ac:dyDescent="0.3">
+      <c r="A209" s="2">
+        <v>209</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="C209" s="1">
+        <v>117</v>
+      </c>
+      <c r="D209" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E209" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F209" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G209" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H209" s="1" t="s">
+        <v>896</v>
+      </c>
+      <c r="J209" s="1" t="s">
+        <v>947</v>
+      </c>
+      <c r="K209" s="1" t="s">
+        <v>948</v>
+      </c>
+      <c r="L209" s="1" t="s">
+        <v>949</v>
+      </c>
+      <c r="M209" s="1" t="s">
+        <v>950</v>
+      </c>
+      <c r="N209" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="O209" s="1" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="210" spans="1:15" ht="54" x14ac:dyDescent="0.3">
+      <c r="A210" s="2">
+        <v>210</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="C210" s="1">
+        <v>118</v>
+      </c>
+      <c r="D210" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E210" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F210" s="1" t="s">
+        <v>924</v>
+      </c>
+      <c r="H210" s="1" t="s">
+        <v>953</v>
+      </c>
+      <c r="I210" s="1" t="s">
+        <v>954</v>
+      </c>
+      <c r="J210" s="1" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="211" spans="1:15" ht="36" x14ac:dyDescent="0.3">
+      <c r="A211" s="2">
+        <v>211</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="C211" s="1">
+        <v>119</v>
+      </c>
+      <c r="D211" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E211" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F211" s="1" t="s">
+        <v>956</v>
+      </c>
+      <c r="H211" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="I211" s="1" t="s">
+        <v>958</v>
+      </c>
+      <c r="J211" s="1" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="212" spans="1:15" ht="36" x14ac:dyDescent="0.3">
+      <c r="A212" s="2">
+        <v>212</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="C212" s="1">
+        <v>120</v>
+      </c>
+      <c r="D212" s="1" t="s">
+        <v>960</v>
+      </c>
+      <c r="E212" s="1" t="s">
+        <v>961</v>
+      </c>
+      <c r="F212" s="1" t="s">
+        <v>962</v>
+      </c>
+      <c r="H212" s="1" t="s">
+        <v>963</v>
+      </c>
+      <c r="I212" s="1" t="s">
+        <v>964</v>
+      </c>
+      <c r="J212" s="1" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="213" spans="1:15" ht="36" x14ac:dyDescent="0.3">
+      <c r="A213" s="2">
+        <v>213</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="C213" s="1">
+        <v>121</v>
+      </c>
+      <c r="D213" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E213" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F213" s="1" t="s">
+        <v>966</v>
+      </c>
+      <c r="H213" s="1" t="s">
+        <v>967</v>
+      </c>
+      <c r="I213" s="1" t="s">
+        <v>968</v>
+      </c>
+      <c r="J213" s="1" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="214" spans="1:15" ht="36" x14ac:dyDescent="0.3">
+      <c r="A214" s="2">
+        <v>214</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="C214" s="1">
+        <v>122</v>
+      </c>
+      <c r="D214" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E214" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F214" s="1" t="s">
+        <v>970</v>
+      </c>
+      <c r="H214" s="1" t="s">
+        <v>971</v>
+      </c>
+      <c r="I214" s="1" t="s">
+        <v>972</v>
+      </c>
+      <c r="J214" s="1" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="215" spans="1:15" ht="36" x14ac:dyDescent="0.3">
+      <c r="A215" s="2">
+        <v>215</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="C215" s="1">
+        <v>123</v>
+      </c>
+      <c r="D215" s="1" t="s">
+        <v>974</v>
+      </c>
+      <c r="E215" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F215" s="1" t="s">
+        <v>975</v>
+      </c>
+      <c r="H215" s="1" t="s">
+        <v>976</v>
+      </c>
+      <c r="I215" s="1" t="s">
+        <v>977</v>
+      </c>
+      <c r="J215" s="1" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="216" spans="1:15" ht="36" x14ac:dyDescent="0.3">
+      <c r="A216" s="2">
+        <v>216</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="C216" s="1">
+        <v>124</v>
+      </c>
+      <c r="D216" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E216" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F216" s="1" t="s">
+        <v>979</v>
+      </c>
+      <c r="H216" s="1" t="s">
+        <v>980</v>
+      </c>
+      <c r="I216" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="J216" s="1" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="217" spans="1:15" ht="36" x14ac:dyDescent="0.3">
+      <c r="A217" s="2">
+        <v>217</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="C217" s="1">
+        <v>125</v>
+      </c>
+      <c r="D217" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E217" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F217" s="1" t="s">
+        <v>983</v>
+      </c>
+      <c r="H217" s="1" t="s">
+        <v>984</v>
+      </c>
+      <c r="I217" s="1" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="218" spans="1:15" ht="72" x14ac:dyDescent="0.3">
+      <c r="A218" s="2">
+        <v>218</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="C218" s="1">
+        <v>126</v>
+      </c>
+      <c r="D218" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E218" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F218" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G218" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H218" s="1" t="s">
+        <v>986</v>
+      </c>
+      <c r="J218" s="1" t="s">
+        <v>987</v>
+      </c>
+      <c r="K218" s="1" t="s">
+        <v>988</v>
+      </c>
+      <c r="L218" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="M218" s="1" t="s">
+        <v>990</v>
+      </c>
+      <c r="N218" s="1" t="s">
+        <v>991</v>
+      </c>
+      <c r="O218" s="1" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="219" spans="1:15" ht="36" x14ac:dyDescent="0.3">
+      <c r="A219" s="2">
+        <v>219</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="C219" s="1">
+        <v>127</v>
+      </c>
+      <c r="D219" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E219" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F219" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G219" s="1" t="s">
+        <v>864</v>
+      </c>
+      <c r="I219" s="1" t="s">
+        <v>993</v>
+      </c>
+      <c r="J219" s="1" t="s">
+        <v>994</v>
+      </c>
+      <c r="K219" s="1" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="220" spans="1:15" ht="36" x14ac:dyDescent="0.3">
+      <c r="A220" s="2">
+        <v>220</v>
+      </c>
+      <c r="B220" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="C220" s="1">
+        <v>128</v>
+      </c>
+      <c r="D220" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E220" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F220" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="H220" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="I220" s="1" t="s">
+        <v>998</v>
+      </c>
+      <c r="J220" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="K220" s="1" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="221" spans="1:15" ht="54" x14ac:dyDescent="0.3">
+      <c r="A221" s="2">
+        <v>221</v>
+      </c>
+      <c r="B221" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="C221" s="1">
+        <v>129</v>
+      </c>
+      <c r="D221" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E221" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F221" s="1" t="s">
+        <v>1001</v>
+      </c>
+      <c r="H221" s="1" t="s">
+        <v>1002</v>
+      </c>
+      <c r="I221" s="1" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="222" spans="1:15" ht="36" x14ac:dyDescent="0.3">
+      <c r="A222" s="2">
+        <v>222</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="C222" s="1">
+        <v>130</v>
+      </c>
+      <c r="D222" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E222" s="1" t="s">
+        <v>1004</v>
+      </c>
+      <c r="F222" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G222" s="1" t="s">
+        <v>850</v>
+      </c>
+      <c r="I222" s="1" t="s">
+        <v>1005</v>
+      </c>
+      <c r="J222" s="1" t="s">
+        <v>1006</v>
+      </c>
+      <c r="K222" s="1" t="s">
+        <v>1007</v>
+      </c>
+      <c r="L222" s="1" t="s">
+        <v>1008</v>
+      </c>
+      <c r="M222" s="1" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="223" spans="1:15" ht="54" x14ac:dyDescent="0.3">
+      <c r="A223" s="2">
+        <v>223</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="C223" s="1">
+        <v>131</v>
+      </c>
+      <c r="D223" s="1" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E223" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F223" s="1" t="s">
+        <v>1011</v>
+      </c>
+      <c r="H223" s="1" t="s">
+        <v>1012</v>
+      </c>
+      <c r="I223" s="1" t="s">
+        <v>1013</v>
+      </c>
+      <c r="J223" s="1" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="224" spans="1:15" ht="36" x14ac:dyDescent="0.3">
+      <c r="A224" s="2">
+        <v>224</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="C224" s="1">
+        <v>132</v>
+      </c>
+      <c r="D224" s="1" t="s">
+        <v>794</v>
+      </c>
+      <c r="E224" s="1" t="s">
+        <v>1015</v>
+      </c>
+      <c r="F224" s="1" t="s">
+        <v>1016</v>
+      </c>
+      <c r="G224" s="1" t="s">
+        <v>1017</v>
+      </c>
+      <c r="H224" s="1" t="s">
+        <v>1018</v>
+      </c>
+      <c r="J224" s="1" t="s">
+        <v>1019</v>
+      </c>
+      <c r="K224" s="1" t="s">
+        <v>1020</v>
+      </c>
+      <c r="L224" s="1" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="225" spans="1:13" ht="36" x14ac:dyDescent="0.3">
+      <c r="A225" s="2">
+        <v>225</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="C225" s="1">
+        <v>133</v>
+      </c>
+      <c r="D225" s="1" t="s">
+        <v>1022</v>
+      </c>
+      <c r="E225" s="1" t="s">
+        <v>1023</v>
+      </c>
+      <c r="F225" s="1" t="s">
+        <v>1024</v>
+      </c>
+      <c r="G225" s="1" t="s">
+        <v>1025</v>
+      </c>
+      <c r="I225" s="1" t="s">
+        <v>1026</v>
+      </c>
+      <c r="J225" s="1" t="s">
+        <v>1027</v>
+      </c>
+      <c r="K225" s="1" t="s">
+        <v>1028</v>
+      </c>
+      <c r="L225" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="M225" s="1" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="226" spans="1:13" ht="36" x14ac:dyDescent="0.3">
+      <c r="A226" s="2">
+        <v>226</v>
+      </c>
+      <c r="B226" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="C226" s="1">
+        <v>134</v>
+      </c>
+      <c r="D226" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E226" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F226" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G226" s="1" t="s">
+        <v>1031</v>
+      </c>
+      <c r="I226" s="1" t="s">
+        <v>1032</v>
+      </c>
+      <c r="J226" s="1" t="s">
+        <v>1033</v>
+      </c>
+      <c r="K226" s="1" t="s">
+        <v>1034</v>
+      </c>
+      <c r="L226" s="1" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="227" spans="1:13" ht="36" x14ac:dyDescent="0.3">
+      <c r="A227" s="2">
+        <v>227</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="C227" s="1">
+        <v>135</v>
+      </c>
+      <c r="D227" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E227" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F227" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G227" s="1" t="s">
+        <v>1036</v>
+      </c>
+      <c r="I227" s="1" t="s">
+        <v>1037</v>
+      </c>
+      <c r="J227" s="1" t="s">
+        <v>1038</v>
+      </c>
+      <c r="K227" s="1" t="s">
+        <v>1039</v>
+      </c>
+      <c r="L227" s="1" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="228" spans="1:13" ht="54" x14ac:dyDescent="0.3">
+      <c r="A228" s="2">
+        <v>228</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="C228" s="1">
+        <v>136</v>
+      </c>
+      <c r="D228" s="1" t="s">
+        <v>1041</v>
+      </c>
+      <c r="E228" s="1" t="s">
+        <v>1042</v>
+      </c>
+      <c r="F228" s="1" t="s">
+        <v>1043</v>
+      </c>
+      <c r="H228" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="I228" s="1" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="229" spans="1:13" ht="36" x14ac:dyDescent="0.3">
+      <c r="A229" s="2">
+        <v>229</v>
+      </c>
+      <c r="B229" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="C229" s="1">
+        <v>137</v>
+      </c>
+      <c r="D229" s="1" t="s">
+        <v>1046</v>
+      </c>
+      <c r="E229" s="1" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F229" s="1" t="s">
+        <v>1048</v>
+      </c>
+      <c r="G229" s="1" t="s">
+        <v>1049</v>
+      </c>
+      <c r="H229" s="1" t="s">
+        <v>1050</v>
+      </c>
+      <c r="J229" s="1" t="s">
+        <v>1051</v>
+      </c>
+      <c r="K229" s="1" t="s">
+        <v>1052</v>
+      </c>
+      <c r="L229" s="1" t="s">
+        <v>1053</v>
+      </c>
+      <c r="M229" s="1" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="230" spans="1:13" ht="36" x14ac:dyDescent="0.3">
+      <c r="A230" s="2">
+        <v>230</v>
+      </c>
+      <c r="B230" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="C230" s="1">
+        <v>138</v>
+      </c>
+      <c r="D230" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E230" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F230" s="1" t="s">
+        <v>932</v>
+      </c>
+      <c r="H230" s="1" t="s">
+        <v>1055</v>
+      </c>
+      <c r="I230" s="1" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="231" spans="1:13" ht="36" x14ac:dyDescent="0.3">
+      <c r="A231" s="2">
+        <v>231</v>
+      </c>
+      <c r="B231" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="C231" s="1">
+        <v>139</v>
+      </c>
+      <c r="D231" s="1" t="s">
+        <v>1057</v>
+      </c>
+      <c r="E231" s="1" t="s">
+        <v>1058</v>
+      </c>
+      <c r="F231" s="1" t="s">
+        <v>1059</v>
+      </c>
+      <c r="G231" s="1" t="s">
+        <v>1060</v>
+      </c>
+      <c r="H231" s="1" t="s">
+        <v>1061</v>
+      </c>
+      <c r="J231" s="1" t="s">
+        <v>1062</v>
+      </c>
+      <c r="K231" s="1" t="s">
+        <v>1063</v>
+      </c>
+      <c r="L231" s="1" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="232" spans="1:13" ht="36" x14ac:dyDescent="0.3">
+      <c r="A232" s="2">
+        <v>232</v>
+      </c>
+      <c r="B232" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="C232" s="1">
+        <v>140</v>
+      </c>
+      <c r="D232" s="1" t="s">
+        <v>1065</v>
+      </c>
+      <c r="E232" s="1" t="s">
+        <v>1066</v>
+      </c>
+      <c r="F232" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G232" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H232" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J232" s="1" t="s">
+        <v>1067</v>
+      </c>
+      <c r="K232" s="1" t="s">
+        <v>1068</v>
+      </c>
+      <c r="L232" s="1" t="s">
+        <v>1069</v>
+      </c>
+      <c r="M232" s="1" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="233" spans="1:13" ht="36" x14ac:dyDescent="0.3">
+      <c r="A233" s="2">
+        <v>233</v>
+      </c>
+      <c r="B233" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="C233" s="1">
+        <v>141</v>
+      </c>
+      <c r="D233" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E233" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F233" s="1" t="s">
+        <v>1071</v>
+      </c>
+      <c r="H233" s="1" t="s">
+        <v>1072</v>
+      </c>
+      <c r="I233" s="1" t="s">
+        <v>1073</v>
+      </c>
+      <c r="J233" s="1" t="s">
+        <v>1074</v>
+      </c>
+      <c r="K233" s="1" t="s">
+        <v>1075</v>
+      </c>
+      <c r="L233" s="1" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="234" spans="1:13" ht="36" x14ac:dyDescent="0.3">
+      <c r="A234" s="2">
+        <v>234</v>
+      </c>
+      <c r="B234" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="C234" s="1">
+        <v>142</v>
+      </c>
+      <c r="D234" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E234" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F234" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G234" s="1" t="s">
+        <v>1077</v>
+      </c>
+      <c r="I234" s="1" t="s">
+        <v>1078</v>
+      </c>
+      <c r="J234" s="1" t="s">
+        <v>1079</v>
+      </c>
+      <c r="K234" s="1" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="235" spans="1:13" ht="54" x14ac:dyDescent="0.3">
+      <c r="A235" s="2">
+        <v>235</v>
+      </c>
+      <c r="B235" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="C235" s="1">
+        <v>143</v>
+      </c>
+      <c r="D235" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E235" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F235" s="1" t="s">
+        <v>1081</v>
+      </c>
+      <c r="H235" s="1" t="s">
+        <v>1082</v>
+      </c>
+      <c r="I235" s="1" t="s">
+        <v>1083</v>
+      </c>
+      <c r="J235" s="1" t="s">
+        <v>1084</v>
+      </c>
+      <c r="K235" s="1" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="236" spans="1:13" ht="36" x14ac:dyDescent="0.3">
+      <c r="A236" s="2">
+        <v>236</v>
+      </c>
+      <c r="B236" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="C236" s="1">
+        <v>144</v>
+      </c>
+      <c r="D236" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E236" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F236" s="1" t="s">
+        <v>1086</v>
+      </c>
+      <c r="H236" s="1" t="s">
+        <v>1087</v>
+      </c>
+      <c r="I236" s="1" t="s">
+        <v>1088</v>
+      </c>
+      <c r="J236" s="1" t="s">
+        <v>1089</v>
+      </c>
+      <c r="K236" s="1" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="237" spans="1:13" ht="36" x14ac:dyDescent="0.3">
+      <c r="A237" s="2">
+        <v>237</v>
+      </c>
+      <c r="B237" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="C237" s="1">
+        <v>145</v>
+      </c>
+      <c r="D237" s="1" t="s">
+        <v>1091</v>
+      </c>
+      <c r="E237" s="1" t="s">
+        <v>1092</v>
+      </c>
+      <c r="G237" s="1" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="238" spans="1:13" ht="36" x14ac:dyDescent="0.3">
+      <c r="A238" s="2">
+        <v>238</v>
+      </c>
+      <c r="B238" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="C238" s="1">
+        <v>146</v>
+      </c>
+      <c r="D238" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E238" s="1" t="s">
+        <v>1094</v>
+      </c>
+      <c r="G238" s="1" t="s">
+        <v>1095</v>
+      </c>
+      <c r="H238" s="1" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="239" spans="1:13" ht="54" x14ac:dyDescent="0.3">
+      <c r="A239" s="2">
+        <v>239</v>
+      </c>
+      <c r="B239" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="C239" s="1">
+        <v>147</v>
+      </c>
+      <c r="D239" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E239" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F239" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G239" s="1" t="s">
+        <v>1097</v>
+      </c>
+      <c r="I239" s="1" t="s">
+        <v>1098</v>
+      </c>
+      <c r="J239" s="1" t="s">
+        <v>1099</v>
+      </c>
+      <c r="K239" s="1" t="s">
+        <v>1100</v>
+      </c>
+      <c r="L239" s="1" t="s">
+        <v>1101</v>
+      </c>
+      <c r="M239" s="1" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="240" spans="1:13" ht="36" x14ac:dyDescent="0.3">
+      <c r="A240" s="2">
+        <v>240</v>
+      </c>
+      <c r="B240" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="C240" s="1">
+        <v>148</v>
+      </c>
+      <c r="D240" s="1" t="s">
+        <v>1103</v>
+      </c>
+      <c r="E240" s="1" t="s">
+        <v>1104</v>
+      </c>
+      <c r="F240" s="1" t="s">
+        <v>1105</v>
+      </c>
+      <c r="H240" s="1" t="s">
+        <v>1106</v>
+      </c>
+      <c r="I240" s="1" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="241" spans="1:12" ht="36" x14ac:dyDescent="0.3">
+      <c r="A241" s="2">
+        <v>241</v>
+      </c>
+      <c r="B241" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="C241" s="1">
+        <v>149</v>
+      </c>
+      <c r="D241" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E241" s="1" t="s">
+        <v>1108</v>
+      </c>
+      <c r="F241" s="1" t="s">
+        <v>1109</v>
+      </c>
+      <c r="H241" s="1" t="s">
+        <v>1110</v>
+      </c>
+      <c r="I241" s="1" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="242" spans="1:12" ht="36" x14ac:dyDescent="0.3">
+      <c r="A242" s="2">
+        <v>242</v>
+      </c>
+      <c r="B242" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="C242" s="1">
+        <v>150</v>
+      </c>
+      <c r="D242" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E242" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F242" s="1" t="s">
+        <v>850</v>
+      </c>
+      <c r="H242" s="1" t="s">
+        <v>1112</v>
+      </c>
+      <c r="I242" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="J242" s="1" t="s">
+        <v>1113</v>
+      </c>
+      <c r="K242" s="1" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="243" spans="1:12" ht="36" x14ac:dyDescent="0.3">
+      <c r="A243" s="2">
+        <v>243</v>
+      </c>
+      <c r="B243" s="1" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C243" s="1">
+        <v>501</v>
+      </c>
+      <c r="D243" s="1" t="s">
+        <v>1116</v>
+      </c>
+      <c r="E243" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G243" s="1" t="s">
+        <v>1117</v>
+      </c>
+      <c r="H243" s="1" t="s">
+        <v>1118</v>
+      </c>
+      <c r="I243" s="1" t="s">
+        <v>1119</v>
+      </c>
+      <c r="J243" s="1" t="s">
+        <v>1120</v>
+      </c>
+      <c r="K243" s="1" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="244" spans="1:12" ht="54" x14ac:dyDescent="0.3">
+      <c r="A244" s="2">
+        <v>244</v>
+      </c>
+      <c r="B244" s="1" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C244" s="1">
+        <v>502</v>
+      </c>
+      <c r="D244" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="E244" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G244" s="1" t="s">
+        <v>1122</v>
+      </c>
+      <c r="H244" s="1" t="s">
+        <v>1123</v>
+      </c>
+      <c r="I244" s="1" t="s">
+        <v>1124</v>
+      </c>
+      <c r="J244" s="1" t="s">
+        <v>1119</v>
+      </c>
+      <c r="K244" s="1" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="245" spans="1:12" ht="36" x14ac:dyDescent="0.3">
+      <c r="A245" s="2">
+        <v>245</v>
+      </c>
+      <c r="B245" s="1" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C245" s="1">
+        <v>503</v>
+      </c>
+      <c r="D245" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="E245" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G245" s="1" t="s">
+        <v>1126</v>
+      </c>
+      <c r="H245" s="1" t="s">
+        <v>1127</v>
+      </c>
+      <c r="I245" s="1" t="s">
+        <v>1128</v>
+      </c>
+      <c r="J245" s="1" t="s">
+        <v>1129</v>
+      </c>
+      <c r="K245" s="1" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="246" spans="1:12" ht="36" x14ac:dyDescent="0.3">
+      <c r="A246" s="2">
+        <v>246</v>
+      </c>
+      <c r="B246" s="1" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C246" s="1">
+        <v>504</v>
+      </c>
+      <c r="D246" s="1" t="s">
+        <v>1130</v>
+      </c>
+      <c r="E246" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="F246" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H246" s="1" t="s">
+        <v>1131</v>
+      </c>
+      <c r="I246" s="1" t="s">
+        <v>1132</v>
+      </c>
+      <c r="J246" s="1" t="s">
+        <v>1133</v>
+      </c>
+      <c r="K246" s="1" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="247" spans="1:12" ht="54" x14ac:dyDescent="0.3">
+      <c r="A247" s="2">
+        <v>247</v>
+      </c>
+      <c r="B247" s="1" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C247" s="1">
+        <v>505</v>
+      </c>
+      <c r="D247" s="1" t="s">
+        <v>1135</v>
+      </c>
+      <c r="E247" s="1" t="s">
+        <v>1136</v>
+      </c>
+      <c r="F247" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="G247" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="I247" s="1" t="s">
+        <v>1137</v>
+      </c>
+      <c r="J247" s="1" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="248" spans="1:12" ht="36" x14ac:dyDescent="0.3">
+      <c r="A248" s="2">
+        <v>248</v>
+      </c>
+      <c r="B248" s="1" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C248" s="1">
+        <v>506</v>
+      </c>
+      <c r="D248" s="1" t="s">
+        <v>1091</v>
+      </c>
+      <c r="E248" s="1" t="s">
+        <v>1139</v>
+      </c>
+      <c r="G248" s="1" t="s">
+        <v>1140</v>
+      </c>
+      <c r="H248" s="1" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="249" spans="1:12" ht="36" x14ac:dyDescent="0.3">
+      <c r="A249" s="2">
+        <v>249</v>
+      </c>
+      <c r="B249" s="1" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C249" s="1">
+        <v>507</v>
+      </c>
+      <c r="D249" s="1" t="s">
+        <v>1142</v>
+      </c>
+      <c r="E249" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="F249" s="1" t="s">
+        <v>1143</v>
+      </c>
+      <c r="H249" s="1" t="s">
+        <v>1144</v>
+      </c>
+      <c r="I249" s="1" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="250" spans="1:12" ht="36" x14ac:dyDescent="0.3">
+      <c r="A250" s="2">
+        <v>250</v>
+      </c>
+      <c r="B250" s="1" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C250" s="1">
+        <v>508</v>
+      </c>
+      <c r="D250" s="1" t="s">
+        <v>1146</v>
+      </c>
+      <c r="E250" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F250" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="H250" s="1" t="s">
+        <v>1147</v>
+      </c>
+      <c r="I250" s="1" t="s">
+        <v>1148</v>
+      </c>
+      <c r="J250" s="1" t="s">
+        <v>1149</v>
+      </c>
+      <c r="K250" s="1" t="s">
+        <v>1150</v>
+      </c>
+      <c r="L250" s="1" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="251" spans="1:12" ht="54" x14ac:dyDescent="0.3">
+      <c r="A251" s="2">
+        <v>251</v>
+      </c>
+      <c r="B251" s="1" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C251" s="1">
+        <v>509</v>
+      </c>
+      <c r="D251" s="1" t="s">
+        <v>1152</v>
+      </c>
+      <c r="E251" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="F251" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="H251" s="1" t="s">
+        <v>1154</v>
+      </c>
+      <c r="I251" s="1" t="s">
+        <v>1155</v>
+      </c>
+      <c r="J251" s="1" t="s">
+        <v>1156</v>
+      </c>
+      <c r="K251" s="1" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="252" spans="1:12" ht="54" x14ac:dyDescent="0.3">
+      <c r="A252" s="2">
+        <v>252</v>
+      </c>
+      <c r="B252" s="1" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C252" s="1">
+        <v>510</v>
+      </c>
+      <c r="D252" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="E252" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="G252" s="1" t="s">
+        <v>1158</v>
+      </c>
+      <c r="H252" s="1" t="s">
+        <v>1159</v>
+      </c>
+      <c r="I252" s="1" t="s">
+        <v>1160</v>
+      </c>
+      <c r="J252" s="1" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="253" spans="1:12" ht="36" x14ac:dyDescent="0.3">
+      <c r="A253" s="2">
+        <v>253</v>
+      </c>
+      <c r="B253" s="1" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C253" s="1">
+        <v>511</v>
+      </c>
+      <c r="D253" s="1" t="s">
+        <v>1162</v>
+      </c>
+      <c r="E253" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F253" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="H253" s="1" t="s">
+        <v>1163</v>
+      </c>
+      <c r="I253" s="1" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="254" spans="1:12" ht="54" x14ac:dyDescent="0.3">
+      <c r="A254" s="2">
+        <v>254</v>
+      </c>
+      <c r="B254" s="1" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C254" s="1">
+        <v>512</v>
+      </c>
+      <c r="D254" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="E254" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G254" s="1" t="s">
+        <v>1165</v>
+      </c>
+      <c r="H254" s="1" t="s">
+        <v>1166</v>
+      </c>
+      <c r="I254" s="1" t="s">
+        <v>1167</v>
+      </c>
+      <c r="J254" s="1" t="s">
+        <v>1168</v>
+      </c>
+      <c r="K254" s="1" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="255" spans="1:12" ht="36" x14ac:dyDescent="0.3">
+      <c r="A255" s="2">
+        <v>255</v>
+      </c>
+      <c r="B255" s="1" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C255" s="1">
+        <v>513</v>
+      </c>
+      <c r="D255" s="1" t="s">
+        <v>1170</v>
+      </c>
+      <c r="E255" s="1" t="s">
+        <v>1171</v>
+      </c>
+      <c r="F255" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="G255" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="I255" s="1" t="s">
+        <v>1172</v>
+      </c>
+      <c r="J255" s="1" t="s">
+        <v>1173</v>
+      </c>
+      <c r="K255" s="1" t="s">
+        <v>1174</v>
+      </c>
+      <c r="L255" s="1" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="256" spans="1:12" ht="36" x14ac:dyDescent="0.3">
+      <c r="A256" s="2">
+        <v>256</v>
+      </c>
+      <c r="B256" s="1" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C256" s="1">
+        <v>514</v>
+      </c>
+      <c r="D256" s="1" t="s">
+        <v>1176</v>
+      </c>
+      <c r="E256" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="G256" s="1" t="s">
+        <v>1177</v>
+      </c>
+      <c r="H256" s="1" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="257" spans="1:13" ht="36" x14ac:dyDescent="0.3">
+      <c r="A257" s="2">
+        <v>257</v>
+      </c>
+      <c r="B257" s="1" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C257" s="1">
+        <v>515</v>
+      </c>
+      <c r="D257" s="1" t="s">
+        <v>1179</v>
+      </c>
+      <c r="E257" s="1" t="s">
+        <v>1180</v>
+      </c>
+      <c r="G257" s="1" t="s">
+        <v>1181</v>
+      </c>
+      <c r="H257" s="1" t="s">
+        <v>1182</v>
+      </c>
+      <c r="I257" s="1" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="258" spans="1:13" ht="36" x14ac:dyDescent="0.3">
+      <c r="A258" s="2">
+        <v>258</v>
+      </c>
+      <c r="B258" s="1" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C258" s="1">
+        <v>516</v>
+      </c>
+      <c r="D258" s="1" t="s">
+        <v>1184</v>
+      </c>
+      <c r="E258" s="1" t="s">
+        <v>1185</v>
+      </c>
+      <c r="F258" s="1" t="s">
+        <v>1186</v>
+      </c>
+      <c r="G258" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H258" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="J258" s="1" t="s">
+        <v>1187</v>
+      </c>
+      <c r="K258" s="1" t="s">
+        <v>1188</v>
+      </c>
+      <c r="L258" s="1" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="259" spans="1:13" ht="36" x14ac:dyDescent="0.3">
+      <c r="A259" s="2">
+        <v>259</v>
+      </c>
+      <c r="B259" s="1" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C259" s="1">
+        <v>517</v>
+      </c>
+      <c r="D259" s="1" t="s">
+        <v>1190</v>
+      </c>
+      <c r="E259" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="G259" s="1" t="s">
+        <v>1191</v>
+      </c>
+      <c r="H259" s="1" t="s">
+        <v>1192</v>
+      </c>
+      <c r="I259" s="1" t="s">
+        <v>1193</v>
+      </c>
+      <c r="J259" s="1" t="s">
+        <v>1194</v>
+      </c>
+      <c r="K259" s="1" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="260" spans="1:13" ht="54" x14ac:dyDescent="0.3">
+      <c r="A260" s="2">
+        <v>260</v>
+      </c>
+      <c r="B260" s="1" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C260" s="1">
+        <v>518</v>
+      </c>
+      <c r="D260" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E260" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F260" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="H260" s="1" t="s">
+        <v>1196</v>
+      </c>
+      <c r="I260" s="1" t="s">
+        <v>1197</v>
+      </c>
+      <c r="J260" s="1" t="s">
+        <v>1198</v>
+      </c>
+      <c r="K260" s="1" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="261" spans="1:13" ht="36" x14ac:dyDescent="0.3">
+      <c r="A261" s="2">
+        <v>261</v>
+      </c>
+      <c r="B261" s="1" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C261" s="1">
+        <v>519</v>
+      </c>
+      <c r="D261" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="E261" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="G261" s="1" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="262" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+      <c r="A262" s="2">
+        <v>262</v>
+      </c>
+      <c r="B262" s="1" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C262" s="1">
+        <v>520</v>
+      </c>
+      <c r="D262" s="1" t="s">
+        <v>1201</v>
+      </c>
+      <c r="E262" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="G262" s="1" t="s">
+        <v>1203</v>
+      </c>
+      <c r="H262" s="1" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="263" spans="1:13" ht="36" x14ac:dyDescent="0.3">
+      <c r="A263" s="2">
+        <v>263</v>
+      </c>
+      <c r="B263" s="1" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C263" s="1">
+        <v>521</v>
+      </c>
+      <c r="D263" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E263" s="1" t="s">
+        <v>1205</v>
+      </c>
+      <c r="F263" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="G263" s="1" t="s">
+        <v>1206</v>
+      </c>
+      <c r="H263" s="1" t="s">
+        <v>1207</v>
+      </c>
+      <c r="I263" s="1" t="s">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="264" spans="1:13" ht="36" x14ac:dyDescent="0.3">
+      <c r="A264" s="2">
+        <v>264</v>
+      </c>
+      <c r="B264" s="1" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C264" s="1">
+        <v>522</v>
+      </c>
+      <c r="D264" s="1" t="s">
+        <v>1209</v>
+      </c>
+      <c r="E264" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F264" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="H264" s="1" t="s">
+        <v>1210</v>
+      </c>
+      <c r="I264" s="1" t="s">
+        <v>1211</v>
+      </c>
+      <c r="J264" s="1" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="265" spans="1:13" ht="36" x14ac:dyDescent="0.3">
+      <c r="A265" s="2">
+        <v>265</v>
+      </c>
+      <c r="B265" s="1" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C265" s="1">
+        <v>523</v>
+      </c>
+      <c r="D265" s="1" t="s">
+        <v>1213</v>
+      </c>
+      <c r="E265" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="G265" s="1" t="s">
+        <v>1214</v>
+      </c>
+      <c r="H265" s="1" t="s">
+        <v>1215</v>
+      </c>
+      <c r="I265" s="1" t="s">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="266" spans="1:13" ht="36" x14ac:dyDescent="0.3">
+      <c r="A266" s="2">
+        <v>266</v>
+      </c>
+      <c r="B266" s="1" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C266" s="1">
+        <v>524</v>
+      </c>
+      <c r="D266" s="1" t="s">
+        <v>1217</v>
+      </c>
+      <c r="E266" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F266" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="H266" s="1" t="s">
+        <v>1218</v>
+      </c>
+      <c r="I266" s="1" t="s">
+        <v>1219</v>
+      </c>
+      <c r="J266" s="1" t="s">
+        <v>1220</v>
+      </c>
+      <c r="K266" s="1" t="s">
+        <v>1221</v>
+      </c>
+      <c r="L266" s="1" t="s">
+        <v>1219</v>
+      </c>
+      <c r="M266" s="1" t="s">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="267" spans="1:13" ht="36" x14ac:dyDescent="0.3">
+      <c r="A267" s="2">
+        <v>267</v>
+      </c>
+      <c r="B267" s="1" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C267" s="1">
+        <v>525</v>
+      </c>
+      <c r="D267" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="E267" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="G267" s="1" t="s">
+        <v>1223</v>
+      </c>
+      <c r="H267" s="1" t="s">
+        <v>1224</v>
+      </c>
+      <c r="I267" s="1" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="268" spans="1:13" ht="36" x14ac:dyDescent="0.3">
+      <c r="A268" s="2">
+        <v>268</v>
+      </c>
+      <c r="B268" s="1" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C268" s="1">
+        <v>526</v>
+      </c>
+      <c r="D268" s="1" t="s">
+        <v>1226</v>
+      </c>
+      <c r="E268" s="1" t="s">
+        <v>1227</v>
+      </c>
+      <c r="F268" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G268" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="I268" s="1" t="s">
+        <v>1228</v>
+      </c>
+      <c r="J268" s="1" t="s">
+        <v>1229</v>
+      </c>
+      <c r="K268" s="1" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="269" spans="1:13" ht="36" x14ac:dyDescent="0.3">
+      <c r="A269" s="2">
+        <v>269</v>
+      </c>
+      <c r="B269" s="1" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C269" s="1">
+        <v>527</v>
+      </c>
+      <c r="D269" s="1" t="s">
+        <v>1231</v>
+      </c>
+      <c r="E269" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F269" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="H269" s="1" t="s">
+        <v>1232</v>
+      </c>
+      <c r="I269" s="1" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="270" spans="1:13" ht="36" x14ac:dyDescent="0.3">
+      <c r="A270" s="2">
+        <v>270</v>
+      </c>
+      <c r="B270" s="1" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C270" s="1">
+        <v>528</v>
+      </c>
+      <c r="D270" s="1" t="s">
+        <v>1234</v>
+      </c>
+      <c r="E270" s="1" t="s">
+        <v>1104</v>
+      </c>
+      <c r="F270" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="H270" s="1" t="s">
+        <v>1235</v>
+      </c>
+      <c r="I270" s="1" t="s">
+        <v>1198</v>
+      </c>
+      <c r="J270" s="1" t="s">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="271" spans="1:13" ht="54" x14ac:dyDescent="0.3">
+      <c r="A271" s="2">
+        <v>271</v>
+      </c>
+      <c r="B271" s="1" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C271" s="1">
+        <v>529</v>
+      </c>
+      <c r="D271" s="1" t="s">
+        <v>1237</v>
+      </c>
+      <c r="E271" s="1" t="s">
+        <v>1238</v>
+      </c>
+      <c r="F271" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G271" s="1" t="s">
+        <v>1239</v>
+      </c>
+      <c r="I271" s="1" t="s">
+        <v>1240</v>
+      </c>
+      <c r="J271" s="1" t="s">
+        <v>1241</v>
+      </c>
+      <c r="K271" s="1" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="272" spans="1:13" ht="36" x14ac:dyDescent="0.3">
+      <c r="A272" s="2">
+        <v>272</v>
+      </c>
+      <c r="B272" s="1" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C272" s="1">
+        <v>530</v>
+      </c>
+      <c r="D272" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="E272" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="F272" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="H272" s="1" t="s">
+        <v>1243</v>
+      </c>
+      <c r="I272" s="1" t="s">
+        <v>1244</v>
+      </c>
+      <c r="J272" s="1" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="273" spans="1:13" ht="36" x14ac:dyDescent="0.3">
+      <c r="A273" s="2">
+        <v>273</v>
+      </c>
+      <c r="B273" s="1" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C273" s="1">
+        <v>531</v>
+      </c>
+      <c r="D273" s="1" t="s">
+        <v>1246</v>
+      </c>
+      <c r="E273" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="F273" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="H273" s="1" t="s">
+        <v>1247</v>
+      </c>
+      <c r="I273" s="1" t="s">
+        <v>1248</v>
+      </c>
+      <c r="J273" s="1" t="s">
+        <v>1249</v>
+      </c>
+      <c r="K273" s="1" t="s">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="274" spans="1:13" ht="36" x14ac:dyDescent="0.3">
+      <c r="A274" s="2">
+        <v>274</v>
+      </c>
+      <c r="B274" s="1" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C274" s="1">
+        <v>532</v>
+      </c>
+      <c r="D274" s="1" t="s">
+        <v>1251</v>
+      </c>
+      <c r="E274" s="1" t="s">
+        <v>1252</v>
+      </c>
+      <c r="F274" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G274" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="I274" s="1" t="s">
+        <v>1253</v>
+      </c>
+      <c r="J274" s="1" t="s">
+        <v>1254</v>
+      </c>
+      <c r="K274" s="1" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="275" spans="1:13" ht="36" x14ac:dyDescent="0.3">
+      <c r="A275" s="2">
+        <v>275</v>
+      </c>
+      <c r="B275" s="1" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C275" s="1">
+        <v>533</v>
+      </c>
+      <c r="D275" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="E275" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="F275" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="H275" s="1" t="s">
+        <v>1256</v>
+      </c>
+      <c r="I275" s="1" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="276" spans="1:13" ht="36" x14ac:dyDescent="0.3">
+      <c r="A276" s="2">
+        <v>276</v>
+      </c>
+      <c r="B276" s="1" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C276" s="1">
+        <v>534</v>
+      </c>
+      <c r="D276" s="1" t="s">
+        <v>1258</v>
+      </c>
+      <c r="E276" s="1" t="s">
+        <v>1259</v>
+      </c>
+      <c r="F276" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G276" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="I276" s="1" t="s">
+        <v>1260</v>
+      </c>
+      <c r="J276" s="1" t="s">
+        <v>1261</v>
+      </c>
+      <c r="K276" s="1" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="277" spans="1:13" ht="54" x14ac:dyDescent="0.3">
+      <c r="A277" s="2">
+        <v>277</v>
+      </c>
+      <c r="B277" s="1" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C277" s="1">
+        <v>535</v>
+      </c>
+      <c r="D277" s="1" t="s">
+        <v>1263</v>
+      </c>
+      <c r="E277" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F277" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="H277" s="1" t="s">
+        <v>1264</v>
+      </c>
+      <c r="I277" s="1" t="s">
+        <v>1265</v>
+      </c>
+      <c r="J277" s="1" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="278" spans="1:13" ht="36" x14ac:dyDescent="0.3">
+      <c r="A278" s="2">
+        <v>278</v>
+      </c>
+      <c r="B278" s="1" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C278" s="1">
+        <v>536</v>
+      </c>
+      <c r="D278" s="1" t="s">
+        <v>1267</v>
+      </c>
+      <c r="E278" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G278" s="1" t="s">
+        <v>1268</v>
+      </c>
+      <c r="H278" s="1" t="s">
+        <v>1269</v>
+      </c>
+      <c r="I278" s="1" t="s">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="279" spans="1:13" ht="54" x14ac:dyDescent="0.3">
+      <c r="A279" s="2">
+        <v>279</v>
+      </c>
+      <c r="B279" s="1" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C279" s="1">
+        <v>537</v>
+      </c>
+      <c r="D279" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="E279" s="1" t="s">
+        <v>1271</v>
+      </c>
+      <c r="G279" s="1" t="s">
+        <v>1272</v>
+      </c>
+      <c r="H279" s="1" t="s">
+        <v>1273</v>
+      </c>
+      <c r="I279" s="1" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="280" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A280" s="2">
+        <v>280</v>
+      </c>
+      <c r="B280" s="1" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C280" s="1">
+        <v>538</v>
+      </c>
+      <c r="D280" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="E280" s="1" t="s">
+        <v>1275</v>
+      </c>
+      <c r="F280" s="1" t="s">
+        <v>1276</v>
+      </c>
+      <c r="G280" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="H280" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="J280" s="1" t="s">
+        <v>1277</v>
+      </c>
+      <c r="K280" s="1" t="s">
+        <v>1278</v>
+      </c>
+      <c r="L280" s="1" t="s">
+        <v>1279</v>
+      </c>
+      <c r="M280" s="1" t="s">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="281" spans="1:13" ht="36" x14ac:dyDescent="0.3">
+      <c r="A281" s="2">
+        <v>281</v>
+      </c>
+      <c r="B281" s="1" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C281" s="1">
+        <v>539</v>
+      </c>
+      <c r="D281" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="E281" s="1" t="s">
+        <v>1282</v>
+      </c>
+      <c r="F281" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G281" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="I281" s="1" t="s">
+        <v>1283</v>
+      </c>
+      <c r="J281" s="1" t="s">
+        <v>1284</v>
+      </c>
+      <c r="K281" s="1" t="s">
+        <v>1285</v>
+      </c>
+      <c r="L281" s="1" t="s">
+        <v>1286</v>
+      </c>
+      <c r="M281" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="282" spans="1:13" ht="36" x14ac:dyDescent="0.3">
+      <c r="A282" s="2">
+        <v>282</v>
+      </c>
+      <c r="B282" s="1" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C282" s="1">
+        <v>540</v>
+      </c>
+      <c r="D282" s="1" t="s">
+        <v>1287</v>
+      </c>
+      <c r="E282" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="F282" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="H282" s="1" t="s">
+        <v>1288</v>
+      </c>
+      <c r="I282" s="1" t="s">
+        <v>1289</v>
+      </c>
+      <c r="J282" s="1" t="s">
+        <v>1290</v>
+      </c>
+      <c r="K282" s="1" t="s">
+        <v>1291</v>
+      </c>
+      <c r="L282" s="1" t="s">
+        <v>1198</v>
+      </c>
+      <c r="M282" s="1" t="s">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="283" spans="1:13" ht="36" x14ac:dyDescent="0.3">
+      <c r="A283" s="2">
+        <v>283</v>
+      </c>
+      <c r="B283" s="1" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C283" s="1">
+        <v>541</v>
+      </c>
+      <c r="D283" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="E283" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F283" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="H283" s="1" t="s">
+        <v>1294</v>
+      </c>
+      <c r="I283" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="J283" s="1" t="s">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="284" spans="1:13" ht="36" x14ac:dyDescent="0.3">
+      <c r="A284" s="2">
+        <v>284</v>
+      </c>
+      <c r="B284" s="1" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C284" s="1">
+        <v>542</v>
+      </c>
+      <c r="D284" s="1" t="s">
+        <v>1297</v>
+      </c>
+      <c r="E284" s="1" t="s">
+        <v>1298</v>
+      </c>
+      <c r="F284" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="G284" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="I284" s="1" t="s">
+        <v>1299</v>
+      </c>
+      <c r="J284" s="1" t="s">
+        <v>1300</v>
+      </c>
+      <c r="K284" s="1" t="s">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="285" spans="1:13" ht="36" x14ac:dyDescent="0.3">
+      <c r="A285" s="2">
+        <v>285</v>
+      </c>
+      <c r="B285" s="1" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C285" s="1">
+        <v>543</v>
+      </c>
+      <c r="D285" s="1" t="s">
+        <v>1302</v>
+      </c>
+      <c r="E285" s="1" t="s">
+        <v>1303</v>
+      </c>
+      <c r="F285" s="1" t="s">
+        <v>1024</v>
+      </c>
+      <c r="G285" s="1" t="s">
+        <v>1304</v>
+      </c>
+      <c r="I285" s="1" t="s">
+        <v>1305</v>
+      </c>
+      <c r="J285" s="1" t="s">
+        <v>1306</v>
+      </c>
+      <c r="K285" s="1" t="s">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="286" spans="1:13" ht="36" x14ac:dyDescent="0.3">
+      <c r="A286" s="2">
+        <v>286</v>
+      </c>
+      <c r="B286" s="1" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C286" s="1">
+        <v>544</v>
+      </c>
+      <c r="D286" s="1" t="s">
+        <v>1308</v>
+      </c>
+      <c r="E286" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F286" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="H286" s="1" t="s">
+        <v>1309</v>
+      </c>
+      <c r="I286" s="1" t="s">
+        <v>1310</v>
+      </c>
+      <c r="J286" s="1" t="s">
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="287" spans="1:13" ht="54" x14ac:dyDescent="0.3">
+      <c r="A287" s="2">
+        <v>287</v>
+      </c>
+      <c r="B287" s="1" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C287" s="1">
+        <v>545</v>
+      </c>
+      <c r="D287" s="1" t="s">
+        <v>1312</v>
+      </c>
+      <c r="E287" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="G287" s="1" t="s">
+        <v>1313</v>
+      </c>
+      <c r="H287" s="1" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="288" spans="1:13" ht="54" x14ac:dyDescent="0.3">
+      <c r="A288" s="2">
+        <v>288</v>
+      </c>
+      <c r="B288" s="1" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C288" s="1">
+        <v>546</v>
+      </c>
+      <c r="D288" s="1" t="s">
+        <v>1315</v>
+      </c>
+      <c r="E288" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="G288" s="1" t="s">
+        <v>1316</v>
+      </c>
+      <c r="H288" s="1" t="s">
+        <v>1317</v>
+      </c>
+      <c r="I288" s="1" t="s">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="289" spans="1:12" ht="36" x14ac:dyDescent="0.3">
+      <c r="A289" s="2">
+        <v>289</v>
+      </c>
+      <c r="B289" s="1" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C289" s="1">
+        <v>547</v>
+      </c>
+      <c r="D289" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="E289" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="G289" s="1" t="s">
+        <v>1319</v>
+      </c>
+      <c r="H289" s="1" t="s">
+        <v>1320</v>
+      </c>
+      <c r="I289" s="1" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="290" spans="1:12" ht="36" x14ac:dyDescent="0.3">
+      <c r="A290" s="2">
+        <v>290</v>
+      </c>
+      <c r="B290" s="1" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C290" s="1">
+        <v>548</v>
+      </c>
+      <c r="D290" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E290" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="G290" s="1" t="s">
+        <v>1322</v>
+      </c>
+      <c r="H290" s="1" t="s">
+        <v>1323</v>
+      </c>
+      <c r="I290" s="1" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J290" s="1" t="s">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="291" spans="1:12" ht="36" x14ac:dyDescent="0.3">
+      <c r="A291" s="2">
+        <v>291</v>
+      </c>
+      <c r="B291" s="1" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C291" s="1">
+        <v>549</v>
+      </c>
+      <c r="D291" s="1" t="s">
+        <v>1326</v>
+      </c>
+      <c r="E291" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F291" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H291" s="1" t="s">
+        <v>1117</v>
+      </c>
+      <c r="I291" s="1" t="s">
+        <v>1327</v>
+      </c>
+      <c r="J291" s="1" t="s">
+        <v>1328</v>
+      </c>
+      <c r="K291" s="1" t="s">
+        <v>1119</v>
+      </c>
+      <c r="L291" s="1" t="s">
+        <v>1329</v>
       </c>
     </row>
   </sheetData>

--- a/texts_fin.xlsx
+++ b/texts_fin.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\0000shakesp\0000Shakespeare-phrases-main\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\0000shakesp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5226129-9C47-49E3-8358-4E6C6C3570B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C09E5B0-10AE-4102-B1AA-E39F5CFA976E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{BBE6E32D-62B2-4B13-BAAA-307AEDD5E135}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029" iterateDelta="1E-4"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2160" uniqueCount="1330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2441" uniqueCount="1474">
   <si>
     <t>To be, or not to be,</t>
   </si>
@@ -4015,6 +4015,438 @@
   </si>
   <si>
     <t>wiltu niwiht weiter wesan?</t>
+  </si>
+  <si>
+    <t>ofr</t>
+  </si>
+  <si>
+    <t>301</t>
+  </si>
+  <si>
+    <t>'S is fei ned ols Gold, wos glensd.</t>
+  </si>
+  <si>
+    <t>Nothing will come of nothing.</t>
+  </si>
+  <si>
+    <t>Vo nix werrd nix.</t>
+  </si>
+  <si>
+    <t>Und nix kemmd vo nix.</t>
+  </si>
+  <si>
+    <t>All the world's a stage, and all the men and women merely players.</t>
+  </si>
+  <si>
+    <t>They have their exits and their entrances.</t>
+  </si>
+  <si>
+    <t>As You Like lt, Act 2, scene 7</t>
+  </si>
+  <si>
+    <t>Die Weld is a Deoda,</t>
+  </si>
+  <si>
+    <t>olle Menna und Weiba bloß Schauspiela,</t>
+  </si>
+  <si>
+    <t>die naus und nei genga.</t>
+  </si>
+  <si>
+    <t>There are more things in heaven and earth, Horatio,</t>
+  </si>
+  <si>
+    <t>S gibd einfach mehr uf f dea Weld,</t>
+  </si>
+  <si>
+    <t>als du denggsd. Dengg nur an Bimberleswichdi.</t>
+  </si>
+  <si>
+    <t>'S is nix gud oda schlechd, 's kummd drauf o,</t>
+  </si>
+  <si>
+    <t>wiesd drieba denggsd.</t>
+  </si>
+  <si>
+    <t>There's many a man has more hair than wit.</t>
+  </si>
+  <si>
+    <t>So vill hamm</t>
+  </si>
+  <si>
+    <t>mea Hoa uf fm Bulmos als Gribs drinna.</t>
+  </si>
+  <si>
+    <t>Lifes a tale told by an idiot, full of sound and fury, signifying nothing.</t>
+  </si>
+  <si>
+    <t>Des Lern is a Märla, voll Bimberleswichdi, wo a Depp derzähld.</t>
+  </si>
+  <si>
+    <t>Merry Wives of Windsor. Act 2, scene 2</t>
+  </si>
+  <si>
+    <t>Lieba zu fria als wie zu späd</t>
+  </si>
+  <si>
+    <t>Celerity is never more admired</t>
+  </si>
+  <si>
+    <t>Die Schnelln werrn vo kaan mera bewunnad</t>
+  </si>
+  <si>
+    <t>als wie vo die Schlofhaum.</t>
+  </si>
+  <si>
+    <t>and our little life is rounded with a sleep.</t>
+  </si>
+  <si>
+    <t>The Tempest, Act 4, scene 1 ·</t>
+  </si>
+  <si>
+    <t>Mir senn gmachd wie a Draam,</t>
+  </si>
+  <si>
+    <t>Wemmas ned zeichd, liebd ma a ned.</t>
+  </si>
+  <si>
+    <t>Doubt truth to be a liar, but never doubt 1love.</t>
+  </si>
+  <si>
+    <t>Glaab nix und gornix, bloß,</t>
+  </si>
+  <si>
+    <t>dass ich dich hobm mechd.</t>
+  </si>
+  <si>
+    <t>Twelf th Night, Act 3, scene 1</t>
+  </si>
+  <si>
+    <t>Sung is gud in da Lieb, gfunna werrn is bessa.</t>
+  </si>
+  <si>
+    <t>For which of my bad parts didst thou first</t>
+  </si>
+  <si>
+    <t>In welche meina Maggn hasdn dich zuersd vergnalld?</t>
+  </si>
+  <si>
+    <t>Twelf th Night, Act 1, scene l</t>
+  </si>
+  <si>
+    <t>Wenn die Mussigg die Lieb fuddard,</t>
+  </si>
+  <si>
+    <t>ess weida.</t>
+  </si>
+  <si>
+    <t>the more I give to thee, the more 1have,</t>
+  </si>
+  <si>
+    <t>Romeo and Juliet, Act 2, scene</t>
+  </si>
+  <si>
+    <t>Mei Lieb is so arch, je mehr ich da gib, desdo gressa werrds.</t>
+  </si>
+  <si>
+    <t>For I ne'er saw true beauty till this night.</t>
+  </si>
+  <si>
+    <t>Noch nie hob ich</t>
+  </si>
+  <si>
+    <t>so wos Scheens gseng wie heid Nachd.</t>
+  </si>
+  <si>
+    <t>Auf da Spua bleim woa bei da Lieb</t>
+  </si>
+  <si>
+    <t>scho immer schwer. Es ruggld scho mol.</t>
+  </si>
+  <si>
+    <t>I am one</t>
+  </si>
+  <si>
+    <t>who loved not wisely but too well.</t>
+  </si>
+  <si>
+    <t>Ich wor hold blind vor lauda Lieb.</t>
+  </si>
+  <si>
+    <t>=- Aha ned so brov.</t>
+  </si>
+  <si>
+    <t>As You Like lt, Act 2, scene 6</t>
+  </si>
+  <si>
+    <t>Liebe haud am des Vöchala naus.</t>
+  </si>
+  <si>
+    <t>but bears it out even to the edge of doom.</t>
+  </si>
+  <si>
+    <t>Liebe werrd ned älder bis zum End oller Doch.</t>
+  </si>
+  <si>
+    <t>A Mo spild im Lern</t>
+  </si>
+  <si>
+    <t>an hauf n Rolln. Und a Fraa aa.</t>
+  </si>
+  <si>
+    <t>Uneasy lies the head that wears the crown.</t>
+  </si>
+  <si>
+    <t>Mid aner Krona uffm Bulmos</t>
+  </si>
+  <si>
+    <t>ko ma schlechd schlofn.</t>
+  </si>
+  <si>
+    <t>Better a witty fool than a foolish wit.</t>
+  </si>
+  <si>
+    <t>Twelf th Night, Act 1, scene 5</t>
+  </si>
+  <si>
+    <t>Bessa a witziga Depp als a deppischa Witz.</t>
+  </si>
+  <si>
+    <t>Gerechd is schlechd</t>
+  </si>
+  <si>
+    <t>und schlechd is gerechd</t>
+  </si>
+  <si>
+    <t>A fool thinks himself to be w1•se,</t>
+  </si>
+  <si>
+    <t>but a wise man knows himself to be a fool.</t>
+  </si>
+  <si>
+    <t>As You Like lt, Act 5, scene 1</t>
+  </si>
+  <si>
+    <t>A Bleeda denggd, er is schlau,</t>
+  </si>
+  <si>
+    <t>aha a Schlaua was, dass er bleed is.</t>
+  </si>
+  <si>
+    <t>That one may smile, and smile,</t>
+  </si>
+  <si>
+    <t>Bees sa und lächeln gehd olles zwa</t>
+  </si>
+  <si>
+    <t>Love all, trust a few, do wrong to none.</t>
+  </si>
+  <si>
+    <t>Du sollsd die Leid meng, kamm draua</t>
+  </si>
+  <si>
+    <t>und a kamm wos Beses do.</t>
+  </si>
+  <si>
+    <t>Ich grabbl jedm inna Oasch,</t>
+  </si>
+  <si>
+    <t>dwer mir neigrabbld.</t>
+  </si>
+  <si>
+    <t>God hath given you one face, and you</t>
+  </si>
+  <si>
+    <t>Des Gsichd,</t>
+  </si>
+  <si>
+    <t>desd vom lieben God grichd hosd,</t>
+  </si>
+  <si>
+    <t>kennsd aa so lossn.</t>
+  </si>
+  <si>
+    <t>Neither a borrower nor a lender be:</t>
+  </si>
+  <si>
+    <t>for loan oft loses both itself and friend • • •</t>
+  </si>
+  <si>
+    <t>Du nix borgn und a nix leia, weil beim Verborgn verliasd ofd dein Kumpl</t>
+  </si>
+  <si>
+    <t>und beim Borng a wengla des Gfiel fias Geld.</t>
+  </si>
+  <si>
+    <t>Self-love, my liege, is not so vile a sin, as self-neglecting.</t>
+  </si>
+  <si>
+    <t>Wenn ich mich selba mooch, is des fei ned</t>
+  </si>
+  <si>
+    <t>so a greisliche Sünd wie, wenn ich mich ned mechad.</t>
+  </si>
+  <si>
+    <t>Machs so gud,</t>
+  </si>
+  <si>
+    <t>wiesd des gedachd hosd.</t>
+  </si>
+  <si>
+    <t>If we are true to ourselves, we can not be false</t>
+  </si>
+  <si>
+    <t>Wemma zu uns selba steh, kemma kan olieng.</t>
+  </si>
+  <si>
+    <t>And oftentimes excusing of a fault doth make the fault the worse.</t>
+  </si>
+  <si>
+    <t>Blos ned endschuldichn,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> dodamid werrds noch schlimma.</t>
+  </si>
+  <si>
+    <t>1 wasted time,</t>
+  </si>
+  <si>
+    <t>and now doth time waste me.</t>
+  </si>
+  <si>
+    <t>Richard II, Act 5 , scene 5</t>
+  </si>
+  <si>
+    <t>Ich hob Zeid versandld, und etsa versandld die Zeid miech.</t>
+  </si>
+  <si>
+    <t>it is not enough to speak, but to speak true.</t>
+  </si>
+  <si>
+    <t>Des mergsd da: Waaf n reichd ned,</t>
+  </si>
+  <si>
+    <t>musd scho ehrlich sa. Und Wohrheid sogn.</t>
+  </si>
+  <si>
+    <t>Ich mechad,</t>
+  </si>
+  <si>
+    <t>dass mei Pfea so schnell rennd</t>
+  </si>
+  <si>
+    <t>wie dei Zunga.</t>
+  </si>
+  <si>
+    <t>I am not bound to please thee with my answer.</t>
+  </si>
+  <si>
+    <t>The Merchant of Venice, Act 4, scene 1</t>
+  </si>
+  <si>
+    <t>Dir brauchd mei Andword ned zu gfolln.</t>
+  </si>
+  <si>
+    <t>or eise my heart concealing it will break.</t>
+  </si>
+  <si>
+    <t>The Taming of the Shrew, Act 6, scene 3</t>
+  </si>
+  <si>
+    <t>Endweda sog ichs</t>
+  </si>
+  <si>
+    <t>oder mir zerfedzds die Brusd.</t>
+  </si>
+  <si>
+    <t>The grief that does not speak</t>
+  </si>
+  <si>
+    <t>knits up o-er wrought heart and bids it break.</t>
+  </si>
+  <si>
+    <t>Macbeth, Act 4, scene 3</t>
+  </si>
+  <si>
+    <t>Spuggs aus,</t>
+  </si>
+  <si>
+    <t>sonsd zerreißds dich.</t>
+  </si>
+  <si>
+    <t>Give every man thine ear, but few thy voice.</t>
+  </si>
+  <si>
+    <t>Horch jedm zu,</t>
+  </si>
+  <si>
+    <t>aba loss dia ned vo jedm wos sogn.</t>
+  </si>
+  <si>
+    <t>When I think, Imust speak.</t>
+  </si>
+  <si>
+    <t>Bei mir lichd des Geherrn auf der Zunga.</t>
+  </si>
+  <si>
+    <t>Werrder flieng</t>
+  </si>
+  <si>
+    <t>Hamlet, Act3, scene 3</t>
+  </si>
+  <si>
+    <t>they are seldome spent in vaine. Richard II., Act 2, scene 1</t>
+  </si>
+  <si>
+    <t>Da Deifl</t>
+  </si>
+  <si>
+    <t>schlachd aa die Bibl</t>
+  </si>
+  <si>
+    <t>fia sich aus.</t>
+  </si>
+  <si>
+    <t>King Lear, Act 3, scene 2</t>
+  </si>
+  <si>
+    <t>Vill Wizla</t>
+  </si>
+  <si>
+    <t>hom an wohrn Kern.</t>
+  </si>
+  <si>
+    <t>It is a kind of good deed to say well;</t>
+  </si>
+  <si>
+    <t>S is gud, wos Guds zu sogn</t>
+  </si>
+  <si>
+    <t>aba musd a wos Guds do.</t>
+  </si>
+  <si>
+    <t>Gschissn und gredd</t>
+  </si>
+  <si>
+    <t>is schnell a Haufn.</t>
+  </si>
+  <si>
+    <t>Ma sterbd bloß a mol.</t>
+  </si>
+  <si>
+    <t>Loss mich so, wie ich bin,</t>
+  </si>
+  <si>
+    <t>und nergl ned an mia rum.</t>
+  </si>
+  <si>
+    <t>Soll ich so weidamachn?</t>
+  </si>
+  <si>
+    <t>Oda ned?</t>
+  </si>
+  <si>
+    <t>Des is die Froch.</t>
   </si>
 </sst>
 </file>
@@ -4057,12 +4489,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4379,16 +4814,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A074AB5-1EF9-487A-9681-DA97360C2616}">
-  <dimension ref="A1:Q291"/>
+  <dimension ref="A1:Q344"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A291"/>
+      <selection activeCell="A342" sqref="A1:A344"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.5546875" style="2"/>
-    <col min="2" max="3" width="11.5546875" style="1"/>
+    <col min="2" max="2" width="11.5546875" style="1"/>
+    <col min="3" max="3" width="11.5546875" style="2"/>
     <col min="4" max="4" width="37.109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="21.44140625" style="1" customWidth="1"/>
     <col min="6" max="6" width="22.88671875" style="1" customWidth="1"/>
@@ -4409,7 +4845,7 @@
       <c r="B1" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C1" s="1">
+      <c r="C1" s="2">
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -4438,7 +4874,7 @@
       <c r="B2" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="2">
         <v>2</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -4470,7 +4906,7 @@
       <c r="B3" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="2">
         <v>3</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -4496,7 +4932,7 @@
       <c r="B4" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="2">
         <v>4</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -4537,7 +4973,7 @@
       <c r="B5" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="2">
         <v>5</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -4572,7 +5008,7 @@
       <c r="B6" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="2">
         <v>6</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -4601,7 +5037,7 @@
       <c r="B7" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="2">
         <v>7</v>
       </c>
       <c r="D7" s="1" t="s">
@@ -4636,7 +5072,7 @@
       <c r="B8" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="2">
         <v>8</v>
       </c>
       <c r="D8" s="1" t="s">
@@ -4671,7 +5107,7 @@
       <c r="B9" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="2">
         <v>9</v>
       </c>
       <c r="D9" s="1" t="s">
@@ -4706,7 +5142,7 @@
       <c r="B10" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="2">
         <v>10</v>
       </c>
       <c r="D10" s="1" t="s">
@@ -4735,7 +5171,7 @@
       <c r="B11" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="2">
         <v>11</v>
       </c>
       <c r="D11" s="1" t="s">
@@ -4776,7 +5212,7 @@
       <c r="B12" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="2">
         <v>12</v>
       </c>
       <c r="D12" s="1" t="s">
@@ -4802,7 +5238,7 @@
       <c r="B13" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="2">
         <v>13</v>
       </c>
       <c r="D13" s="1" t="s">
@@ -4834,7 +5270,7 @@
       <c r="B14" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="2">
         <v>14</v>
       </c>
       <c r="D14" s="1" t="s">
@@ -4863,7 +5299,7 @@
       <c r="B15" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="2">
         <v>15</v>
       </c>
       <c r="D15" s="1" t="s">
@@ -4901,7 +5337,7 @@
       <c r="B16" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="2">
         <v>16</v>
       </c>
       <c r="D16" s="1" t="s">
@@ -4930,7 +5366,7 @@
       <c r="B17" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="2">
         <v>17</v>
       </c>
       <c r="D17" s="1" t="s">
@@ -4959,7 +5395,7 @@
       <c r="B18" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="2">
         <v>18</v>
       </c>
       <c r="D18" s="1" t="s">
@@ -4985,7 +5421,7 @@
       <c r="B19" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="2">
         <v>19</v>
       </c>
       <c r="D19" s="1" t="s">
@@ -5008,7 +5444,7 @@
       <c r="B20" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="2">
         <v>20</v>
       </c>
       <c r="D20" s="1" t="s">
@@ -5037,7 +5473,7 @@
       <c r="B21" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="2">
         <v>21</v>
       </c>
       <c r="D21" s="1" t="s">
@@ -5063,7 +5499,7 @@
       <c r="B22" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="2">
         <v>22</v>
       </c>
       <c r="D22" s="1" t="s">
@@ -5098,7 +5534,7 @@
       <c r="B23" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23" s="2">
         <v>23</v>
       </c>
       <c r="D23" s="1" t="s">
@@ -5124,7 +5560,7 @@
       <c r="B24" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24" s="2">
         <v>24</v>
       </c>
       <c r="D24" s="1" t="s">
@@ -5150,7 +5586,7 @@
       <c r="B25" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25" s="2">
         <v>25</v>
       </c>
       <c r="D25" s="1" t="s">
@@ -5182,7 +5618,7 @@
       <c r="B26" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26" s="2">
         <v>26</v>
       </c>
       <c r="D26" s="1" t="s">
@@ -5220,7 +5656,7 @@
       <c r="B27" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27" s="2">
         <v>27</v>
       </c>
       <c r="D27" s="1" t="s">
@@ -5252,7 +5688,7 @@
       <c r="B28" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28" s="2">
         <v>28</v>
       </c>
       <c r="D28" s="1" t="s">
@@ -5281,7 +5717,7 @@
       <c r="B29" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29" s="2">
         <v>29</v>
       </c>
       <c r="D29" s="1" t="s">
@@ -5307,7 +5743,7 @@
       <c r="B30" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30" s="2">
         <v>30</v>
       </c>
       <c r="D30" s="1" t="s">
@@ -5339,7 +5775,7 @@
       <c r="B31" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C31" s="2">
         <v>31</v>
       </c>
       <c r="D31" s="1" t="s">
@@ -5368,7 +5804,7 @@
       <c r="B32" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C32" s="2">
         <v>32</v>
       </c>
       <c r="D32" s="1" t="s">
@@ -5403,7 +5839,7 @@
       <c r="B33" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C33" s="1">
+      <c r="C33" s="2">
         <v>33</v>
       </c>
       <c r="D33" s="1" t="s">
@@ -5432,7 +5868,7 @@
       <c r="B34" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C34" s="1">
+      <c r="C34" s="2">
         <v>34</v>
       </c>
       <c r="D34" s="1" t="s">
@@ -5467,7 +5903,7 @@
       <c r="B35" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C35" s="1">
+      <c r="C35" s="2">
         <v>35</v>
       </c>
       <c r="D35" s="1" t="s">
@@ -5508,7 +5944,7 @@
       <c r="B36" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C36" s="1">
+      <c r="C36" s="2">
         <v>36</v>
       </c>
       <c r="D36" s="1" t="s">
@@ -5543,7 +5979,7 @@
       <c r="B37" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C37" s="1">
+      <c r="C37" s="2">
         <v>37</v>
       </c>
       <c r="D37" s="1" t="s">
@@ -5575,7 +6011,7 @@
       <c r="B38" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C38" s="1">
+      <c r="C38" s="2">
         <v>38</v>
       </c>
       <c r="D38" s="1" t="s">
@@ -5601,7 +6037,7 @@
       <c r="B39" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C39" s="1">
+      <c r="C39" s="2">
         <v>39</v>
       </c>
       <c r="D39" s="1" t="s">
@@ -5639,7 +6075,7 @@
       <c r="B40" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C40" s="1">
+      <c r="C40" s="2">
         <v>40</v>
       </c>
       <c r="D40" s="1" t="s">
@@ -5674,7 +6110,7 @@
       <c r="B41" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C41" s="1">
+      <c r="C41" s="2">
         <v>41</v>
       </c>
       <c r="D41" s="1" t="s">
@@ -5703,7 +6139,7 @@
       <c r="B42" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C42" s="1">
+      <c r="C42" s="2">
         <v>42</v>
       </c>
       <c r="D42" s="1" t="s">
@@ -5732,7 +6168,7 @@
       <c r="B43" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C43" s="1">
+      <c r="C43" s="2">
         <v>43</v>
       </c>
       <c r="D43" s="1" t="s">
@@ -5758,7 +6194,7 @@
       <c r="B44" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C44" s="1">
+      <c r="C44" s="2">
         <v>44</v>
       </c>
       <c r="D44" s="1" t="s">
@@ -5787,7 +6223,7 @@
       <c r="B45" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C45" s="1">
+      <c r="C45" s="2">
         <v>45</v>
       </c>
       <c r="D45" s="1" t="s">
@@ -5819,7 +6255,7 @@
       <c r="B46" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C46" s="1">
+      <c r="C46" s="2">
         <v>46</v>
       </c>
       <c r="D46" s="1" t="s">
@@ -5848,7 +6284,7 @@
       <c r="B47" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C47" s="1">
+      <c r="C47" s="2">
         <v>47</v>
       </c>
       <c r="D47" s="1" t="s">
@@ -5877,7 +6313,7 @@
       <c r="B48" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="C48" s="1">
+      <c r="C48" s="2">
         <v>201</v>
       </c>
       <c r="D48" s="1" t="s">
@@ -5906,7 +6342,7 @@
       <c r="B49" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="C49" s="1">
+      <c r="C49" s="2">
         <v>202</v>
       </c>
       <c r="D49" s="1" t="s">
@@ -5935,7 +6371,7 @@
       <c r="B50" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="C50" s="1">
+      <c r="C50" s="2">
         <v>203</v>
       </c>
       <c r="D50" s="1" t="s">
@@ -5958,7 +6394,7 @@
       <c r="B51" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="C51" s="1">
+      <c r="C51" s="2">
         <v>204</v>
       </c>
       <c r="D51" s="1" t="s">
@@ -5987,7 +6423,7 @@
       <c r="B52" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="C52" s="1">
+      <c r="C52" s="2">
         <v>205</v>
       </c>
       <c r="D52" s="1" t="s">
@@ -6016,7 +6452,7 @@
       <c r="B53" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="C53" s="1">
+      <c r="C53" s="2">
         <v>206</v>
       </c>
       <c r="D53" s="1" t="s">
@@ -6042,7 +6478,7 @@
       <c r="B54" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="C54" s="1">
+      <c r="C54" s="2">
         <v>207</v>
       </c>
       <c r="D54" s="1" t="s">
@@ -6077,7 +6513,7 @@
       <c r="B55" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="C55" s="1">
+      <c r="C55" s="2">
         <v>208</v>
       </c>
       <c r="D55" s="1" t="s">
@@ -6109,7 +6545,7 @@
       <c r="B56" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="C56" s="1">
+      <c r="C56" s="2">
         <v>209</v>
       </c>
       <c r="D56" s="1" t="s">
@@ -6141,7 +6577,7 @@
       <c r="B57" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="C57" s="1">
+      <c r="C57" s="2">
         <v>210</v>
       </c>
       <c r="D57" s="1" t="s">
@@ -6164,7 +6600,7 @@
       <c r="B58" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="C58" s="1">
+      <c r="C58" s="2">
         <v>211</v>
       </c>
       <c r="D58" s="1" t="s">
@@ -6190,7 +6626,7 @@
       <c r="B59" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="C59" s="1">
+      <c r="C59" s="2">
         <v>212</v>
       </c>
       <c r="D59" s="1" t="s">
@@ -6222,7 +6658,7 @@
       <c r="B60" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="C60" s="1">
+      <c r="C60" s="2">
         <v>213</v>
       </c>
       <c r="D60" s="1" t="s">
@@ -6248,7 +6684,7 @@
       <c r="B61" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="C61" s="1">
+      <c r="C61" s="2">
         <v>214</v>
       </c>
       <c r="D61" s="1" t="s">
@@ -6280,7 +6716,7 @@
       <c r="B62" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="C62" s="1">
+      <c r="C62" s="2">
         <v>215</v>
       </c>
       <c r="D62" s="1" t="s">
@@ -6318,7 +6754,7 @@
       <c r="B63" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="C63" s="1">
+      <c r="C63" s="2">
         <v>216</v>
       </c>
       <c r="D63" s="1" t="s">
@@ -6344,7 +6780,7 @@
       <c r="B64" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="C64" s="1">
+      <c r="C64" s="2">
         <v>217</v>
       </c>
       <c r="D64" s="1" t="s">
@@ -6364,7 +6800,7 @@
       <c r="B65" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="C65" s="1">
+      <c r="C65" s="2">
         <v>218</v>
       </c>
       <c r="D65" s="1" t="s">
@@ -6390,7 +6826,7 @@
       <c r="B66" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="C66" s="1">
+      <c r="C66" s="2">
         <v>219</v>
       </c>
       <c r="D66" s="1" t="s">
@@ -6413,7 +6849,7 @@
       <c r="B67" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="C67" s="1">
+      <c r="C67" s="2">
         <v>220</v>
       </c>
       <c r="D67" s="1" t="s">
@@ -6439,7 +6875,7 @@
       <c r="B68" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="C68" s="1">
+      <c r="C68" s="2">
         <v>221</v>
       </c>
       <c r="D68" s="1" t="s">
@@ -6468,7 +6904,7 @@
       <c r="B69" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="C69" s="1">
+      <c r="C69" s="2">
         <v>222</v>
       </c>
       <c r="D69" s="1" t="s">
@@ -6497,7 +6933,7 @@
       <c r="B70" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="C70" s="1">
+      <c r="C70" s="2">
         <v>223</v>
       </c>
       <c r="D70" s="1" t="s">
@@ -6520,7 +6956,7 @@
       <c r="B71" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="C71" s="1">
+      <c r="C71" s="2">
         <v>224</v>
       </c>
       <c r="D71" s="1" t="s">
@@ -6546,7 +6982,7 @@
       <c r="B72" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="C72" s="1">
+      <c r="C72" s="2">
         <v>225</v>
       </c>
       <c r="D72" s="1" t="s">
@@ -6572,7 +7008,7 @@
       <c r="B73" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="C73" s="1">
+      <c r="C73" s="2">
         <v>226</v>
       </c>
       <c r="D73" s="1" t="s">
@@ -6607,7 +7043,7 @@
       <c r="B74" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="C74" s="1">
+      <c r="C74" s="2">
         <v>227</v>
       </c>
       <c r="D74" s="1" t="s">
@@ -6630,7 +7066,7 @@
       <c r="B75" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="C75" s="1">
+      <c r="C75" s="2">
         <v>228</v>
       </c>
       <c r="D75" s="1" t="s">
@@ -6659,7 +7095,7 @@
       <c r="B76" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="C76" s="1">
+      <c r="C76" s="2">
         <v>229</v>
       </c>
       <c r="D76" s="1" t="s">
@@ -6682,7 +7118,7 @@
       <c r="B77" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="C77" s="1">
+      <c r="C77" s="2">
         <v>230</v>
       </c>
       <c r="D77" s="1" t="s">
@@ -6708,7 +7144,7 @@
       <c r="B78" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="C78" s="1">
+      <c r="C78" s="2">
         <v>231</v>
       </c>
       <c r="D78" s="1" t="s">
@@ -6731,7 +7167,7 @@
       <c r="B79" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="C79" s="1">
+      <c r="C79" s="2">
         <v>232</v>
       </c>
       <c r="D79" s="1" t="s">
@@ -6757,7 +7193,7 @@
       <c r="B80" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="C80" s="1">
+      <c r="C80" s="2">
         <v>233</v>
       </c>
       <c r="D80" s="1" t="s">
@@ -6783,7 +7219,7 @@
       <c r="B81" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="C81" s="1">
+      <c r="C81" s="2">
         <v>234</v>
       </c>
       <c r="D81" s="1" t="s">
@@ -6812,7 +7248,7 @@
       <c r="B82" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="C82" s="1">
+      <c r="C82" s="2">
         <v>235</v>
       </c>
       <c r="D82" s="1" t="s">
@@ -6841,7 +7277,7 @@
       <c r="B83" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="C83" s="1">
+      <c r="C83" s="2">
         <v>236</v>
       </c>
       <c r="D83" s="1" t="s">
@@ -6876,7 +7312,7 @@
       <c r="B84" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="C84" s="1">
+      <c r="C84" s="2">
         <v>237</v>
       </c>
       <c r="D84" s="1" t="s">
@@ -6908,7 +7344,7 @@
       <c r="B85" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="C85" s="1">
+      <c r="C85" s="2">
         <v>238</v>
       </c>
       <c r="D85" s="1" t="s">
@@ -6934,7 +7370,7 @@
       <c r="B86" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="C86" s="1">
+      <c r="C86" s="2">
         <v>239</v>
       </c>
       <c r="D86" s="1" t="s">
@@ -6966,7 +7402,7 @@
       <c r="B87" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="C87" s="1">
+      <c r="C87" s="2">
         <v>240</v>
       </c>
       <c r="D87" s="1" t="s">
@@ -6992,7 +7428,7 @@
       <c r="B88" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="C88" s="1">
+      <c r="C88" s="2">
         <v>241</v>
       </c>
       <c r="D88" s="1" t="s">
@@ -7021,7 +7457,7 @@
       <c r="B89" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="C89" s="1">
+      <c r="C89" s="2">
         <v>242</v>
       </c>
       <c r="D89" s="1" t="s">
@@ -7047,7 +7483,7 @@
       <c r="B90" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="C90" s="1">
+      <c r="C90" s="2">
         <v>243</v>
       </c>
       <c r="D90" s="1" t="s">
@@ -7073,7 +7509,7 @@
       <c r="B91" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="C91" s="1">
+      <c r="C91" s="2">
         <v>244</v>
       </c>
       <c r="D91" s="1" t="s">
@@ -7099,7 +7535,7 @@
       <c r="B92" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="C92" s="1">
+      <c r="C92" s="2">
         <v>245</v>
       </c>
       <c r="D92" s="1" t="s">
@@ -7128,7 +7564,7 @@
       <c r="B93" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="C93" s="1">
+      <c r="C93" s="2">
         <v>246</v>
       </c>
       <c r="D93" s="1" t="s">
@@ -7154,7 +7590,7 @@
       <c r="B94" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="C94" s="1">
+      <c r="C94" s="2">
         <v>247</v>
       </c>
       <c r="D94" s="1" t="s">
@@ -7177,7 +7613,7 @@
       <c r="B95" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="C95" s="1">
+      <c r="C95" s="2">
         <v>248</v>
       </c>
       <c r="D95" s="1" t="s">
@@ -7209,7 +7645,7 @@
       <c r="B96" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="C96" s="1">
+      <c r="C96" s="2">
         <v>701</v>
       </c>
       <c r="D96" s="1" t="s">
@@ -7235,7 +7671,7 @@
       <c r="B97" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="C97" s="1">
+      <c r="C97" s="2">
         <v>702</v>
       </c>
       <c r="D97" s="1" t="s">
@@ -7258,7 +7694,7 @@
       <c r="B98" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="C98" s="1">
+      <c r="C98" s="2">
         <v>703</v>
       </c>
       <c r="D98" s="1" t="s">
@@ -7284,7 +7720,7 @@
       <c r="B99" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="C99" s="1">
+      <c r="C99" s="2">
         <v>704</v>
       </c>
       <c r="D99" s="1" t="s">
@@ -7319,7 +7755,7 @@
       <c r="B100" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="C100" s="1">
+      <c r="C100" s="2">
         <v>705</v>
       </c>
       <c r="D100" s="1" t="s">
@@ -7351,7 +7787,7 @@
       <c r="B101" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="C101" s="1">
+      <c r="C101" s="2">
         <v>706</v>
       </c>
       <c r="D101" s="1" t="s">
@@ -7377,7 +7813,7 @@
       <c r="B102" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="C102" s="1">
+      <c r="C102" s="2">
         <v>707</v>
       </c>
       <c r="D102" s="1" t="s">
@@ -7406,7 +7842,7 @@
       <c r="B103" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="C103" s="1">
+      <c r="C103" s="2">
         <v>708</v>
       </c>
       <c r="D103" s="1" t="s">
@@ -7438,7 +7874,7 @@
       <c r="B104" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="C104" s="1">
+      <c r="C104" s="2">
         <v>709</v>
       </c>
       <c r="D104" s="1" t="s">
@@ -7464,7 +7900,7 @@
       <c r="B105" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="C105" s="1">
+      <c r="C105" s="2">
         <v>710</v>
       </c>
       <c r="D105" s="1" t="s">
@@ -7490,7 +7926,7 @@
       <c r="B106" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="C106" s="1">
+      <c r="C106" s="2">
         <v>711</v>
       </c>
       <c r="D106" s="1" t="s">
@@ -7522,7 +7958,7 @@
       <c r="B107" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="C107" s="1">
+      <c r="C107" s="2">
         <v>712</v>
       </c>
       <c r="D107" s="1" t="s">
@@ -7551,7 +7987,7 @@
       <c r="B108" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="C108" s="1">
+      <c r="C108" s="2">
         <v>713</v>
       </c>
       <c r="D108" s="1" t="s">
@@ -7583,7 +8019,7 @@
       <c r="B109" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="C109" s="1">
+      <c r="C109" s="2">
         <v>714</v>
       </c>
       <c r="D109" s="1" t="s">
@@ -7612,7 +8048,7 @@
       <c r="B110" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="C110" s="1">
+      <c r="C110" s="2">
         <v>715</v>
       </c>
       <c r="D110" s="1" t="s">
@@ -7641,7 +8077,7 @@
       <c r="B111" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="C111" s="1">
+      <c r="C111" s="2">
         <v>716</v>
       </c>
       <c r="D111" s="1" t="s">
@@ -7676,7 +8112,7 @@
       <c r="B112" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="C112" s="1">
+      <c r="C112" s="2">
         <v>717</v>
       </c>
       <c r="D112" s="1" t="s">
@@ -7705,7 +8141,7 @@
       <c r="B113" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="C113" s="1">
+      <c r="C113" s="2">
         <v>718</v>
       </c>
       <c r="D113" s="1" t="s">
@@ -7737,7 +8173,7 @@
       <c r="B114" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="C114" s="1">
+      <c r="C114" s="2">
         <v>719</v>
       </c>
       <c r="D114" s="1" t="s">
@@ -7769,7 +8205,7 @@
       <c r="B115" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="C115" s="1">
+      <c r="C115" s="2">
         <v>720</v>
       </c>
       <c r="D115" s="1" t="s">
@@ -7795,7 +8231,7 @@
       <c r="B116" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="C116" s="1">
+      <c r="C116" s="2">
         <v>721</v>
       </c>
       <c r="D116" s="1" t="s">
@@ -7821,7 +8257,7 @@
       <c r="B117" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="C117" s="1">
+      <c r="C117" s="2">
         <v>722</v>
       </c>
       <c r="D117" s="1" t="s">
@@ -7853,7 +8289,7 @@
       <c r="B118" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="C118" s="1">
+      <c r="C118" s="2">
         <v>723</v>
       </c>
       <c r="D118" s="1" t="s">
@@ -7879,7 +8315,7 @@
       <c r="B119" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="C119" s="1">
+      <c r="C119" s="2">
         <v>724</v>
       </c>
       <c r="D119" s="1" t="s">
@@ -7905,7 +8341,7 @@
       <c r="B120" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="C120" s="1">
+      <c r="C120" s="2">
         <v>725</v>
       </c>
       <c r="D120" s="1" t="s">
@@ -7931,7 +8367,7 @@
       <c r="B121" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="C121" s="1">
+      <c r="C121" s="2">
         <v>726</v>
       </c>
       <c r="D121" s="1" t="s">
@@ -7960,7 +8396,7 @@
       <c r="B122" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="C122" s="1">
+      <c r="C122" s="2">
         <v>727</v>
       </c>
       <c r="D122" s="1" t="s">
@@ -7998,7 +8434,7 @@
       <c r="B123" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="C123" s="1">
+      <c r="C123" s="2">
         <v>728</v>
       </c>
       <c r="D123" s="1" t="s">
@@ -8024,7 +8460,7 @@
       <c r="B124" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="C124" s="1">
+      <c r="C124" s="2">
         <v>729</v>
       </c>
       <c r="D124" s="1" t="s">
@@ -8053,7 +8489,7 @@
       <c r="B125" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="C125" s="1">
+      <c r="C125" s="2">
         <v>730</v>
       </c>
       <c r="D125" s="1" t="s">
@@ -8079,7 +8515,7 @@
       <c r="B126" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="C126" s="1">
+      <c r="C126" s="2">
         <v>731</v>
       </c>
       <c r="D126" s="1" t="s">
@@ -8114,7 +8550,7 @@
       <c r="B127" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="C127" s="1">
+      <c r="C127" s="2">
         <v>732</v>
       </c>
       <c r="D127" s="1" t="s">
@@ -8143,7 +8579,7 @@
       <c r="B128" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="C128" s="1">
+      <c r="C128" s="2">
         <v>733</v>
       </c>
       <c r="D128" s="1" t="s">
@@ -8172,7 +8608,7 @@
       <c r="B129" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="C129" s="1">
+      <c r="C129" s="2">
         <v>734</v>
       </c>
       <c r="D129" s="1" t="s">
@@ -8201,7 +8637,7 @@
       <c r="B130" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="C130" s="1">
+      <c r="C130" s="2">
         <v>735</v>
       </c>
       <c r="D130" s="1" t="s">
@@ -8230,7 +8666,7 @@
       <c r="B131" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="C131" s="1">
+      <c r="C131" s="2">
         <v>736</v>
       </c>
       <c r="D131" s="1" t="s">
@@ -8259,7 +8695,7 @@
       <c r="B132" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="C132" s="1">
+      <c r="C132" s="2">
         <v>737</v>
       </c>
       <c r="D132" s="1" t="s">
@@ -8291,7 +8727,7 @@
       <c r="B133" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="C133" s="1">
+      <c r="C133" s="2">
         <v>738</v>
       </c>
       <c r="D133" s="1" t="s">
@@ -8320,7 +8756,7 @@
       <c r="B134" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="C134" s="1">
+      <c r="C134" s="2">
         <v>739</v>
       </c>
       <c r="D134" s="1" t="s">
@@ -8346,7 +8782,7 @@
       <c r="B135" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="C135" s="1">
+      <c r="C135" s="2">
         <v>740</v>
       </c>
       <c r="D135" s="1" t="s">
@@ -8381,7 +8817,7 @@
       <c r="B136" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="C136" s="1">
+      <c r="C136" s="2">
         <v>741</v>
       </c>
       <c r="D136" s="1" t="s">
@@ -8407,7 +8843,7 @@
       <c r="B137" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="C137" s="1">
+      <c r="C137" s="2">
         <v>742</v>
       </c>
       <c r="D137" s="1" t="s">
@@ -8430,7 +8866,7 @@
       <c r="B138" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="C138" s="1">
+      <c r="C138" s="2">
         <v>743</v>
       </c>
       <c r="D138" s="1" t="s">
@@ -8459,7 +8895,7 @@
       <c r="B139" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="C139" s="1">
+      <c r="C139" s="2">
         <v>744</v>
       </c>
       <c r="D139" s="1" t="s">
@@ -8488,7 +8924,7 @@
       <c r="B140" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="C140" s="1">
+      <c r="C140" s="2">
         <v>745</v>
       </c>
       <c r="D140" s="1" t="s">
@@ -8517,7 +8953,7 @@
       <c r="B141" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="C141" s="1">
+      <c r="C141" s="2">
         <v>746</v>
       </c>
       <c r="D141" s="1" t="s">
@@ -8543,7 +8979,7 @@
       <c r="B142" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="C142" s="1">
+      <c r="C142" s="2">
         <v>747</v>
       </c>
       <c r="D142" s="1" t="s">
@@ -8569,7 +9005,7 @@
       <c r="B143" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="C143" s="1">
+      <c r="C143" s="2">
         <v>748</v>
       </c>
       <c r="D143" s="1" t="s">
@@ -8595,7 +9031,7 @@
       <c r="B144" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="C144" s="1">
+      <c r="C144" s="2">
         <v>749</v>
       </c>
       <c r="D144" s="1" t="s">
@@ -8615,7 +9051,7 @@
       <c r="B145" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="C145" s="1">
+      <c r="C145" s="2">
         <v>750</v>
       </c>
       <c r="D145" s="1" t="s">
@@ -8638,7 +9074,7 @@
       <c r="B146" s="1" t="s">
         <v>678</v>
       </c>
-      <c r="C146" s="1">
+      <c r="C146" s="2">
         <v>401</v>
       </c>
       <c r="D146" s="1" t="s">
@@ -8667,7 +9103,7 @@
       <c r="B147" s="1" t="s">
         <v>678</v>
       </c>
-      <c r="C147" s="1">
+      <c r="C147" s="2">
         <v>402</v>
       </c>
       <c r="D147" s="1" t="s">
@@ -8693,7 +9129,7 @@
       <c r="B148" s="1" t="s">
         <v>678</v>
       </c>
-      <c r="C148" s="1">
+      <c r="C148" s="2">
         <v>403</v>
       </c>
       <c r="D148" s="1" t="s">
@@ -8725,7 +9161,7 @@
       <c r="B149" s="1" t="s">
         <v>678</v>
       </c>
-      <c r="C149" s="1">
+      <c r="C149" s="2">
         <v>404</v>
       </c>
       <c r="D149" s="1" t="s">
@@ -8763,7 +9199,7 @@
       <c r="B150" s="1" t="s">
         <v>678</v>
       </c>
-      <c r="C150" s="1">
+      <c r="C150" s="2">
         <v>405</v>
       </c>
       <c r="D150" s="1" t="s">
@@ -8801,7 +9237,7 @@
       <c r="B151" s="1" t="s">
         <v>678</v>
       </c>
-      <c r="C151" s="1">
+      <c r="C151" s="2">
         <v>406</v>
       </c>
       <c r="D151" s="1" t="s">
@@ -8830,7 +9266,7 @@
       <c r="B152" s="1" t="s">
         <v>678</v>
       </c>
-      <c r="C152" s="1">
+      <c r="C152" s="2">
         <v>407</v>
       </c>
       <c r="D152" s="1" t="s">
@@ -8865,7 +9301,7 @@
       <c r="B153" s="1" t="s">
         <v>678</v>
       </c>
-      <c r="C153" s="1">
+      <c r="C153" s="2">
         <v>408</v>
       </c>
       <c r="D153" s="1" t="s">
@@ -8897,7 +9333,7 @@
       <c r="B154" s="1" t="s">
         <v>678</v>
       </c>
-      <c r="C154" s="1">
+      <c r="C154" s="2">
         <v>409</v>
       </c>
       <c r="D154" s="1" t="s">
@@ -8938,7 +9374,7 @@
       <c r="B155" s="1" t="s">
         <v>678</v>
       </c>
-      <c r="C155" s="1">
+      <c r="C155" s="2">
         <v>410</v>
       </c>
       <c r="D155" s="1" t="s">
@@ -8967,7 +9403,7 @@
       <c r="B156" s="1" t="s">
         <v>678</v>
       </c>
-      <c r="C156" s="1">
+      <c r="C156" s="2">
         <v>411</v>
       </c>
       <c r="D156" s="1" t="s">
@@ -8996,7 +9432,7 @@
       <c r="B157" s="1" t="s">
         <v>678</v>
       </c>
-      <c r="C157" s="1">
+      <c r="C157" s="2">
         <v>412</v>
       </c>
       <c r="D157" s="1" t="s">
@@ -9028,7 +9464,7 @@
       <c r="B158" s="1" t="s">
         <v>678</v>
       </c>
-      <c r="C158" s="1">
+      <c r="C158" s="2">
         <v>413</v>
       </c>
       <c r="D158" s="1" t="s">
@@ -9066,7 +9502,7 @@
       <c r="B159" s="1" t="s">
         <v>678</v>
       </c>
-      <c r="C159" s="1">
+      <c r="C159" s="2">
         <v>414</v>
       </c>
       <c r="D159" s="1" t="s">
@@ -9104,7 +9540,7 @@
       <c r="B160" s="1" t="s">
         <v>678</v>
       </c>
-      <c r="C160" s="1">
+      <c r="C160" s="2">
         <v>415</v>
       </c>
       <c r="D160" s="1" t="s">
@@ -9130,7 +9566,7 @@
       <c r="B161" s="1" t="s">
         <v>678</v>
       </c>
-      <c r="C161" s="1">
+      <c r="C161" s="2">
         <v>416</v>
       </c>
       <c r="D161" s="1" t="s">
@@ -9162,7 +9598,7 @@
       <c r="B162" s="1" t="s">
         <v>678</v>
       </c>
-      <c r="C162" s="1">
+      <c r="C162" s="2">
         <v>417</v>
       </c>
       <c r="D162" s="1" t="s">
@@ -9185,7 +9621,7 @@
       <c r="B163" s="1" t="s">
         <v>678</v>
       </c>
-      <c r="C163" s="1">
+      <c r="C163" s="2">
         <v>418</v>
       </c>
       <c r="D163" s="1" t="s">
@@ -9217,7 +9653,7 @@
       <c r="B164" s="1" t="s">
         <v>678</v>
       </c>
-      <c r="C164" s="1">
+      <c r="C164" s="2">
         <v>419</v>
       </c>
       <c r="D164" s="1" t="s">
@@ -9246,7 +9682,7 @@
       <c r="B165" s="1" t="s">
         <v>678</v>
       </c>
-      <c r="C165" s="1">
+      <c r="C165" s="2">
         <v>420</v>
       </c>
       <c r="D165" s="1" t="s">
@@ -9278,7 +9714,7 @@
       <c r="B166" s="1" t="s">
         <v>678</v>
       </c>
-      <c r="C166" s="1">
+      <c r="C166" s="2">
         <v>421</v>
       </c>
       <c r="D166" s="1" t="s">
@@ -9307,7 +9743,7 @@
       <c r="B167" s="1" t="s">
         <v>678</v>
       </c>
-      <c r="C167" s="1">
+      <c r="C167" s="2">
         <v>422</v>
       </c>
       <c r="D167" s="1" t="s">
@@ -9339,7 +9775,7 @@
       <c r="B168" s="1" t="s">
         <v>678</v>
       </c>
-      <c r="C168" s="1">
+      <c r="C168" s="2">
         <v>423</v>
       </c>
       <c r="D168" s="1" t="s">
@@ -9365,7 +9801,7 @@
       <c r="B169" s="1" t="s">
         <v>678</v>
       </c>
-      <c r="C169" s="1">
+      <c r="C169" s="2">
         <v>424</v>
       </c>
       <c r="D169" s="1" t="s">
@@ -9391,7 +9827,7 @@
       <c r="B170" s="1" t="s">
         <v>678</v>
       </c>
-      <c r="C170" s="1">
+      <c r="C170" s="2">
         <v>425</v>
       </c>
       <c r="D170" s="1" t="s">
@@ -9429,7 +9865,7 @@
       <c r="B171" s="1" t="s">
         <v>678</v>
       </c>
-      <c r="C171" s="1">
+      <c r="C171" s="2">
         <v>426</v>
       </c>
       <c r="D171" s="1" t="s">
@@ -9458,7 +9894,7 @@
       <c r="B172" s="1" t="s">
         <v>678</v>
       </c>
-      <c r="C172" s="1">
+      <c r="C172" s="2">
         <v>427</v>
       </c>
       <c r="D172" s="1" t="s">
@@ -9487,7 +9923,7 @@
       <c r="B173" s="1" t="s">
         <v>678</v>
       </c>
-      <c r="C173" s="1">
+      <c r="C173" s="2">
         <v>428</v>
       </c>
       <c r="D173" s="1" t="s">
@@ -9516,7 +9952,7 @@
       <c r="B174" s="1" t="s">
         <v>678</v>
       </c>
-      <c r="C174" s="1">
+      <c r="C174" s="2">
         <v>429</v>
       </c>
       <c r="D174" s="1" t="s">
@@ -9542,7 +9978,7 @@
       <c r="B175" s="1" t="s">
         <v>678</v>
       </c>
-      <c r="C175" s="1">
+      <c r="C175" s="2">
         <v>430</v>
       </c>
       <c r="D175" s="1" t="s">
@@ -9577,7 +10013,7 @@
       <c r="B176" s="1" t="s">
         <v>678</v>
       </c>
-      <c r="C176" s="1">
+      <c r="C176" s="2">
         <v>431</v>
       </c>
       <c r="D176" s="1" t="s">
@@ -9609,7 +10045,7 @@
       <c r="B177" s="1" t="s">
         <v>678</v>
       </c>
-      <c r="C177" s="1">
+      <c r="C177" s="2">
         <v>432</v>
       </c>
       <c r="D177" s="1" t="s">
@@ -9641,7 +10077,7 @@
       <c r="B178" s="1" t="s">
         <v>678</v>
       </c>
-      <c r="C178" s="1">
+      <c r="C178" s="2">
         <v>433</v>
       </c>
       <c r="D178" s="1" t="s">
@@ -9667,7 +10103,7 @@
       <c r="B179" s="1" t="s">
         <v>678</v>
       </c>
-      <c r="C179" s="1">
+      <c r="C179" s="2">
         <v>434</v>
       </c>
       <c r="D179" s="1" t="s">
@@ -9705,7 +10141,7 @@
       <c r="B180" s="1" t="s">
         <v>678</v>
       </c>
-      <c r="C180" s="1">
+      <c r="C180" s="2">
         <v>435</v>
       </c>
       <c r="D180" s="1" t="s">
@@ -9743,7 +10179,7 @@
       <c r="B181" s="1" t="s">
         <v>678</v>
       </c>
-      <c r="C181" s="1">
+      <c r="C181" s="2">
         <v>436</v>
       </c>
       <c r="D181" s="1" t="s">
@@ -9775,7 +10211,7 @@
       <c r="B182" s="1" t="s">
         <v>678</v>
       </c>
-      <c r="C182" s="1">
+      <c r="C182" s="2">
         <v>437</v>
       </c>
       <c r="D182" s="1" t="s">
@@ -9810,7 +10246,7 @@
       <c r="B183" s="1" t="s">
         <v>678</v>
       </c>
-      <c r="C183" s="1">
+      <c r="C183" s="2">
         <v>438</v>
       </c>
       <c r="D183" s="1" t="s">
@@ -9836,7 +10272,7 @@
       <c r="B184" s="1" t="s">
         <v>678</v>
       </c>
-      <c r="C184" s="1">
+      <c r="C184" s="2">
         <v>439</v>
       </c>
       <c r="D184" s="1" t="s">
@@ -9874,7 +10310,7 @@
       <c r="B185" s="1" t="s">
         <v>678</v>
       </c>
-      <c r="C185" s="1">
+      <c r="C185" s="2">
         <v>440</v>
       </c>
       <c r="D185" s="1" t="s">
@@ -9903,7 +10339,7 @@
       <c r="B186" s="1" t="s">
         <v>678</v>
       </c>
-      <c r="C186" s="1">
+      <c r="C186" s="2">
         <v>441</v>
       </c>
       <c r="D186" s="1" t="s">
@@ -9932,7 +10368,7 @@
       <c r="B187" s="1" t="s">
         <v>678</v>
       </c>
-      <c r="C187" s="1">
+      <c r="C187" s="2">
         <v>442</v>
       </c>
       <c r="D187" s="1" t="s">
@@ -9961,7 +10397,7 @@
       <c r="B188" s="1" t="s">
         <v>678</v>
       </c>
-      <c r="C188" s="1">
+      <c r="C188" s="2">
         <v>443</v>
       </c>
       <c r="D188" s="1" t="s">
@@ -9993,7 +10429,7 @@
       <c r="B189" s="1" t="s">
         <v>678</v>
       </c>
-      <c r="C189" s="1">
+      <c r="C189" s="2">
         <v>444</v>
       </c>
       <c r="D189" s="1" t="s">
@@ -10022,7 +10458,7 @@
       <c r="B190" s="1" t="s">
         <v>678</v>
       </c>
-      <c r="C190" s="1">
+      <c r="C190" s="2">
         <v>445</v>
       </c>
       <c r="D190" s="1" t="s">
@@ -10048,7 +10484,7 @@
       <c r="B191" s="1" t="s">
         <v>678</v>
       </c>
-      <c r="C191" s="1">
+      <c r="C191" s="2">
         <v>446</v>
       </c>
       <c r="D191" s="1" t="s">
@@ -10074,7 +10510,7 @@
       <c r="B192" s="1" t="s">
         <v>678</v>
       </c>
-      <c r="C192" s="1">
+      <c r="C192" s="2">
         <v>447</v>
       </c>
       <c r="D192" s="1" t="s">
@@ -10106,7 +10542,7 @@
       <c r="B193" s="1" t="s">
         <v>849</v>
       </c>
-      <c r="C193" s="1">
+      <c r="C193" s="2">
         <v>101</v>
       </c>
       <c r="D193" s="1" t="s">
@@ -10138,7 +10574,7 @@
       <c r="B194" s="1" t="s">
         <v>849</v>
       </c>
-      <c r="C194" s="1">
+      <c r="C194" s="2">
         <v>102</v>
       </c>
       <c r="D194" s="1" t="s">
@@ -10173,7 +10609,7 @@
       <c r="B195" s="1" t="s">
         <v>849</v>
       </c>
-      <c r="C195" s="1">
+      <c r="C195" s="2">
         <v>103</v>
       </c>
       <c r="D195" s="1" t="s">
@@ -10199,7 +10635,7 @@
       <c r="B196" s="1" t="s">
         <v>849</v>
       </c>
-      <c r="C196" s="1">
+      <c r="C196" s="2">
         <v>104</v>
       </c>
       <c r="D196" s="1" t="s">
@@ -10240,7 +10676,7 @@
       <c r="B197" s="1" t="s">
         <v>849</v>
       </c>
-      <c r="C197" s="1">
+      <c r="C197" s="2">
         <v>105</v>
       </c>
       <c r="D197" s="1" t="s">
@@ -10284,7 +10720,7 @@
       <c r="B198" s="1" t="s">
         <v>849</v>
       </c>
-      <c r="C198" s="1">
+      <c r="C198" s="2">
         <v>106</v>
       </c>
       <c r="D198" s="1" t="s">
@@ -10313,7 +10749,7 @@
       <c r="B199" s="1" t="s">
         <v>849</v>
       </c>
-      <c r="C199" s="1">
+      <c r="C199" s="2">
         <v>107</v>
       </c>
       <c r="D199" s="1" t="s">
@@ -10351,7 +10787,7 @@
       <c r="B200" s="1" t="s">
         <v>849</v>
       </c>
-      <c r="C200" s="1">
+      <c r="C200" s="2">
         <v>108</v>
       </c>
       <c r="D200" s="1" t="s">
@@ -10392,7 +10828,7 @@
       <c r="B201" s="1" t="s">
         <v>849</v>
       </c>
-      <c r="C201" s="1">
+      <c r="C201" s="2">
         <v>109</v>
       </c>
       <c r="D201" s="1" t="s">
@@ -10430,7 +10866,7 @@
       <c r="B202" s="1" t="s">
         <v>849</v>
       </c>
-      <c r="C202" s="1">
+      <c r="C202" s="2">
         <v>110</v>
       </c>
       <c r="D202" s="1" t="s">
@@ -10480,7 +10916,7 @@
       <c r="B203" s="1" t="s">
         <v>849</v>
       </c>
-      <c r="C203" s="1">
+      <c r="C203" s="2">
         <v>111</v>
       </c>
       <c r="D203" s="1" t="s">
@@ -10515,7 +10951,7 @@
       <c r="B204" s="1" t="s">
         <v>849</v>
       </c>
-      <c r="C204" s="1">
+      <c r="C204" s="2">
         <v>112</v>
       </c>
       <c r="D204" s="1" t="s">
@@ -10541,7 +10977,7 @@
       <c r="B205" s="1" t="s">
         <v>849</v>
       </c>
-      <c r="C205" s="1">
+      <c r="C205" s="2">
         <v>113</v>
       </c>
       <c r="D205" s="1" t="s">
@@ -10591,7 +11027,7 @@
       <c r="B206" s="1" t="s">
         <v>849</v>
       </c>
-      <c r="C206" s="1">
+      <c r="C206" s="2">
         <v>114</v>
       </c>
       <c r="D206" s="1" t="s">
@@ -10623,7 +11059,7 @@
       <c r="B207" s="1" t="s">
         <v>849</v>
       </c>
-      <c r="C207" s="1">
+      <c r="C207" s="2">
         <v>115</v>
       </c>
       <c r="D207" s="1" t="s">
@@ -10655,7 +11091,7 @@
       <c r="B208" s="1" t="s">
         <v>849</v>
       </c>
-      <c r="C208" s="1">
+      <c r="C208" s="2">
         <v>116</v>
       </c>
       <c r="D208" s="1" t="s">
@@ -10684,7 +11120,7 @@
       <c r="B209" s="1" t="s">
         <v>849</v>
       </c>
-      <c r="C209" s="1">
+      <c r="C209" s="2">
         <v>117</v>
       </c>
       <c r="D209" s="1" t="s">
@@ -10728,7 +11164,7 @@
       <c r="B210" s="1" t="s">
         <v>849</v>
       </c>
-      <c r="C210" s="1">
+      <c r="C210" s="2">
         <v>118</v>
       </c>
       <c r="D210" s="1" t="s">
@@ -10757,7 +11193,7 @@
       <c r="B211" s="1" t="s">
         <v>849</v>
       </c>
-      <c r="C211" s="1">
+      <c r="C211" s="2">
         <v>119</v>
       </c>
       <c r="D211" s="1" t="s">
@@ -10786,7 +11222,7 @@
       <c r="B212" s="1" t="s">
         <v>849</v>
       </c>
-      <c r="C212" s="1">
+      <c r="C212" s="2">
         <v>120</v>
       </c>
       <c r="D212" s="1" t="s">
@@ -10815,7 +11251,7 @@
       <c r="B213" s="1" t="s">
         <v>849</v>
       </c>
-      <c r="C213" s="1">
+      <c r="C213" s="2">
         <v>121</v>
       </c>
       <c r="D213" s="1" t="s">
@@ -10844,7 +11280,7 @@
       <c r="B214" s="1" t="s">
         <v>849</v>
       </c>
-      <c r="C214" s="1">
+      <c r="C214" s="2">
         <v>122</v>
       </c>
       <c r="D214" s="1" t="s">
@@ -10873,7 +11309,7 @@
       <c r="B215" s="1" t="s">
         <v>849</v>
       </c>
-      <c r="C215" s="1">
+      <c r="C215" s="2">
         <v>123</v>
       </c>
       <c r="D215" s="1" t="s">
@@ -10902,7 +11338,7 @@
       <c r="B216" s="1" t="s">
         <v>849</v>
       </c>
-      <c r="C216" s="1">
+      <c r="C216" s="2">
         <v>124</v>
       </c>
       <c r="D216" s="1" t="s">
@@ -10931,7 +11367,7 @@
       <c r="B217" s="1" t="s">
         <v>849</v>
       </c>
-      <c r="C217" s="1">
+      <c r="C217" s="2">
         <v>125</v>
       </c>
       <c r="D217" s="1" t="s">
@@ -10957,7 +11393,7 @@
       <c r="B218" s="1" t="s">
         <v>849</v>
       </c>
-      <c r="C218" s="1">
+      <c r="C218" s="2">
         <v>126</v>
       </c>
       <c r="D218" s="1" t="s">
@@ -11001,7 +11437,7 @@
       <c r="B219" s="1" t="s">
         <v>849</v>
       </c>
-      <c r="C219" s="1">
+      <c r="C219" s="2">
         <v>127</v>
       </c>
       <c r="D219" s="1" t="s">
@@ -11033,7 +11469,7 @@
       <c r="B220" s="1" t="s">
         <v>849</v>
       </c>
-      <c r="C220" s="1">
+      <c r="C220" s="2">
         <v>128</v>
       </c>
       <c r="D220" s="1" t="s">
@@ -11065,7 +11501,7 @@
       <c r="B221" s="1" t="s">
         <v>849</v>
       </c>
-      <c r="C221" s="1">
+      <c r="C221" s="2">
         <v>129</v>
       </c>
       <c r="D221" s="1" t="s">
@@ -11091,7 +11527,7 @@
       <c r="B222" s="1" t="s">
         <v>849</v>
       </c>
-      <c r="C222" s="1">
+      <c r="C222" s="2">
         <v>130</v>
       </c>
       <c r="D222" s="1" t="s">
@@ -11129,7 +11565,7 @@
       <c r="B223" s="1" t="s">
         <v>849</v>
       </c>
-      <c r="C223" s="1">
+      <c r="C223" s="2">
         <v>131</v>
       </c>
       <c r="D223" s="1" t="s">
@@ -11158,7 +11594,7 @@
       <c r="B224" s="1" t="s">
         <v>849</v>
       </c>
-      <c r="C224" s="1">
+      <c r="C224" s="2">
         <v>132</v>
       </c>
       <c r="D224" s="1" t="s">
@@ -11193,7 +11629,7 @@
       <c r="B225" s="1" t="s">
         <v>849</v>
       </c>
-      <c r="C225" s="1">
+      <c r="C225" s="2">
         <v>133</v>
       </c>
       <c r="D225" s="1" t="s">
@@ -11231,7 +11667,7 @@
       <c r="B226" s="1" t="s">
         <v>849</v>
       </c>
-      <c r="C226" s="1">
+      <c r="C226" s="2">
         <v>134</v>
       </c>
       <c r="D226" s="1" t="s">
@@ -11266,7 +11702,7 @@
       <c r="B227" s="1" t="s">
         <v>849</v>
       </c>
-      <c r="C227" s="1">
+      <c r="C227" s="2">
         <v>135</v>
       </c>
       <c r="D227" s="1" t="s">
@@ -11301,7 +11737,7 @@
       <c r="B228" s="1" t="s">
         <v>849</v>
       </c>
-      <c r="C228" s="1">
+      <c r="C228" s="2">
         <v>136</v>
       </c>
       <c r="D228" s="1" t="s">
@@ -11327,7 +11763,7 @@
       <c r="B229" s="1" t="s">
         <v>849</v>
       </c>
-      <c r="C229" s="1">
+      <c r="C229" s="2">
         <v>137</v>
       </c>
       <c r="D229" s="1" t="s">
@@ -11365,7 +11801,7 @@
       <c r="B230" s="1" t="s">
         <v>849</v>
       </c>
-      <c r="C230" s="1">
+      <c r="C230" s="2">
         <v>138</v>
       </c>
       <c r="D230" s="1" t="s">
@@ -11391,7 +11827,7 @@
       <c r="B231" s="1" t="s">
         <v>849</v>
       </c>
-      <c r="C231" s="1">
+      <c r="C231" s="2">
         <v>139</v>
       </c>
       <c r="D231" s="1" t="s">
@@ -11426,7 +11862,7 @@
       <c r="B232" s="1" t="s">
         <v>849</v>
       </c>
-      <c r="C232" s="1">
+      <c r="C232" s="2">
         <v>140</v>
       </c>
       <c r="D232" s="1" t="s">
@@ -11464,7 +11900,7 @@
       <c r="B233" s="1" t="s">
         <v>849</v>
       </c>
-      <c r="C233" s="1">
+      <c r="C233" s="2">
         <v>141</v>
       </c>
       <c r="D233" s="1" t="s">
@@ -11499,7 +11935,7 @@
       <c r="B234" s="1" t="s">
         <v>849</v>
       </c>
-      <c r="C234" s="1">
+      <c r="C234" s="2">
         <v>142</v>
       </c>
       <c r="D234" s="1" t="s">
@@ -11531,7 +11967,7 @@
       <c r="B235" s="1" t="s">
         <v>849</v>
       </c>
-      <c r="C235" s="1">
+      <c r="C235" s="2">
         <v>143</v>
       </c>
       <c r="D235" s="1" t="s">
@@ -11563,7 +11999,7 @@
       <c r="B236" s="1" t="s">
         <v>849</v>
       </c>
-      <c r="C236" s="1">
+      <c r="C236" s="2">
         <v>144</v>
       </c>
       <c r="D236" s="1" t="s">
@@ -11595,7 +12031,7 @@
       <c r="B237" s="1" t="s">
         <v>849</v>
       </c>
-      <c r="C237" s="1">
+      <c r="C237" s="2">
         <v>145</v>
       </c>
       <c r="D237" s="1" t="s">
@@ -11615,7 +12051,7 @@
       <c r="B238" s="1" t="s">
         <v>849</v>
       </c>
-      <c r="C238" s="1">
+      <c r="C238" s="2">
         <v>146</v>
       </c>
       <c r="D238" s="1" t="s">
@@ -11638,7 +12074,7 @@
       <c r="B239" s="1" t="s">
         <v>849</v>
       </c>
-      <c r="C239" s="1">
+      <c r="C239" s="2">
         <v>147</v>
       </c>
       <c r="D239" s="1" t="s">
@@ -11676,7 +12112,7 @@
       <c r="B240" s="1" t="s">
         <v>849</v>
       </c>
-      <c r="C240" s="1">
+      <c r="C240" s="2">
         <v>148</v>
       </c>
       <c r="D240" s="1" t="s">
@@ -11702,7 +12138,7 @@
       <c r="B241" s="1" t="s">
         <v>849</v>
       </c>
-      <c r="C241" s="1">
+      <c r="C241" s="2">
         <v>149</v>
       </c>
       <c r="D241" s="1" t="s">
@@ -11728,7 +12164,7 @@
       <c r="B242" s="1" t="s">
         <v>849</v>
       </c>
-      <c r="C242" s="1">
+      <c r="C242" s="2">
         <v>150</v>
       </c>
       <c r="D242" s="1" t="s">
@@ -11760,7 +12196,7 @@
       <c r="B243" s="1" t="s">
         <v>1115</v>
       </c>
-      <c r="C243" s="1">
+      <c r="C243" s="2">
         <v>501</v>
       </c>
       <c r="D243" s="1" t="s">
@@ -11792,7 +12228,7 @@
       <c r="B244" s="1" t="s">
         <v>1115</v>
       </c>
-      <c r="C244" s="1">
+      <c r="C244" s="2">
         <v>502</v>
       </c>
       <c r="D244" s="1" t="s">
@@ -11824,7 +12260,7 @@
       <c r="B245" s="1" t="s">
         <v>1115</v>
       </c>
-      <c r="C245" s="1">
+      <c r="C245" s="2">
         <v>503</v>
       </c>
       <c r="D245" s="1" t="s">
@@ -11856,7 +12292,7 @@
       <c r="B246" s="1" t="s">
         <v>1115</v>
       </c>
-      <c r="C246" s="1">
+      <c r="C246" s="2">
         <v>504</v>
       </c>
       <c r="D246" s="1" t="s">
@@ -11888,7 +12324,7 @@
       <c r="B247" s="1" t="s">
         <v>1115</v>
       </c>
-      <c r="C247" s="1">
+      <c r="C247" s="2">
         <v>505</v>
       </c>
       <c r="D247" s="1" t="s">
@@ -11917,7 +12353,7 @@
       <c r="B248" s="1" t="s">
         <v>1115</v>
       </c>
-      <c r="C248" s="1">
+      <c r="C248" s="2">
         <v>506</v>
       </c>
       <c r="D248" s="1" t="s">
@@ -11940,7 +12376,7 @@
       <c r="B249" s="1" t="s">
         <v>1115</v>
       </c>
-      <c r="C249" s="1">
+      <c r="C249" s="2">
         <v>507</v>
       </c>
       <c r="D249" s="1" t="s">
@@ -11966,7 +12402,7 @@
       <c r="B250" s="1" t="s">
         <v>1115</v>
       </c>
-      <c r="C250" s="1">
+      <c r="C250" s="2">
         <v>508</v>
       </c>
       <c r="D250" s="1" t="s">
@@ -12001,7 +12437,7 @@
       <c r="B251" s="1" t="s">
         <v>1115</v>
       </c>
-      <c r="C251" s="1">
+      <c r="C251" s="2">
         <v>509</v>
       </c>
       <c r="D251" s="1" t="s">
@@ -12033,7 +12469,7 @@
       <c r="B252" s="1" t="s">
         <v>1115</v>
       </c>
-      <c r="C252" s="1">
+      <c r="C252" s="2">
         <v>510</v>
       </c>
       <c r="D252" s="1" t="s">
@@ -12062,7 +12498,7 @@
       <c r="B253" s="1" t="s">
         <v>1115</v>
       </c>
-      <c r="C253" s="1">
+      <c r="C253" s="2">
         <v>511</v>
       </c>
       <c r="D253" s="1" t="s">
@@ -12088,7 +12524,7 @@
       <c r="B254" s="1" t="s">
         <v>1115</v>
       </c>
-      <c r="C254" s="1">
+      <c r="C254" s="2">
         <v>512</v>
       </c>
       <c r="D254" s="1" t="s">
@@ -12120,7 +12556,7 @@
       <c r="B255" s="1" t="s">
         <v>1115</v>
       </c>
-      <c r="C255" s="1">
+      <c r="C255" s="2">
         <v>513</v>
       </c>
       <c r="D255" s="1" t="s">
@@ -12155,7 +12591,7 @@
       <c r="B256" s="1" t="s">
         <v>1115</v>
       </c>
-      <c r="C256" s="1">
+      <c r="C256" s="2">
         <v>514</v>
       </c>
       <c r="D256" s="1" t="s">
@@ -12178,7 +12614,7 @@
       <c r="B257" s="1" t="s">
         <v>1115</v>
       </c>
-      <c r="C257" s="1">
+      <c r="C257" s="2">
         <v>515</v>
       </c>
       <c r="D257" s="1" t="s">
@@ -12204,7 +12640,7 @@
       <c r="B258" s="1" t="s">
         <v>1115</v>
       </c>
-      <c r="C258" s="1">
+      <c r="C258" s="2">
         <v>516</v>
       </c>
       <c r="D258" s="1" t="s">
@@ -12239,7 +12675,7 @@
       <c r="B259" s="1" t="s">
         <v>1115</v>
       </c>
-      <c r="C259" s="1">
+      <c r="C259" s="2">
         <v>517</v>
       </c>
       <c r="D259" s="1" t="s">
@@ -12271,7 +12707,7 @@
       <c r="B260" s="1" t="s">
         <v>1115</v>
       </c>
-      <c r="C260" s="1">
+      <c r="C260" s="2">
         <v>518</v>
       </c>
       <c r="D260" s="1" t="s">
@@ -12303,7 +12739,7 @@
       <c r="B261" s="1" t="s">
         <v>1115</v>
       </c>
-      <c r="C261" s="1">
+      <c r="C261" s="2">
         <v>519</v>
       </c>
       <c r="D261" s="1" t="s">
@@ -12323,7 +12759,7 @@
       <c r="B262" s="1" t="s">
         <v>1115</v>
       </c>
-      <c r="C262" s="1">
+      <c r="C262" s="2">
         <v>520</v>
       </c>
       <c r="D262" s="1" t="s">
@@ -12346,7 +12782,7 @@
       <c r="B263" s="1" t="s">
         <v>1115</v>
       </c>
-      <c r="C263" s="1">
+      <c r="C263" s="2">
         <v>521</v>
       </c>
       <c r="D263" s="1" t="s">
@@ -12375,7 +12811,7 @@
       <c r="B264" s="1" t="s">
         <v>1115</v>
       </c>
-      <c r="C264" s="1">
+      <c r="C264" s="2">
         <v>522</v>
       </c>
       <c r="D264" s="1" t="s">
@@ -12404,7 +12840,7 @@
       <c r="B265" s="1" t="s">
         <v>1115</v>
       </c>
-      <c r="C265" s="1">
+      <c r="C265" s="2">
         <v>523</v>
       </c>
       <c r="D265" s="1" t="s">
@@ -12430,7 +12866,7 @@
       <c r="B266" s="1" t="s">
         <v>1115</v>
       </c>
-      <c r="C266" s="1">
+      <c r="C266" s="2">
         <v>524</v>
       </c>
       <c r="D266" s="1" t="s">
@@ -12468,7 +12904,7 @@
       <c r="B267" s="1" t="s">
         <v>1115</v>
       </c>
-      <c r="C267" s="1">
+      <c r="C267" s="2">
         <v>525</v>
       </c>
       <c r="D267" s="1" t="s">
@@ -12494,7 +12930,7 @@
       <c r="B268" s="1" t="s">
         <v>1115</v>
       </c>
-      <c r="C268" s="1">
+      <c r="C268" s="2">
         <v>526</v>
       </c>
       <c r="D268" s="1" t="s">
@@ -12526,7 +12962,7 @@
       <c r="B269" s="1" t="s">
         <v>1115</v>
       </c>
-      <c r="C269" s="1">
+      <c r="C269" s="2">
         <v>527</v>
       </c>
       <c r="D269" s="1" t="s">
@@ -12552,7 +12988,7 @@
       <c r="B270" s="1" t="s">
         <v>1115</v>
       </c>
-      <c r="C270" s="1">
+      <c r="C270" s="2">
         <v>528</v>
       </c>
       <c r="D270" s="1" t="s">
@@ -12581,7 +13017,7 @@
       <c r="B271" s="1" t="s">
         <v>1115</v>
       </c>
-      <c r="C271" s="1">
+      <c r="C271" s="2">
         <v>529</v>
       </c>
       <c r="D271" s="1" t="s">
@@ -12613,7 +13049,7 @@
       <c r="B272" s="1" t="s">
         <v>1115</v>
       </c>
-      <c r="C272" s="1">
+      <c r="C272" s="2">
         <v>530</v>
       </c>
       <c r="D272" s="1" t="s">
@@ -12642,7 +13078,7 @@
       <c r="B273" s="1" t="s">
         <v>1115</v>
       </c>
-      <c r="C273" s="1">
+      <c r="C273" s="2">
         <v>531</v>
       </c>
       <c r="D273" s="1" t="s">
@@ -12674,7 +13110,7 @@
       <c r="B274" s="1" t="s">
         <v>1115</v>
       </c>
-      <c r="C274" s="1">
+      <c r="C274" s="2">
         <v>532</v>
       </c>
       <c r="D274" s="1" t="s">
@@ -12706,7 +13142,7 @@
       <c r="B275" s="1" t="s">
         <v>1115</v>
       </c>
-      <c r="C275" s="1">
+      <c r="C275" s="2">
         <v>533</v>
       </c>
       <c r="D275" s="1" t="s">
@@ -12732,7 +13168,7 @@
       <c r="B276" s="1" t="s">
         <v>1115</v>
       </c>
-      <c r="C276" s="1">
+      <c r="C276" s="2">
         <v>534</v>
       </c>
       <c r="D276" s="1" t="s">
@@ -12764,7 +13200,7 @@
       <c r="B277" s="1" t="s">
         <v>1115</v>
       </c>
-      <c r="C277" s="1">
+      <c r="C277" s="2">
         <v>535</v>
       </c>
       <c r="D277" s="1" t="s">
@@ -12793,7 +13229,7 @@
       <c r="B278" s="1" t="s">
         <v>1115</v>
       </c>
-      <c r="C278" s="1">
+      <c r="C278" s="2">
         <v>536</v>
       </c>
       <c r="D278" s="1" t="s">
@@ -12819,7 +13255,7 @@
       <c r="B279" s="1" t="s">
         <v>1115</v>
       </c>
-      <c r="C279" s="1">
+      <c r="C279" s="2">
         <v>537</v>
       </c>
       <c r="D279" s="1" t="s">
@@ -12845,7 +13281,7 @@
       <c r="B280" s="1" t="s">
         <v>1115</v>
       </c>
-      <c r="C280" s="1">
+      <c r="C280" s="2">
         <v>538</v>
       </c>
       <c r="D280" s="1" t="s">
@@ -12883,7 +13319,7 @@
       <c r="B281" s="1" t="s">
         <v>1115</v>
       </c>
-      <c r="C281" s="1">
+      <c r="C281" s="2">
         <v>539</v>
       </c>
       <c r="D281" s="1" t="s">
@@ -12921,7 +13357,7 @@
       <c r="B282" s="1" t="s">
         <v>1115</v>
       </c>
-      <c r="C282" s="1">
+      <c r="C282" s="2">
         <v>540</v>
       </c>
       <c r="D282" s="1" t="s">
@@ -12959,7 +13395,7 @@
       <c r="B283" s="1" t="s">
         <v>1115</v>
       </c>
-      <c r="C283" s="1">
+      <c r="C283" s="2">
         <v>541</v>
       </c>
       <c r="D283" s="1" t="s">
@@ -12988,7 +13424,7 @@
       <c r="B284" s="1" t="s">
         <v>1115</v>
       </c>
-      <c r="C284" s="1">
+      <c r="C284" s="2">
         <v>542</v>
       </c>
       <c r="D284" s="1" t="s">
@@ -13020,7 +13456,7 @@
       <c r="B285" s="1" t="s">
         <v>1115</v>
       </c>
-      <c r="C285" s="1">
+      <c r="C285" s="2">
         <v>543</v>
       </c>
       <c r="D285" s="1" t="s">
@@ -13052,7 +13488,7 @@
       <c r="B286" s="1" t="s">
         <v>1115</v>
       </c>
-      <c r="C286" s="1">
+      <c r="C286" s="2">
         <v>544</v>
       </c>
       <c r="D286" s="1" t="s">
@@ -13081,7 +13517,7 @@
       <c r="B287" s="1" t="s">
         <v>1115</v>
       </c>
-      <c r="C287" s="1">
+      <c r="C287" s="2">
         <v>545</v>
       </c>
       <c r="D287" s="1" t="s">
@@ -13104,7 +13540,7 @@
       <c r="B288" s="1" t="s">
         <v>1115</v>
       </c>
-      <c r="C288" s="1">
+      <c r="C288" s="2">
         <v>546</v>
       </c>
       <c r="D288" s="1" t="s">
@@ -13130,7 +13566,7 @@
       <c r="B289" s="1" t="s">
         <v>1115</v>
       </c>
-      <c r="C289" s="1">
+      <c r="C289" s="2">
         <v>547</v>
       </c>
       <c r="D289" s="1" t="s">
@@ -13156,7 +13592,7 @@
       <c r="B290" s="1" t="s">
         <v>1115</v>
       </c>
-      <c r="C290" s="1">
+      <c r="C290" s="2">
         <v>548</v>
       </c>
       <c r="D290" s="1" t="s">
@@ -13185,7 +13621,7 @@
       <c r="B291" s="1" t="s">
         <v>1115</v>
       </c>
-      <c r="C291" s="1">
+      <c r="C291" s="2">
         <v>549</v>
       </c>
       <c r="D291" s="1" t="s">
@@ -13212,6 +13648,1479 @@
       <c r="L291" s="1" t="s">
         <v>1329</v>
       </c>
+    </row>
+    <row r="292" spans="1:12" ht="54" x14ac:dyDescent="0.3">
+      <c r="A292" s="2">
+        <v>292</v>
+      </c>
+      <c r="B292" s="3" t="s">
+        <v>1330</v>
+      </c>
+      <c r="C292" s="2" t="s">
+        <v>1331</v>
+      </c>
+      <c r="D292" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="E292" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F292" s="3"/>
+      <c r="G292" s="3" t="s">
+        <v>1332</v>
+      </c>
+      <c r="H292" s="3"/>
+      <c r="I292" s="3"/>
+      <c r="J292" s="3"/>
+      <c r="K292" s="3"/>
+    </row>
+    <row r="293" spans="1:12" ht="36" x14ac:dyDescent="0.3">
+      <c r="A293" s="2">
+        <v>293</v>
+      </c>
+      <c r="B293" s="3" t="s">
+        <v>1330</v>
+      </c>
+      <c r="C293" s="2">
+        <v>302</v>
+      </c>
+      <c r="D293" s="3" t="s">
+        <v>1333</v>
+      </c>
+      <c r="E293" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="F293" s="3"/>
+      <c r="G293" s="3" t="s">
+        <v>1334</v>
+      </c>
+      <c r="H293" s="3" t="s">
+        <v>1335</v>
+      </c>
+      <c r="I293" s="3"/>
+      <c r="J293" s="3"/>
+      <c r="K293" s="3"/>
+    </row>
+    <row r="294" spans="1:12" ht="54" x14ac:dyDescent="0.3">
+      <c r="A294" s="2">
+        <v>294</v>
+      </c>
+      <c r="B294" s="3" t="s">
+        <v>1330</v>
+      </c>
+      <c r="C294" s="2">
+        <v>303</v>
+      </c>
+      <c r="D294" s="3" t="s">
+        <v>1336</v>
+      </c>
+      <c r="E294" s="3" t="s">
+        <v>1337</v>
+      </c>
+      <c r="F294" s="3" t="s">
+        <v>1338</v>
+      </c>
+      <c r="G294" s="3"/>
+      <c r="H294" s="3" t="s">
+        <v>1339</v>
+      </c>
+      <c r="I294" s="3" t="s">
+        <v>1340</v>
+      </c>
+      <c r="J294" s="3" t="s">
+        <v>1341</v>
+      </c>
+      <c r="K294" s="3"/>
+    </row>
+    <row r="295" spans="1:12" ht="54" x14ac:dyDescent="0.3">
+      <c r="A295" s="2">
+        <v>295</v>
+      </c>
+      <c r="B295" s="3" t="s">
+        <v>1330</v>
+      </c>
+      <c r="C295" s="2">
+        <v>304</v>
+      </c>
+      <c r="D295" s="3" t="s">
+        <v>1342</v>
+      </c>
+      <c r="E295" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="F295" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="G295" s="3"/>
+      <c r="H295" s="3" t="s">
+        <v>1343</v>
+      </c>
+      <c r="I295" s="3" t="s">
+        <v>1344</v>
+      </c>
+      <c r="J295" s="3"/>
+      <c r="K295" s="3"/>
+    </row>
+    <row r="296" spans="1:12" ht="36" x14ac:dyDescent="0.3">
+      <c r="A296" s="2">
+        <v>296</v>
+      </c>
+      <c r="B296" s="3" t="s">
+        <v>1330</v>
+      </c>
+      <c r="C296" s="2">
+        <v>305</v>
+      </c>
+      <c r="D296" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="E296" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="F296" s="3"/>
+      <c r="G296" s="3"/>
+      <c r="H296" s="3" t="s">
+        <v>1345</v>
+      </c>
+      <c r="I296" s="3" t="s">
+        <v>1346</v>
+      </c>
+      <c r="J296" s="3"/>
+      <c r="K296" s="3"/>
+    </row>
+    <row r="297" spans="1:12" ht="36" x14ac:dyDescent="0.3">
+      <c r="A297" s="2">
+        <v>297</v>
+      </c>
+      <c r="B297" s="3" t="s">
+        <v>1330</v>
+      </c>
+      <c r="C297" s="2">
+        <v>306</v>
+      </c>
+      <c r="D297" s="3" t="s">
+        <v>1347</v>
+      </c>
+      <c r="E297" s="3"/>
+      <c r="F297" s="3"/>
+      <c r="G297" s="3" t="s">
+        <v>1348</v>
+      </c>
+      <c r="H297" s="3" t="s">
+        <v>1349</v>
+      </c>
+      <c r="I297" s="3"/>
+      <c r="J297" s="3"/>
+      <c r="K297" s="3"/>
+    </row>
+    <row r="298" spans="1:12" ht="54" x14ac:dyDescent="0.3">
+      <c r="A298" s="2">
+        <v>298</v>
+      </c>
+      <c r="B298" s="3" t="s">
+        <v>1330</v>
+      </c>
+      <c r="C298" s="2">
+        <v>307</v>
+      </c>
+      <c r="D298" s="3" t="s">
+        <v>1350</v>
+      </c>
+      <c r="E298" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="F298" s="3"/>
+      <c r="G298" s="3" t="s">
+        <v>1351</v>
+      </c>
+      <c r="H298" s="3"/>
+      <c r="I298" s="3"/>
+      <c r="J298" s="3"/>
+      <c r="K298" s="3"/>
+    </row>
+    <row r="299" spans="1:12" ht="54" x14ac:dyDescent="0.3">
+      <c r="A299" s="2">
+        <v>299</v>
+      </c>
+      <c r="B299" s="3" t="s">
+        <v>1330</v>
+      </c>
+      <c r="C299" s="2">
+        <v>308</v>
+      </c>
+      <c r="D299" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="E299" s="3" t="s">
+        <v>1352</v>
+      </c>
+      <c r="F299" s="3"/>
+      <c r="G299" s="3" t="s">
+        <v>1353</v>
+      </c>
+      <c r="H299" s="3" t="e">
+        <f>- wennsd Zeid hosd.</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="I299" s="3"/>
+      <c r="J299" s="3"/>
+      <c r="K299" s="3"/>
+    </row>
+    <row r="300" spans="1:12" ht="54" x14ac:dyDescent="0.3">
+      <c r="A300" s="2">
+        <v>300</v>
+      </c>
+      <c r="B300" s="3" t="s">
+        <v>1330</v>
+      </c>
+      <c r="C300" s="2">
+        <v>309</v>
+      </c>
+      <c r="D300" s="3" t="s">
+        <v>1354</v>
+      </c>
+      <c r="E300" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F300" s="3" t="s">
+        <v>631</v>
+      </c>
+      <c r="G300" s="3"/>
+      <c r="H300" s="3" t="s">
+        <v>1355</v>
+      </c>
+      <c r="I300" s="3" t="s">
+        <v>1356</v>
+      </c>
+      <c r="J300" s="3"/>
+      <c r="K300" s="3"/>
+    </row>
+    <row r="301" spans="1:12" ht="54" x14ac:dyDescent="0.3">
+      <c r="A301" s="2">
+        <v>301</v>
+      </c>
+      <c r="B301" s="3" t="s">
+        <v>1330</v>
+      </c>
+      <c r="C301" s="2">
+        <v>310</v>
+      </c>
+      <c r="D301" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="E301" s="3" t="s">
+        <v>1357</v>
+      </c>
+      <c r="F301" s="3" t="s">
+        <v>1358</v>
+      </c>
+      <c r="G301" s="3"/>
+      <c r="H301" s="3" t="s">
+        <v>1359</v>
+      </c>
+      <c r="I301" s="3" t="e">
+        <f>-- und schlofn du ma a gern.</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="J301" s="3"/>
+      <c r="K301" s="3"/>
+    </row>
+    <row r="302" spans="1:12" ht="54" x14ac:dyDescent="0.3">
+      <c r="A302" s="2">
+        <v>302</v>
+      </c>
+      <c r="B302" s="3" t="s">
+        <v>1330</v>
+      </c>
+      <c r="C302" s="2">
+        <v>311</v>
+      </c>
+      <c r="D302" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="E302" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="F302" s="3" t="s">
+        <v>1202</v>
+      </c>
+      <c r="G302" s="3"/>
+      <c r="H302" s="3" t="s">
+        <v>1360</v>
+      </c>
+      <c r="I302" s="3"/>
+      <c r="J302" s="3"/>
+      <c r="K302" s="3"/>
+    </row>
+    <row r="303" spans="1:12" ht="36" x14ac:dyDescent="0.3">
+      <c r="A303" s="2">
+        <v>303</v>
+      </c>
+      <c r="B303" s="3" t="s">
+        <v>1330</v>
+      </c>
+      <c r="C303" s="2">
+        <v>312</v>
+      </c>
+      <c r="D303" s="3" t="s">
+        <v>1361</v>
+      </c>
+      <c r="E303" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="F303" s="3"/>
+      <c r="G303" s="3" t="s">
+        <v>1362</v>
+      </c>
+      <c r="H303" s="3" t="s">
+        <v>1363</v>
+      </c>
+      <c r="I303" s="3"/>
+      <c r="J303" s="3"/>
+      <c r="K303" s="3"/>
+    </row>
+    <row r="304" spans="1:12" ht="36" x14ac:dyDescent="0.3">
+      <c r="A304" s="2">
+        <v>304</v>
+      </c>
+      <c r="B304" s="3" t="s">
+        <v>1330</v>
+      </c>
+      <c r="C304" s="2">
+        <v>313</v>
+      </c>
+      <c r="D304" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E304" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F304" s="3" t="s">
+        <v>1364</v>
+      </c>
+      <c r="G304" s="3"/>
+      <c r="H304" s="3" t="s">
+        <v>1365</v>
+      </c>
+      <c r="I304" s="3"/>
+      <c r="J304" s="3"/>
+      <c r="K304" s="3"/>
+    </row>
+    <row r="305" spans="1:11" ht="54" x14ac:dyDescent="0.3">
+      <c r="A305" s="2">
+        <v>305</v>
+      </c>
+      <c r="B305" s="3" t="s">
+        <v>1330</v>
+      </c>
+      <c r="C305" s="2">
+        <v>314</v>
+      </c>
+      <c r="D305" s="3" t="s">
+        <v>1366</v>
+      </c>
+      <c r="E305" s="3" t="s">
+        <v>938</v>
+      </c>
+      <c r="F305" s="3" t="s">
+        <v>560</v>
+      </c>
+      <c r="G305" s="3"/>
+      <c r="H305" s="3" t="s">
+        <v>1367</v>
+      </c>
+      <c r="I305" s="3"/>
+      <c r="J305" s="3"/>
+      <c r="K305" s="3"/>
+    </row>
+    <row r="306" spans="1:11" ht="36" x14ac:dyDescent="0.3">
+      <c r="A306" s="2">
+        <v>306</v>
+      </c>
+      <c r="B306" s="3" t="s">
+        <v>1330</v>
+      </c>
+      <c r="C306" s="2">
+        <v>315</v>
+      </c>
+      <c r="D306" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E306" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F306" s="3" t="s">
+        <v>1368</v>
+      </c>
+      <c r="G306" s="3"/>
+      <c r="H306" s="3" t="s">
+        <v>1369</v>
+      </c>
+      <c r="I306" s="3" t="s">
+        <v>1370</v>
+      </c>
+      <c r="J306" s="3"/>
+      <c r="K306" s="3"/>
+    </row>
+    <row r="307" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+      <c r="A307" s="2">
+        <v>307</v>
+      </c>
+      <c r="B307" s="3" t="s">
+        <v>1330</v>
+      </c>
+      <c r="C307" s="2">
+        <v>316</v>
+      </c>
+      <c r="D307" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E307" s="3" t="s">
+        <v>1371</v>
+      </c>
+      <c r="F307" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G307" s="3" t="s">
+        <v>1372</v>
+      </c>
+      <c r="H307" s="3"/>
+      <c r="I307" s="3" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J307" s="3"/>
+      <c r="K307" s="3"/>
+    </row>
+    <row r="308" spans="1:11" ht="36" x14ac:dyDescent="0.3">
+      <c r="A308" s="2">
+        <v>308</v>
+      </c>
+      <c r="B308" s="3" t="s">
+        <v>1330</v>
+      </c>
+      <c r="C308" s="2">
+        <v>317</v>
+      </c>
+      <c r="D308" s="3" t="s">
+        <v>1374</v>
+      </c>
+      <c r="E308" s="3" t="s">
+        <v>1180</v>
+      </c>
+      <c r="F308" s="3"/>
+      <c r="G308" s="3" t="s">
+        <v>1375</v>
+      </c>
+      <c r="H308" s="3" t="s">
+        <v>1376</v>
+      </c>
+      <c r="I308" s="3"/>
+      <c r="J308" s="3"/>
+      <c r="K308" s="3"/>
+    </row>
+    <row r="309" spans="1:11" ht="54" x14ac:dyDescent="0.3">
+      <c r="A309" s="2">
+        <v>309</v>
+      </c>
+      <c r="B309" s="3" t="s">
+        <v>1330</v>
+      </c>
+      <c r="C309" s="2">
+        <v>318</v>
+      </c>
+      <c r="D309" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="E309" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="F309" s="3"/>
+      <c r="G309" s="3" t="s">
+        <v>1377</v>
+      </c>
+      <c r="H309" s="3" t="s">
+        <v>1378</v>
+      </c>
+      <c r="I309" s="3"/>
+      <c r="J309" s="3"/>
+      <c r="K309" s="3"/>
+    </row>
+    <row r="310" spans="1:11" ht="36" x14ac:dyDescent="0.3">
+      <c r="A310" s="2">
+        <v>310</v>
+      </c>
+      <c r="B310" s="3" t="s">
+        <v>1330</v>
+      </c>
+      <c r="C310" s="2">
+        <v>319</v>
+      </c>
+      <c r="D310" s="3" t="s">
+        <v>1379</v>
+      </c>
+      <c r="E310" s="3" t="s">
+        <v>1380</v>
+      </c>
+      <c r="F310" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="G310" s="3"/>
+      <c r="H310" s="3" t="s">
+        <v>1381</v>
+      </c>
+      <c r="I310" s="3" t="s">
+        <v>1382</v>
+      </c>
+      <c r="J310" s="3"/>
+      <c r="K310" s="3"/>
+    </row>
+    <row r="311" spans="1:11" ht="36" x14ac:dyDescent="0.3">
+      <c r="A311" s="2">
+        <v>311</v>
+      </c>
+      <c r="B311" s="3" t="s">
+        <v>1330</v>
+      </c>
+      <c r="C311" s="2">
+        <v>320</v>
+      </c>
+      <c r="D311" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E311" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F311" s="3" t="s">
+        <v>1383</v>
+      </c>
+      <c r="G311" s="3"/>
+      <c r="H311" s="3" t="s">
+        <v>1384</v>
+      </c>
+      <c r="I311" s="3"/>
+      <c r="J311" s="3"/>
+      <c r="K311" s="3"/>
+    </row>
+    <row r="312" spans="1:11" ht="54" x14ac:dyDescent="0.3">
+      <c r="A312" s="2">
+        <v>312</v>
+      </c>
+      <c r="B312" s="3" t="s">
+        <v>1330</v>
+      </c>
+      <c r="C312" s="2">
+        <v>321</v>
+      </c>
+      <c r="D312" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="E312" s="3" t="s">
+        <v>1385</v>
+      </c>
+      <c r="F312" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="G312" s="3"/>
+      <c r="H312" s="3" t="s">
+        <v>1386</v>
+      </c>
+      <c r="I312" s="3"/>
+      <c r="J312" s="3"/>
+      <c r="K312" s="3"/>
+    </row>
+    <row r="313" spans="1:11" ht="36" x14ac:dyDescent="0.3">
+      <c r="A313" s="2">
+        <v>313</v>
+      </c>
+      <c r="B313" s="3" t="s">
+        <v>1330</v>
+      </c>
+      <c r="C313" s="2">
+        <v>322</v>
+      </c>
+      <c r="D313" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="E313" s="3" t="s">
+        <v>1338</v>
+      </c>
+      <c r="F313" s="3"/>
+      <c r="G313" s="3" t="s">
+        <v>1387</v>
+      </c>
+      <c r="H313" s="3" t="s">
+        <v>1388</v>
+      </c>
+      <c r="I313" s="3"/>
+      <c r="J313" s="3"/>
+      <c r="K313" s="3"/>
+    </row>
+    <row r="314" spans="1:11" ht="36" x14ac:dyDescent="0.3">
+      <c r="A314" s="2">
+        <v>314</v>
+      </c>
+      <c r="B314" s="3" t="s">
+        <v>1330</v>
+      </c>
+      <c r="C314" s="2">
+        <v>323</v>
+      </c>
+      <c r="D314" s="3" t="s">
+        <v>1389</v>
+      </c>
+      <c r="E314" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="F314" s="3"/>
+      <c r="G314" s="3" t="s">
+        <v>1390</v>
+      </c>
+      <c r="H314" s="3" t="s">
+        <v>1391</v>
+      </c>
+      <c r="I314" s="3"/>
+      <c r="J314" s="3"/>
+      <c r="K314" s="3"/>
+    </row>
+    <row r="315" spans="1:11" ht="36" x14ac:dyDescent="0.3">
+      <c r="A315" s="2">
+        <v>315</v>
+      </c>
+      <c r="B315" s="3" t="s">
+        <v>1330</v>
+      </c>
+      <c r="C315" s="2">
+        <v>324</v>
+      </c>
+      <c r="D315" s="3" t="s">
+        <v>1392</v>
+      </c>
+      <c r="E315" s="3" t="s">
+        <v>1393</v>
+      </c>
+      <c r="F315" s="3"/>
+      <c r="G315" s="3" t="s">
+        <v>1394</v>
+      </c>
+      <c r="H315" s="3"/>
+      <c r="I315" s="3"/>
+      <c r="J315" s="3"/>
+      <c r="K315" s="3"/>
+    </row>
+    <row r="316" spans="1:11" ht="36" x14ac:dyDescent="0.3">
+      <c r="A316" s="2">
+        <v>316</v>
+      </c>
+      <c r="B316" s="3" t="s">
+        <v>1330</v>
+      </c>
+      <c r="C316" s="2">
+        <v>325</v>
+      </c>
+      <c r="D316" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E316" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F316" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="G316" s="3"/>
+      <c r="H316" s="3" t="s">
+        <v>1395</v>
+      </c>
+      <c r="I316" s="3" t="s">
+        <v>1396</v>
+      </c>
+      <c r="J316" s="3" t="e">
+        <f>- sogn die Hexn baradox.</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="K316" s="3"/>
+    </row>
+    <row r="317" spans="1:11" ht="54" x14ac:dyDescent="0.3">
+      <c r="A317" s="2">
+        <v>317</v>
+      </c>
+      <c r="B317" s="3" t="s">
+        <v>1330</v>
+      </c>
+      <c r="C317" s="2">
+        <v>326</v>
+      </c>
+      <c r="D317" s="3" t="s">
+        <v>1397</v>
+      </c>
+      <c r="E317" s="3" t="s">
+        <v>1398</v>
+      </c>
+      <c r="F317" s="3" t="s">
+        <v>1399</v>
+      </c>
+      <c r="G317" s="3"/>
+      <c r="H317" s="3" t="s">
+        <v>1400</v>
+      </c>
+      <c r="I317" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="J317" s="3"/>
+      <c r="K317" s="3"/>
+    </row>
+    <row r="318" spans="1:11" ht="36" x14ac:dyDescent="0.3">
+      <c r="A318" s="2">
+        <v>318</v>
+      </c>
+      <c r="B318" s="3" t="s">
+        <v>1330</v>
+      </c>
+      <c r="C318" s="2">
+        <v>327</v>
+      </c>
+      <c r="D318" s="3" t="s">
+        <v>1402</v>
+      </c>
+      <c r="E318" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F318" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="G318" s="3"/>
+      <c r="H318" s="3" t="s">
+        <v>1403</v>
+      </c>
+      <c r="I318" s="3" t="e">
+        <f>- fia a Bridschn.</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="J318" s="3"/>
+      <c r="K318" s="3"/>
+    </row>
+    <row r="319" spans="1:11" ht="36" x14ac:dyDescent="0.3">
+      <c r="A319" s="2">
+        <v>319</v>
+      </c>
+      <c r="B319" s="3" t="s">
+        <v>1330</v>
+      </c>
+      <c r="C319" s="2">
+        <v>328</v>
+      </c>
+      <c r="D319" s="3" t="s">
+        <v>1404</v>
+      </c>
+      <c r="E319" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="F319" s="3"/>
+      <c r="G319" s="3" t="s">
+        <v>1405</v>
+      </c>
+      <c r="H319" s="3" t="s">
+        <v>1406</v>
+      </c>
+      <c r="I319" s="3"/>
+      <c r="J319" s="3"/>
+      <c r="K319" s="3"/>
+    </row>
+    <row r="320" spans="1:11" ht="54" x14ac:dyDescent="0.3">
+      <c r="A320" s="2">
+        <v>320</v>
+      </c>
+      <c r="B320" s="3" t="s">
+        <v>1330</v>
+      </c>
+      <c r="C320" s="2">
+        <v>329</v>
+      </c>
+      <c r="D320" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="E320" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="F320" s="3"/>
+      <c r="G320" s="3" t="s">
+        <v>1407</v>
+      </c>
+      <c r="H320" s="3" t="s">
+        <v>1408</v>
+      </c>
+      <c r="I320" s="3"/>
+      <c r="J320" s="3"/>
+      <c r="K320" s="3"/>
+    </row>
+    <row r="321" spans="1:11" ht="36" x14ac:dyDescent="0.3">
+      <c r="A321" s="2">
+        <v>321</v>
+      </c>
+      <c r="B321" s="3" t="s">
+        <v>1330</v>
+      </c>
+      <c r="C321" s="2">
+        <v>330</v>
+      </c>
+      <c r="D321" s="3" t="s">
+        <v>1409</v>
+      </c>
+      <c r="E321" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F321" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G321" s="3"/>
+      <c r="H321" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="I321" s="3" t="s">
+        <v>1411</v>
+      </c>
+      <c r="J321" s="3" t="s">
+        <v>1412</v>
+      </c>
+      <c r="K321" s="3"/>
+    </row>
+    <row r="322" spans="1:11" ht="54" x14ac:dyDescent="0.3">
+      <c r="A322" s="2">
+        <v>322</v>
+      </c>
+      <c r="B322" s="3" t="s">
+        <v>1330</v>
+      </c>
+      <c r="C322" s="2">
+        <v>331</v>
+      </c>
+      <c r="D322" s="3" t="s">
+        <v>1413</v>
+      </c>
+      <c r="E322" s="3" t="s">
+        <v>1414</v>
+      </c>
+      <c r="F322" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="G322" s="3"/>
+      <c r="H322" s="3" t="s">
+        <v>1415</v>
+      </c>
+      <c r="I322" s="3" t="s">
+        <v>1416</v>
+      </c>
+      <c r="J322" s="3"/>
+      <c r="K322" s="3"/>
+    </row>
+    <row r="323" spans="1:11" ht="36" x14ac:dyDescent="0.3">
+      <c r="A323" s="2">
+        <v>323</v>
+      </c>
+      <c r="B323" s="3" t="s">
+        <v>1330</v>
+      </c>
+      <c r="C323" s="2">
+        <v>332</v>
+      </c>
+      <c r="D323" s="3" t="s">
+        <v>1417</v>
+      </c>
+      <c r="E323" s="3" t="s">
+        <v>1304</v>
+      </c>
+      <c r="F323" s="3"/>
+      <c r="G323" s="3" t="s">
+        <v>1418</v>
+      </c>
+      <c r="H323" s="3" t="s">
+        <v>1419</v>
+      </c>
+      <c r="I323" s="3"/>
+      <c r="J323" s="3"/>
+      <c r="K323" s="3"/>
+    </row>
+    <row r="324" spans="1:11" ht="36" x14ac:dyDescent="0.3">
+      <c r="A324" s="2">
+        <v>324</v>
+      </c>
+      <c r="B324" s="3" t="s">
+        <v>1330</v>
+      </c>
+      <c r="C324" s="2">
+        <v>333</v>
+      </c>
+      <c r="D324" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="E324" s="3" t="s">
+        <v>1104</v>
+      </c>
+      <c r="F324" s="3" t="s">
+        <v>544</v>
+      </c>
+      <c r="G324" s="3"/>
+      <c r="H324" s="3" t="s">
+        <v>1420</v>
+      </c>
+      <c r="I324" s="3" t="s">
+        <v>1421</v>
+      </c>
+      <c r="J324" s="3"/>
+      <c r="K324" s="3"/>
+    </row>
+    <row r="325" spans="1:11" ht="36" x14ac:dyDescent="0.3">
+      <c r="A325" s="2">
+        <v>325</v>
+      </c>
+      <c r="B325" s="3" t="s">
+        <v>1330</v>
+      </c>
+      <c r="C325" s="2">
+        <v>334</v>
+      </c>
+      <c r="D325" s="3" t="s">
+        <v>1422</v>
+      </c>
+      <c r="E325" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F325" s="3" t="s">
+        <v>634</v>
+      </c>
+      <c r="G325" s="3"/>
+      <c r="H325" s="3" t="s">
+        <v>1423</v>
+      </c>
+      <c r="I325" s="3"/>
+      <c r="J325" s="3"/>
+      <c r="K325" s="3"/>
+    </row>
+    <row r="326" spans="1:11" ht="36" x14ac:dyDescent="0.3">
+      <c r="A326" s="2">
+        <v>326</v>
+      </c>
+      <c r="B326" s="3" t="s">
+        <v>1330</v>
+      </c>
+      <c r="C326" s="2">
+        <v>335</v>
+      </c>
+      <c r="D326" s="3" t="s">
+        <v>1424</v>
+      </c>
+      <c r="E326" s="3" t="s">
+        <v>544</v>
+      </c>
+      <c r="F326" s="3"/>
+      <c r="G326" s="3" t="s">
+        <v>1425</v>
+      </c>
+      <c r="H326" s="3" t="s">
+        <v>1426</v>
+      </c>
+      <c r="I326" s="3"/>
+      <c r="J326" s="3"/>
+      <c r="K326" s="3"/>
+    </row>
+    <row r="327" spans="1:11" ht="36" x14ac:dyDescent="0.3">
+      <c r="A327" s="2">
+        <v>327</v>
+      </c>
+      <c r="B327" s="3" t="s">
+        <v>1330</v>
+      </c>
+      <c r="C327" s="2">
+        <v>336</v>
+      </c>
+      <c r="D327" s="3" t="s">
+        <v>1427</v>
+      </c>
+      <c r="E327" s="3" t="s">
+        <v>1428</v>
+      </c>
+      <c r="F327" s="3" t="s">
+        <v>1429</v>
+      </c>
+      <c r="G327" s="3"/>
+      <c r="H327" s="3" t="s">
+        <v>1430</v>
+      </c>
+      <c r="I327" s="3"/>
+      <c r="J327" s="3"/>
+      <c r="K327" s="3"/>
+    </row>
+    <row r="328" spans="1:11" ht="54" x14ac:dyDescent="0.3">
+      <c r="A328" s="2">
+        <v>328</v>
+      </c>
+      <c r="B328" s="3" t="s">
+        <v>1330</v>
+      </c>
+      <c r="C328" s="2">
+        <v>337</v>
+      </c>
+      <c r="D328" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E328" s="3" t="s">
+        <v>1431</v>
+      </c>
+      <c r="F328" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="G328" s="3"/>
+      <c r="H328" s="3" t="s">
+        <v>1432</v>
+      </c>
+      <c r="I328" s="3" t="s">
+        <v>1433</v>
+      </c>
+      <c r="J328" s="3"/>
+      <c r="K328" s="3"/>
+    </row>
+    <row r="329" spans="1:11" ht="54" x14ac:dyDescent="0.3">
+      <c r="A329" s="2">
+        <v>329</v>
+      </c>
+      <c r="B329" s="3" t="s">
+        <v>1330</v>
+      </c>
+      <c r="C329" s="2">
+        <v>338</v>
+      </c>
+      <c r="D329" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="E329" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="F329" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="G329" s="3"/>
+      <c r="H329" s="3" t="s">
+        <v>1434</v>
+      </c>
+      <c r="I329" s="3" t="s">
+        <v>1435</v>
+      </c>
+      <c r="J329" s="3" t="s">
+        <v>1436</v>
+      </c>
+      <c r="K329" s="3"/>
+    </row>
+    <row r="330" spans="1:11" ht="54" x14ac:dyDescent="0.3">
+      <c r="A330" s="2">
+        <v>330</v>
+      </c>
+      <c r="B330" s="3" t="s">
+        <v>1330</v>
+      </c>
+      <c r="C330" s="2">
+        <v>339</v>
+      </c>
+      <c r="D330" s="3" t="s">
+        <v>1437</v>
+      </c>
+      <c r="E330" s="3" t="s">
+        <v>1438</v>
+      </c>
+      <c r="F330" s="3"/>
+      <c r="G330" s="3" t="s">
+        <v>1439</v>
+      </c>
+      <c r="H330" s="3"/>
+      <c r="I330" s="3"/>
+      <c r="J330" s="3"/>
+      <c r="K330" s="3"/>
+    </row>
+    <row r="331" spans="1:11" ht="54" x14ac:dyDescent="0.3">
+      <c r="A331" s="2">
+        <v>331</v>
+      </c>
+      <c r="B331" s="3" t="s">
+        <v>1330</v>
+      </c>
+      <c r="C331" s="2">
+        <v>340</v>
+      </c>
+      <c r="D331" s="3" t="s">
+        <v>1046</v>
+      </c>
+      <c r="E331" s="3" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F331" s="3" t="s">
+        <v>1440</v>
+      </c>
+      <c r="G331" s="3" t="s">
+        <v>1441</v>
+      </c>
+      <c r="H331" s="3"/>
+      <c r="I331" s="3" t="s">
+        <v>1442</v>
+      </c>
+      <c r="J331" s="3" t="s">
+        <v>1443</v>
+      </c>
+      <c r="K331" s="3"/>
+    </row>
+    <row r="332" spans="1:11" ht="54" x14ac:dyDescent="0.3">
+      <c r="A332" s="2">
+        <v>332</v>
+      </c>
+      <c r="B332" s="3" t="s">
+        <v>1330</v>
+      </c>
+      <c r="C332" s="2">
+        <v>341</v>
+      </c>
+      <c r="D332" s="3" t="s">
+        <v>1444</v>
+      </c>
+      <c r="E332" s="3" t="s">
+        <v>1445</v>
+      </c>
+      <c r="F332" s="3" t="s">
+        <v>1446</v>
+      </c>
+      <c r="G332" s="3"/>
+      <c r="H332" s="3" t="s">
+        <v>1447</v>
+      </c>
+      <c r="I332" s="3" t="s">
+        <v>1448</v>
+      </c>
+      <c r="J332" s="3"/>
+      <c r="K332" s="3"/>
+    </row>
+    <row r="333" spans="1:11" ht="36" x14ac:dyDescent="0.3">
+      <c r="A333" s="2">
+        <v>333</v>
+      </c>
+      <c r="B333" s="3" t="s">
+        <v>1330</v>
+      </c>
+      <c r="C333" s="2">
+        <v>342</v>
+      </c>
+      <c r="D333" s="3" t="s">
+        <v>1449</v>
+      </c>
+      <c r="E333" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="F333" s="3"/>
+      <c r="G333" s="3" t="s">
+        <v>1450</v>
+      </c>
+      <c r="H333" s="3" t="s">
+        <v>1451</v>
+      </c>
+      <c r="I333" s="3"/>
+      <c r="J333" s="3"/>
+      <c r="K333" s="3"/>
+    </row>
+    <row r="334" spans="1:11" ht="54" x14ac:dyDescent="0.3">
+      <c r="A334" s="2">
+        <v>334</v>
+      </c>
+      <c r="B334" s="3" t="s">
+        <v>1330</v>
+      </c>
+      <c r="C334" s="2">
+        <v>343</v>
+      </c>
+      <c r="D334" s="3" t="s">
+        <v>1452</v>
+      </c>
+      <c r="E334" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="F334" s="3" t="s">
+        <v>1453</v>
+      </c>
+      <c r="G334" s="3"/>
+      <c r="H334" s="3"/>
+      <c r="I334" s="3"/>
+      <c r="J334" s="3"/>
+      <c r="K334" s="3"/>
+    </row>
+    <row r="335" spans="1:11" ht="36" x14ac:dyDescent="0.3">
+      <c r="A335" s="2">
+        <v>335</v>
+      </c>
+      <c r="B335" s="3" t="s">
+        <v>1330</v>
+      </c>
+      <c r="C335" s="2">
+        <v>344</v>
+      </c>
+      <c r="D335" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="E335" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="F335" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G335" s="3"/>
+      <c r="H335" s="3" t="s">
+        <v>1454</v>
+      </c>
+      <c r="I335" s="3"/>
+      <c r="J335" s="3"/>
+      <c r="K335" s="3"/>
+    </row>
+    <row r="336" spans="1:11" ht="36" x14ac:dyDescent="0.3">
+      <c r="A336" s="2">
+        <v>336</v>
+      </c>
+      <c r="B336" s="3" t="s">
+        <v>1330</v>
+      </c>
+      <c r="C336" s="2">
+        <v>345</v>
+      </c>
+      <c r="D336" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E336" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F336" s="3" t="s">
+        <v>1455</v>
+      </c>
+      <c r="G336" s="3"/>
+      <c r="H336" s="3"/>
+      <c r="I336" s="3"/>
+      <c r="J336" s="3"/>
+      <c r="K336" s="3"/>
+    </row>
+    <row r="337" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+      <c r="A337" s="2">
+        <v>337</v>
+      </c>
+      <c r="B337" s="3" t="s">
+        <v>1330</v>
+      </c>
+      <c r="C337" s="2">
+        <v>346</v>
+      </c>
+      <c r="D337" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E337" s="3" t="s">
+        <v>1456</v>
+      </c>
+      <c r="F337" s="3"/>
+      <c r="G337" s="3"/>
+      <c r="H337" s="3"/>
+      <c r="I337" s="3"/>
+      <c r="J337" s="3"/>
+      <c r="K337" s="3"/>
+    </row>
+    <row r="338" spans="1:11" ht="54" x14ac:dyDescent="0.3">
+      <c r="A338" s="2">
+        <v>338</v>
+      </c>
+      <c r="B338" s="3" t="s">
+        <v>1330</v>
+      </c>
+      <c r="C338" s="2">
+        <v>347</v>
+      </c>
+      <c r="D338" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E338" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F338" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="G338" s="3"/>
+      <c r="H338" s="3" t="s">
+        <v>1457</v>
+      </c>
+      <c r="I338" s="3" t="s">
+        <v>1458</v>
+      </c>
+      <c r="J338" s="3" t="s">
+        <v>1459</v>
+      </c>
+      <c r="K338" s="3"/>
+    </row>
+    <row r="339" spans="1:11" ht="36" x14ac:dyDescent="0.3">
+      <c r="A339" s="2">
+        <v>339</v>
+      </c>
+      <c r="B339" s="3" t="s">
+        <v>1330</v>
+      </c>
+      <c r="C339" s="2">
+        <v>348</v>
+      </c>
+      <c r="D339" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E339" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F339" s="3" t="s">
+        <v>1460</v>
+      </c>
+      <c r="G339" s="3"/>
+      <c r="H339" s="3" t="s">
+        <v>1461</v>
+      </c>
+      <c r="I339" s="3" t="s">
+        <v>1462</v>
+      </c>
+      <c r="J339" s="3"/>
+      <c r="K339" s="3"/>
+    </row>
+    <row r="340" spans="1:11" ht="36" x14ac:dyDescent="0.3">
+      <c r="A340" s="2">
+        <v>340</v>
+      </c>
+      <c r="B340" s="3" t="s">
+        <v>1330</v>
+      </c>
+      <c r="C340" s="2">
+        <v>349</v>
+      </c>
+      <c r="D340" s="3" t="s">
+        <v>1463</v>
+      </c>
+      <c r="E340" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="F340" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="G340" s="3"/>
+      <c r="H340" s="3" t="s">
+        <v>1464</v>
+      </c>
+      <c r="I340" s="3" t="s">
+        <v>1465</v>
+      </c>
+      <c r="J340" s="3"/>
+      <c r="K340" s="3"/>
+    </row>
+    <row r="341" spans="1:11" ht="36" x14ac:dyDescent="0.3">
+      <c r="A341" s="2">
+        <v>341</v>
+      </c>
+      <c r="B341" s="3" t="s">
+        <v>1330</v>
+      </c>
+      <c r="C341" s="2">
+        <v>350</v>
+      </c>
+      <c r="D341" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="E341" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="F341" s="3"/>
+      <c r="G341" s="3" t="s">
+        <v>1466</v>
+      </c>
+      <c r="H341" s="3" t="s">
+        <v>1467</v>
+      </c>
+      <c r="I341" s="3"/>
+      <c r="J341" s="3"/>
+      <c r="K341" s="3"/>
+    </row>
+    <row r="342" spans="1:11" ht="36" x14ac:dyDescent="0.3">
+      <c r="A342" s="2">
+        <v>342</v>
+      </c>
+      <c r="B342" s="3" t="s">
+        <v>1330</v>
+      </c>
+      <c r="C342" s="2">
+        <v>351</v>
+      </c>
+      <c r="D342" s="3" t="s">
+        <v>1091</v>
+      </c>
+      <c r="E342" s="3" t="s">
+        <v>1092</v>
+      </c>
+      <c r="F342" s="3"/>
+      <c r="G342" s="3" t="s">
+        <v>1468</v>
+      </c>
+      <c r="H342" s="3"/>
+      <c r="I342" s="3"/>
+      <c r="J342" s="3"/>
+      <c r="K342" s="3"/>
+    </row>
+    <row r="343" spans="1:11" ht="54" x14ac:dyDescent="0.3">
+      <c r="A343" s="2">
+        <v>343</v>
+      </c>
+      <c r="B343" s="3" t="s">
+        <v>1330</v>
+      </c>
+      <c r="C343" s="2">
+        <v>352</v>
+      </c>
+      <c r="D343" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="E343" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="F343" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="G343" s="3"/>
+      <c r="H343" s="3" t="s">
+        <v>1469</v>
+      </c>
+      <c r="I343" s="3" t="s">
+        <v>1470</v>
+      </c>
+      <c r="J343" s="3"/>
+      <c r="K343" s="3"/>
+    </row>
+    <row r="344" spans="1:11" ht="36" x14ac:dyDescent="0.3">
+      <c r="A344" s="2">
+        <v>344</v>
+      </c>
+      <c r="B344" s="3" t="s">
+        <v>1330</v>
+      </c>
+      <c r="C344" s="2">
+        <v>353</v>
+      </c>
+      <c r="D344" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="E344" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F344" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G344" s="3"/>
+      <c r="H344" s="3" t="s">
+        <v>1471</v>
+      </c>
+      <c r="I344" s="3" t="s">
+        <v>1472</v>
+      </c>
+      <c r="J344" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="K344" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/texts_fin.xlsx
+++ b/texts_fin.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\0000shakesp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\0000shakesp\LATEST_kern\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C09E5B0-10AE-4102-B1AA-E39F5CFA976E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{720364E6-302E-422E-B858-46DF351EAD16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{BBE6E32D-62B2-4B13-BAAA-307AEDD5E135}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2441" uniqueCount="1474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4922" uniqueCount="1494">
   <si>
     <t>To be, or not to be,</t>
   </si>
@@ -4059,9 +4059,6 @@
     <t>S gibd einfach mehr uf f dea Weld,</t>
   </si>
   <si>
-    <t>als du denggsd. Dengg nur an Bimberleswichdi.</t>
-  </si>
-  <si>
     <t>'S is nix gud oda schlechd, 's kummd drauf o,</t>
   </si>
   <si>
@@ -4080,15 +4077,9 @@
     <t>Lifes a tale told by an idiot, full of sound and fury, signifying nothing.</t>
   </si>
   <si>
-    <t>Des Lern is a Märla, voll Bimberleswichdi, wo a Depp derzähld.</t>
-  </si>
-  <si>
     <t>Merry Wives of Windsor. Act 2, scene 2</t>
   </si>
   <si>
-    <t>Lieba zu fria als wie zu späd</t>
-  </si>
-  <si>
     <t>Celerity is never more admired</t>
   </si>
   <si>
@@ -4110,9 +4101,6 @@
     <t>Wemmas ned zeichd, liebd ma a ned.</t>
   </si>
   <si>
-    <t>Doubt truth to be a liar, but never doubt 1love.</t>
-  </si>
-  <si>
     <t>Glaab nix und gornix, bloß,</t>
   </si>
   <si>
@@ -4122,9 +4110,6 @@
     <t>Twelf th Night, Act 3, scene 1</t>
   </si>
   <si>
-    <t>Sung is gud in da Lieb, gfunna werrn is bessa.</t>
-  </si>
-  <si>
     <t>For which of my bad parts didst thou first</t>
   </si>
   <si>
@@ -4146,9 +4131,6 @@
     <t>Romeo and Juliet, Act 2, scene</t>
   </si>
   <si>
-    <t>Mei Lieb is so arch, je mehr ich da gib, desdo gressa werrds.</t>
-  </si>
-  <si>
     <t>For I ne'er saw true beauty till this night.</t>
   </si>
   <si>
@@ -4173,9 +4155,6 @@
     <t>Ich wor hold blind vor lauda Lieb.</t>
   </si>
   <si>
-    <t>=- Aha ned so brov.</t>
-  </si>
-  <si>
     <t>As You Like lt, Act 2, scene 6</t>
   </si>
   <si>
@@ -4209,18 +4188,9 @@
     <t>Twelf th Night, Act 1, scene 5</t>
   </si>
   <si>
-    <t>Bessa a witziga Depp als a deppischa Witz.</t>
-  </si>
-  <si>
     <t>Gerechd is schlechd</t>
   </si>
   <si>
-    <t>und schlechd is gerechd</t>
-  </si>
-  <si>
-    <t>A fool thinks himself to be w1•se,</t>
-  </si>
-  <si>
     <t>but a wise man knows himself to be a fool.</t>
   </si>
   <si>
@@ -4230,15 +4200,9 @@
     <t>A Bleeda denggd, er is schlau,</t>
   </si>
   <si>
-    <t>aha a Schlaua was, dass er bleed is.</t>
-  </si>
-  <si>
     <t>That one may smile, and smile,</t>
   </si>
   <si>
-    <t>Bees sa und lächeln gehd olles zwa</t>
-  </si>
-  <si>
     <t>Love all, trust a few, do wrong to none.</t>
   </si>
   <si>
@@ -4284,9 +4248,6 @@
     <t>Wenn ich mich selba mooch, is des fei ned</t>
   </si>
   <si>
-    <t>so a greisliche Sünd wie, wenn ich mich ned mechad.</t>
-  </si>
-  <si>
     <t>Machs so gud,</t>
   </si>
   <si>
@@ -4296,9 +4257,6 @@
     <t>If we are true to ourselves, we can not be false</t>
   </si>
   <si>
-    <t>Wemma zu uns selba steh, kemma kan olieng.</t>
-  </si>
-  <si>
     <t>And oftentimes excusing of a fault doth make the fault the worse.</t>
   </si>
   <si>
@@ -4308,27 +4266,18 @@
     <t xml:space="preserve"> dodamid werrds noch schlimma.</t>
   </si>
   <si>
-    <t>1 wasted time,</t>
-  </si>
-  <si>
     <t>and now doth time waste me.</t>
   </si>
   <si>
     <t>Richard II, Act 5 , scene 5</t>
   </si>
   <si>
-    <t>Ich hob Zeid versandld, und etsa versandld die Zeid miech.</t>
-  </si>
-  <si>
     <t>it is not enough to speak, but to speak true.</t>
   </si>
   <si>
     <t>Des mergsd da: Waaf n reichd ned,</t>
   </si>
   <si>
-    <t>musd scho ehrlich sa. Und Wohrheid sogn.</t>
-  </si>
-  <si>
     <t>Ich mechad,</t>
   </si>
   <si>
@@ -4389,9 +4338,6 @@
     <t>Bei mir lichd des Geherrn auf der Zunga.</t>
   </si>
   <si>
-    <t>Werrder flieng</t>
-  </si>
-  <si>
     <t>Hamlet, Act3, scene 3</t>
   </si>
   <si>
@@ -4447,6 +4393,120 @@
   </si>
   <si>
     <t>Des is die Froch.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Des Lern is a Märla, voll Bimberleswichdi, </t>
+  </si>
+  <si>
+    <t>wo a Depp derzähld.</t>
+  </si>
+  <si>
+    <t>Lieba zu fria als wie zu späd.</t>
+  </si>
+  <si>
+    <t>Wennsd Zeid hosd.</t>
+  </si>
+  <si>
+    <t>Und schlofn du ma a gern.</t>
+  </si>
+  <si>
+    <t>Doubt truth to be a liar, but never doubt I love.</t>
+  </si>
+  <si>
+    <t>Sung is gud in da Lieb,</t>
+  </si>
+  <si>
+    <t>gfunna werrn is bessa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mei Lieb is so arch, je mehr ich da gib, </t>
+  </si>
+  <si>
+    <t>desdo gressa werrds.</t>
+  </si>
+  <si>
+    <t>Ahw ned so brov.</t>
+  </si>
+  <si>
+    <t>und schlechd is gerechd.</t>
+  </si>
+  <si>
+    <t>Sogn die Hexn baradox.</t>
+  </si>
+  <si>
+    <t>a Schlaua was, dass er bleed is.</t>
+  </si>
+  <si>
+    <t>Bees sa und lächeln gehd olles zwa.</t>
+  </si>
+  <si>
+    <t>Fia a Bridschn.</t>
+  </si>
+  <si>
+    <t>so a greisliche Sünd wie,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> wenn ich mich ned mechad.</t>
+  </si>
+  <si>
+    <t>Wemma zu uns selba steh,</t>
+  </si>
+  <si>
+    <t>kemma kan olieng.</t>
+  </si>
+  <si>
+    <t>I wasted time,</t>
+  </si>
+  <si>
+    <t>Ich hob Zeid versandld,</t>
+  </si>
+  <si>
+    <t>und etsa versandld die Zeid miech.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">musd scho ehrlich sa. </t>
+  </si>
+  <si>
+    <t>Und Wohrheid sogn.</t>
+  </si>
+  <si>
+    <t>Werrder flieng leichd,</t>
+  </si>
+  <si>
+    <t>Freind findsd nie so leichd.</t>
+  </si>
+  <si>
+    <t>Dumms Gwaaf</t>
+  </si>
+  <si>
+    <t>schaffts nie in Himml.</t>
+  </si>
+  <si>
+    <t>Wennsd weenich sogsd,</t>
+  </si>
+  <si>
+    <t>sogsd aa weenich umsonsd.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">als du denggsd. </t>
+  </si>
+  <si>
+    <t>Dengg nur an Bimberleswichdi.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bessa a witziga Depp </t>
+  </si>
+  <si>
+    <t>Fassis is witziga Depp</t>
+  </si>
+  <si>
+    <t>A ssfool fool witziga Depp</t>
+  </si>
+  <si>
+    <t>Thssone one witziga Depp</t>
+  </si>
+  <si>
+    <t>als a deppischa Witz.</t>
   </si>
 </sst>
 </file>
@@ -4816,8 +4876,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A074AB5-1EF9-487A-9681-DA97360C2616}">
   <dimension ref="A1:Q344"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A342" sqref="A1:A344"/>
+    <sheetView tabSelected="1" topLeftCell="A332" workbookViewId="0">
+      <selection activeCell="H315" sqref="H315"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.3"/>
@@ -13673,6 +13733,7 @@
       <c r="I292" s="3"/>
       <c r="J292" s="3"/>
       <c r="K292" s="3"/>
+      <c r="L292" s="3"/>
     </row>
     <row r="293" spans="1:12" ht="36" x14ac:dyDescent="0.3">
       <c r="A293" s="2">
@@ -13700,6 +13761,7 @@
       <c r="I293" s="3"/>
       <c r="J293" s="3"/>
       <c r="K293" s="3"/>
+      <c r="L293" s="3"/>
     </row>
     <row r="294" spans="1:12" ht="54" x14ac:dyDescent="0.3">
       <c r="A294" s="2">
@@ -13731,8 +13793,9 @@
         <v>1341</v>
       </c>
       <c r="K294" s="3"/>
-    </row>
-    <row r="295" spans="1:12" ht="54" x14ac:dyDescent="0.3">
+      <c r="L294" s="3"/>
+    </row>
+    <row r="295" spans="1:12" ht="36" x14ac:dyDescent="0.3">
       <c r="A295" s="2">
         <v>295</v>
       </c>
@@ -13756,12 +13819,15 @@
         <v>1343</v>
       </c>
       <c r="I295" s="3" t="s">
-        <v>1344</v>
-      </c>
-      <c r="J295" s="3"/>
+        <v>1487</v>
+      </c>
+      <c r="J295" s="3" t="s">
+        <v>1488</v>
+      </c>
       <c r="K295" s="3"/>
-    </row>
-    <row r="296" spans="1:12" ht="36" x14ac:dyDescent="0.3">
+      <c r="L295" s="3"/>
+    </row>
+    <row r="296" spans="1:12" ht="54" x14ac:dyDescent="0.3">
       <c r="A296" s="2">
         <v>296</v>
       </c>
@@ -13778,17 +13844,18 @@
         <v>128</v>
       </c>
       <c r="F296" s="3"/>
-      <c r="G296" s="3"/>
+      <c r="G296" s="3" t="s">
+        <v>1344</v>
+      </c>
       <c r="H296" s="3" t="s">
         <v>1345</v>
       </c>
-      <c r="I296" s="3" t="s">
-        <v>1346</v>
-      </c>
+      <c r="I296" s="3"/>
       <c r="J296" s="3"/>
       <c r="K296" s="3"/>
-    </row>
-    <row r="297" spans="1:12" ht="36" x14ac:dyDescent="0.3">
+      <c r="L296" s="3"/>
+    </row>
+    <row r="297" spans="1:12" ht="54" x14ac:dyDescent="0.3">
       <c r="A297" s="2">
         <v>297</v>
       </c>
@@ -13799,21 +13866,24 @@
         <v>306</v>
       </c>
       <c r="D297" s="3" t="s">
-        <v>1347</v>
-      </c>
-      <c r="E297" s="3"/>
+        <v>1346</v>
+      </c>
+      <c r="E297" s="3" t="s">
+        <v>346</v>
+      </c>
       <c r="F297" s="3"/>
       <c r="G297" s="3" t="s">
+        <v>1347</v>
+      </c>
+      <c r="H297" s="3" t="s">
         <v>1348</v>
-      </c>
-      <c r="H297" s="3" t="s">
-        <v>1349</v>
       </c>
       <c r="I297" s="3"/>
       <c r="J297" s="3"/>
       <c r="K297" s="3"/>
-    </row>
-    <row r="298" spans="1:12" ht="54" x14ac:dyDescent="0.3">
+      <c r="L297" s="3"/>
+    </row>
+    <row r="298" spans="1:12" ht="36" x14ac:dyDescent="0.3">
       <c r="A298" s="2">
         <v>298</v>
       </c>
@@ -13824,19 +13894,22 @@
         <v>307</v>
       </c>
       <c r="D298" s="3" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="E298" s="3" t="s">
         <v>196</v>
       </c>
       <c r="F298" s="3"/>
       <c r="G298" s="3" t="s">
-        <v>1351</v>
-      </c>
-      <c r="H298" s="3"/>
+        <v>1456</v>
+      </c>
+      <c r="H298" s="3" t="s">
+        <v>1457</v>
+      </c>
       <c r="I298" s="3"/>
       <c r="J298" s="3"/>
       <c r="K298" s="3"/>
+      <c r="L298" s="3"/>
     </row>
     <row r="299" spans="1:12" ht="54" x14ac:dyDescent="0.3">
       <c r="A299" s="2">
@@ -13852,19 +13925,19 @@
         <v>365</v>
       </c>
       <c r="E299" s="3" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
       <c r="F299" s="3"/>
       <c r="G299" s="3" t="s">
-        <v>1353</v>
-      </c>
-      <c r="H299" s="3" t="e">
-        <f>- wennsd Zeid hosd.</f>
-        <v>#NAME?</v>
+        <v>1458</v>
+      </c>
+      <c r="H299" s="3" t="s">
+        <v>1459</v>
       </c>
       <c r="I299" s="3"/>
       <c r="J299" s="3"/>
       <c r="K299" s="3"/>
+      <c r="L299" s="3"/>
     </row>
     <row r="300" spans="1:12" ht="54" x14ac:dyDescent="0.3">
       <c r="A300" s="2">
@@ -13877,7 +13950,7 @@
         <v>309</v>
       </c>
       <c r="D300" s="3" t="s">
-        <v>1354</v>
+        <v>1351</v>
       </c>
       <c r="E300" s="3" t="s">
         <v>89</v>
@@ -13887,13 +13960,14 @@
       </c>
       <c r="G300" s="3"/>
       <c r="H300" s="3" t="s">
-        <v>1355</v>
+        <v>1352</v>
       </c>
       <c r="I300" s="3" t="s">
-        <v>1356</v>
+        <v>1353</v>
       </c>
       <c r="J300" s="3"/>
       <c r="K300" s="3"/>
+      <c r="L300" s="3"/>
     </row>
     <row r="301" spans="1:12" ht="54" x14ac:dyDescent="0.3">
       <c r="A301" s="2">
@@ -13909,21 +13983,21 @@
         <v>409</v>
       </c>
       <c r="E301" s="3" t="s">
-        <v>1357</v>
+        <v>1354</v>
       </c>
       <c r="F301" s="3" t="s">
-        <v>1358</v>
+        <v>1355</v>
       </c>
       <c r="G301" s="3"/>
       <c r="H301" s="3" t="s">
-        <v>1359</v>
-      </c>
-      <c r="I301" s="3" t="e">
-        <f>-- und schlofn du ma a gern.</f>
-        <v>#NAME?</v>
+        <v>1356</v>
+      </c>
+      <c r="I301" s="3" t="s">
+        <v>1460</v>
       </c>
       <c r="J301" s="3"/>
       <c r="K301" s="3"/>
+      <c r="L301" s="3"/>
     </row>
     <row r="302" spans="1:12" ht="54" x14ac:dyDescent="0.3">
       <c r="A302" s="2">
@@ -13946,11 +14020,12 @@
       </c>
       <c r="G302" s="3"/>
       <c r="H302" s="3" t="s">
-        <v>1360</v>
+        <v>1357</v>
       </c>
       <c r="I302" s="3"/>
       <c r="J302" s="3"/>
       <c r="K302" s="3"/>
+      <c r="L302" s="3"/>
     </row>
     <row r="303" spans="1:12" ht="36" x14ac:dyDescent="0.3">
       <c r="A303" s="2">
@@ -13963,21 +14038,22 @@
         <v>312</v>
       </c>
       <c r="D303" s="3" t="s">
-        <v>1361</v>
+        <v>1461</v>
       </c>
       <c r="E303" s="3" t="s">
         <v>129</v>
       </c>
       <c r="F303" s="3"/>
       <c r="G303" s="3" t="s">
-        <v>1362</v>
+        <v>1358</v>
       </c>
       <c r="H303" s="3" t="s">
-        <v>1363</v>
+        <v>1359</v>
       </c>
       <c r="I303" s="3"/>
       <c r="J303" s="3"/>
       <c r="K303" s="3"/>
+      <c r="L303" s="3"/>
     </row>
     <row r="304" spans="1:12" ht="36" x14ac:dyDescent="0.3">
       <c r="A304" s="2">
@@ -13996,17 +14072,20 @@
         <v>135</v>
       </c>
       <c r="F304" s="3" t="s">
-        <v>1364</v>
+        <v>1360</v>
       </c>
       <c r="G304" s="3"/>
       <c r="H304" s="3" t="s">
-        <v>1365</v>
-      </c>
-      <c r="I304" s="3"/>
+        <v>1462</v>
+      </c>
+      <c r="I304" s="3" t="s">
+        <v>1463</v>
+      </c>
       <c r="J304" s="3"/>
       <c r="K304" s="3"/>
-    </row>
-    <row r="305" spans="1:11" ht="54" x14ac:dyDescent="0.3">
+      <c r="L304" s="3"/>
+    </row>
+    <row r="305" spans="1:12" ht="54" x14ac:dyDescent="0.3">
       <c r="A305" s="2">
         <v>305</v>
       </c>
@@ -14017,7 +14096,7 @@
         <v>314</v>
       </c>
       <c r="D305" s="3" t="s">
-        <v>1366</v>
+        <v>1361</v>
       </c>
       <c r="E305" s="3" t="s">
         <v>938</v>
@@ -14027,13 +14106,14 @@
       </c>
       <c r="G305" s="3"/>
       <c r="H305" s="3" t="s">
-        <v>1367</v>
+        <v>1362</v>
       </c>
       <c r="I305" s="3"/>
       <c r="J305" s="3"/>
       <c r="K305" s="3"/>
-    </row>
-    <row r="306" spans="1:11" ht="36" x14ac:dyDescent="0.3">
+      <c r="L305" s="3"/>
+    </row>
+    <row r="306" spans="1:12" ht="36" x14ac:dyDescent="0.3">
       <c r="A306" s="2">
         <v>306</v>
       </c>
@@ -14050,19 +14130,20 @@
         <v>34</v>
       </c>
       <c r="F306" s="3" t="s">
-        <v>1368</v>
+        <v>1363</v>
       </c>
       <c r="G306" s="3"/>
       <c r="H306" s="3" t="s">
-        <v>1369</v>
+        <v>1364</v>
       </c>
       <c r="I306" s="3" t="s">
-        <v>1370</v>
+        <v>1365</v>
       </c>
       <c r="J306" s="3"/>
       <c r="K306" s="3"/>
-    </row>
-    <row r="307" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+      <c r="L306" s="3"/>
+    </row>
+    <row r="307" spans="1:12" ht="54" x14ac:dyDescent="0.3">
       <c r="A307" s="2">
         <v>307</v>
       </c>
@@ -14076,22 +14157,25 @@
         <v>35</v>
       </c>
       <c r="E307" s="3" t="s">
-        <v>1371</v>
+        <v>1366</v>
       </c>
       <c r="F307" s="3" t="s">
         <v>38</v>
       </c>
       <c r="G307" s="3" t="s">
-        <v>1372</v>
+        <v>1367</v>
       </c>
       <c r="H307" s="3"/>
       <c r="I307" s="3" t="s">
-        <v>1373</v>
-      </c>
-      <c r="J307" s="3"/>
+        <v>1464</v>
+      </c>
+      <c r="J307" s="3" t="s">
+        <v>1465</v>
+      </c>
       <c r="K307" s="3"/>
-    </row>
-    <row r="308" spans="1:11" ht="36" x14ac:dyDescent="0.3">
+      <c r="L307" s="3"/>
+    </row>
+    <row r="308" spans="1:12" ht="36" x14ac:dyDescent="0.3">
       <c r="A308" s="2">
         <v>308</v>
       </c>
@@ -14102,23 +14186,24 @@
         <v>317</v>
       </c>
       <c r="D308" s="3" t="s">
-        <v>1374</v>
+        <v>1368</v>
       </c>
       <c r="E308" s="3" t="s">
         <v>1180</v>
       </c>
       <c r="F308" s="3"/>
       <c r="G308" s="3" t="s">
-        <v>1375</v>
+        <v>1369</v>
       </c>
       <c r="H308" s="3" t="s">
-        <v>1376</v>
+        <v>1370</v>
       </c>
       <c r="I308" s="3"/>
       <c r="J308" s="3"/>
       <c r="K308" s="3"/>
-    </row>
-    <row r="309" spans="1:11" ht="54" x14ac:dyDescent="0.3">
+      <c r="L308" s="3"/>
+    </row>
+    <row r="309" spans="1:12" ht="54" x14ac:dyDescent="0.3">
       <c r="A309" s="2">
         <v>309</v>
       </c>
@@ -14136,16 +14221,17 @@
       </c>
       <c r="F309" s="3"/>
       <c r="G309" s="3" t="s">
-        <v>1377</v>
+        <v>1371</v>
       </c>
       <c r="H309" s="3" t="s">
-        <v>1378</v>
+        <v>1372</v>
       </c>
       <c r="I309" s="3"/>
       <c r="J309" s="3"/>
       <c r="K309" s="3"/>
-    </row>
-    <row r="310" spans="1:11" ht="36" x14ac:dyDescent="0.3">
+      <c r="L309" s="3"/>
+    </row>
+    <row r="310" spans="1:12" ht="36" x14ac:dyDescent="0.3">
       <c r="A310" s="2">
         <v>310</v>
       </c>
@@ -14156,25 +14242,26 @@
         <v>319</v>
       </c>
       <c r="D310" s="3" t="s">
-        <v>1379</v>
+        <v>1373</v>
       </c>
       <c r="E310" s="3" t="s">
-        <v>1380</v>
+        <v>1374</v>
       </c>
       <c r="F310" s="3" t="s">
         <v>154</v>
       </c>
       <c r="G310" s="3"/>
       <c r="H310" s="3" t="s">
-        <v>1381</v>
+        <v>1375</v>
       </c>
       <c r="I310" s="3" t="s">
-        <v>1382</v>
+        <v>1466</v>
       </c>
       <c r="J310" s="3"/>
       <c r="K310" s="3"/>
-    </row>
-    <row r="311" spans="1:11" ht="36" x14ac:dyDescent="0.3">
+      <c r="L310" s="3"/>
+    </row>
+    <row r="311" spans="1:12" ht="36" x14ac:dyDescent="0.3">
       <c r="A311" s="2">
         <v>311</v>
       </c>
@@ -14191,17 +14278,18 @@
         <v>42</v>
       </c>
       <c r="F311" s="3" t="s">
-        <v>1383</v>
+        <v>1376</v>
       </c>
       <c r="G311" s="3"/>
       <c r="H311" s="3" t="s">
-        <v>1384</v>
+        <v>1377</v>
       </c>
       <c r="I311" s="3"/>
       <c r="J311" s="3"/>
       <c r="K311" s="3"/>
-    </row>
-    <row r="312" spans="1:11" ht="54" x14ac:dyDescent="0.3">
+      <c r="L311" s="3"/>
+    </row>
+    <row r="312" spans="1:12" ht="54" x14ac:dyDescent="0.3">
       <c r="A312" s="2">
         <v>312</v>
       </c>
@@ -14215,20 +14303,21 @@
         <v>383</v>
       </c>
       <c r="E312" s="3" t="s">
-        <v>1385</v>
+        <v>1378</v>
       </c>
       <c r="F312" s="3" t="s">
         <v>386</v>
       </c>
       <c r="G312" s="3"/>
       <c r="H312" s="3" t="s">
-        <v>1386</v>
+        <v>1379</v>
       </c>
       <c r="I312" s="3"/>
       <c r="J312" s="3"/>
       <c r="K312" s="3"/>
-    </row>
-    <row r="313" spans="1:11" ht="36" x14ac:dyDescent="0.3">
+      <c r="L312" s="3"/>
+    </row>
+    <row r="313" spans="1:12" ht="36" x14ac:dyDescent="0.3">
       <c r="A313" s="2">
         <v>313</v>
       </c>
@@ -14246,16 +14335,17 @@
       </c>
       <c r="F313" s="3"/>
       <c r="G313" s="3" t="s">
-        <v>1387</v>
+        <v>1380</v>
       </c>
       <c r="H313" s="3" t="s">
-        <v>1388</v>
+        <v>1381</v>
       </c>
       <c r="I313" s="3"/>
       <c r="J313" s="3"/>
       <c r="K313" s="3"/>
-    </row>
-    <row r="314" spans="1:11" ht="36" x14ac:dyDescent="0.3">
+      <c r="L313" s="3"/>
+    </row>
+    <row r="314" spans="1:12" ht="36" x14ac:dyDescent="0.3">
       <c r="A314" s="2">
         <v>314</v>
       </c>
@@ -14266,23 +14356,24 @@
         <v>323</v>
       </c>
       <c r="D314" s="3" t="s">
-        <v>1389</v>
+        <v>1382</v>
       </c>
       <c r="E314" s="3" t="s">
         <v>183</v>
       </c>
       <c r="F314" s="3"/>
       <c r="G314" s="3" t="s">
-        <v>1390</v>
+        <v>1383</v>
       </c>
       <c r="H314" s="3" t="s">
-        <v>1391</v>
+        <v>1384</v>
       </c>
       <c r="I314" s="3"/>
       <c r="J314" s="3"/>
       <c r="K314" s="3"/>
-    </row>
-    <row r="315" spans="1:11" ht="36" x14ac:dyDescent="0.3">
+      <c r="L314" s="3"/>
+    </row>
+    <row r="315" spans="1:12" ht="36" x14ac:dyDescent="0.3">
       <c r="A315" s="2">
         <v>315</v>
       </c>
@@ -14293,21 +14384,24 @@
         <v>324</v>
       </c>
       <c r="D315" s="3" t="s">
-        <v>1392</v>
+        <v>1385</v>
       </c>
       <c r="E315" s="3" t="s">
-        <v>1393</v>
+        <v>1386</v>
       </c>
       <c r="F315" s="3"/>
       <c r="G315" s="3" t="s">
-        <v>1394</v>
-      </c>
-      <c r="H315" s="3"/>
+        <v>1489</v>
+      </c>
+      <c r="H315" s="3" t="s">
+        <v>1493</v>
+      </c>
       <c r="I315" s="3"/>
       <c r="J315" s="3"/>
       <c r="K315" s="3"/>
-    </row>
-    <row r="316" spans="1:11" ht="36" x14ac:dyDescent="0.3">
+      <c r="L315" s="3"/>
+    </row>
+    <row r="316" spans="1:12" ht="36" x14ac:dyDescent="0.3">
       <c r="A316" s="2">
         <v>316</v>
       </c>
@@ -14328,18 +14422,18 @@
       </c>
       <c r="G316" s="3"/>
       <c r="H316" s="3" t="s">
-        <v>1395</v>
+        <v>1387</v>
       </c>
       <c r="I316" s="3" t="s">
-        <v>1396</v>
-      </c>
-      <c r="J316" s="3" t="e">
-        <f>- sogn die Hexn baradox.</f>
-        <v>#NAME?</v>
+        <v>1467</v>
+      </c>
+      <c r="J316" s="3" t="s">
+        <v>1468</v>
       </c>
       <c r="K316" s="3"/>
-    </row>
-    <row r="317" spans="1:11" ht="54" x14ac:dyDescent="0.3">
+      <c r="L316" s="3"/>
+    </row>
+    <row r="317" spans="1:12" ht="54" x14ac:dyDescent="0.3">
       <c r="A317" s="2">
         <v>317</v>
       </c>
@@ -14350,25 +14444,26 @@
         <v>326</v>
       </c>
       <c r="D317" s="3" t="s">
-        <v>1397</v>
+        <v>424</v>
       </c>
       <c r="E317" s="3" t="s">
-        <v>1398</v>
+        <v>1388</v>
       </c>
       <c r="F317" s="3" t="s">
-        <v>1399</v>
+        <v>1389</v>
       </c>
       <c r="G317" s="3"/>
       <c r="H317" s="3" t="s">
-        <v>1400</v>
+        <v>1390</v>
       </c>
       <c r="I317" s="3" t="s">
-        <v>1401</v>
+        <v>1469</v>
       </c>
       <c r="J317" s="3"/>
       <c r="K317" s="3"/>
-    </row>
-    <row r="318" spans="1:11" ht="36" x14ac:dyDescent="0.3">
+      <c r="L317" s="3"/>
+    </row>
+    <row r="318" spans="1:12" ht="36" x14ac:dyDescent="0.3">
       <c r="A318" s="2">
         <v>318</v>
       </c>
@@ -14379,7 +14474,7 @@
         <v>327</v>
       </c>
       <c r="D318" s="3" t="s">
-        <v>1402</v>
+        <v>1391</v>
       </c>
       <c r="E318" s="3" t="s">
         <v>58</v>
@@ -14389,16 +14484,16 @@
       </c>
       <c r="G318" s="3"/>
       <c r="H318" s="3" t="s">
-        <v>1403</v>
-      </c>
-      <c r="I318" s="3" t="e">
-        <f>- fia a Bridschn.</f>
-        <v>#NAME?</v>
+        <v>1470</v>
+      </c>
+      <c r="I318" s="3" t="s">
+        <v>1471</v>
       </c>
       <c r="J318" s="3"/>
       <c r="K318" s="3"/>
-    </row>
-    <row r="319" spans="1:11" ht="36" x14ac:dyDescent="0.3">
+      <c r="L318" s="3"/>
+    </row>
+    <row r="319" spans="1:12" ht="36" x14ac:dyDescent="0.3">
       <c r="A319" s="2">
         <v>319</v>
       </c>
@@ -14409,23 +14504,24 @@
         <v>328</v>
       </c>
       <c r="D319" s="3" t="s">
-        <v>1404</v>
+        <v>1392</v>
       </c>
       <c r="E319" s="3" t="s">
         <v>215</v>
       </c>
       <c r="F319" s="3"/>
       <c r="G319" s="3" t="s">
-        <v>1405</v>
+        <v>1393</v>
       </c>
       <c r="H319" s="3" t="s">
-        <v>1406</v>
+        <v>1394</v>
       </c>
       <c r="I319" s="3"/>
       <c r="J319" s="3"/>
       <c r="K319" s="3"/>
-    </row>
-    <row r="320" spans="1:11" ht="54" x14ac:dyDescent="0.3">
+      <c r="L319" s="3"/>
+    </row>
+    <row r="320" spans="1:12" ht="54" x14ac:dyDescent="0.3">
       <c r="A320" s="2">
         <v>320</v>
       </c>
@@ -14443,16 +14539,17 @@
       </c>
       <c r="F320" s="3"/>
       <c r="G320" s="3" t="s">
-        <v>1407</v>
+        <v>1395</v>
       </c>
       <c r="H320" s="3" t="s">
-        <v>1408</v>
+        <v>1396</v>
       </c>
       <c r="I320" s="3"/>
       <c r="J320" s="3"/>
       <c r="K320" s="3"/>
-    </row>
-    <row r="321" spans="1:11" ht="36" x14ac:dyDescent="0.3">
+      <c r="L320" s="3"/>
+    </row>
+    <row r="321" spans="1:12" ht="36" x14ac:dyDescent="0.3">
       <c r="A321" s="2">
         <v>321</v>
       </c>
@@ -14463,7 +14560,7 @@
         <v>330</v>
       </c>
       <c r="D321" s="3" t="s">
-        <v>1409</v>
+        <v>1397</v>
       </c>
       <c r="E321" s="3" t="s">
         <v>64</v>
@@ -14473,17 +14570,18 @@
       </c>
       <c r="G321" s="3"/>
       <c r="H321" s="3" t="s">
-        <v>1410</v>
+        <v>1398</v>
       </c>
       <c r="I321" s="3" t="s">
-        <v>1411</v>
+        <v>1399</v>
       </c>
       <c r="J321" s="3" t="s">
-        <v>1412</v>
+        <v>1400</v>
       </c>
       <c r="K321" s="3"/>
-    </row>
-    <row r="322" spans="1:11" ht="54" x14ac:dyDescent="0.3">
+      <c r="L321" s="3"/>
+    </row>
+    <row r="322" spans="1:12" ht="54" x14ac:dyDescent="0.3">
       <c r="A322" s="2">
         <v>322</v>
       </c>
@@ -14494,25 +14592,26 @@
         <v>331</v>
       </c>
       <c r="D322" s="3" t="s">
-        <v>1413</v>
+        <v>1401</v>
       </c>
       <c r="E322" s="3" t="s">
-        <v>1414</v>
+        <v>1402</v>
       </c>
       <c r="F322" s="3" t="s">
         <v>250</v>
       </c>
       <c r="G322" s="3"/>
       <c r="H322" s="3" t="s">
-        <v>1415</v>
+        <v>1403</v>
       </c>
       <c r="I322" s="3" t="s">
-        <v>1416</v>
+        <v>1404</v>
       </c>
       <c r="J322" s="3"/>
       <c r="K322" s="3"/>
-    </row>
-    <row r="323" spans="1:11" ht="36" x14ac:dyDescent="0.3">
+      <c r="L322" s="3"/>
+    </row>
+    <row r="323" spans="1:12" ht="36" x14ac:dyDescent="0.3">
       <c r="A323" s="2">
         <v>323</v>
       </c>
@@ -14523,23 +14622,26 @@
         <v>332</v>
       </c>
       <c r="D323" s="3" t="s">
-        <v>1417</v>
+        <v>1405</v>
       </c>
       <c r="E323" s="3" t="s">
         <v>1304</v>
       </c>
       <c r="F323" s="3"/>
       <c r="G323" s="3" t="s">
-        <v>1418</v>
+        <v>1406</v>
       </c>
       <c r="H323" s="3" t="s">
-        <v>1419</v>
-      </c>
-      <c r="I323" s="3"/>
+        <v>1472</v>
+      </c>
+      <c r="I323" s="3" t="s">
+        <v>1473</v>
+      </c>
       <c r="J323" s="3"/>
       <c r="K323" s="3"/>
-    </row>
-    <row r="324" spans="1:11" ht="36" x14ac:dyDescent="0.3">
+      <c r="L323" s="3"/>
+    </row>
+    <row r="324" spans="1:12" ht="36" x14ac:dyDescent="0.3">
       <c r="A324" s="2">
         <v>324</v>
       </c>
@@ -14560,15 +14662,16 @@
       </c>
       <c r="G324" s="3"/>
       <c r="H324" s="3" t="s">
-        <v>1420</v>
+        <v>1407</v>
       </c>
       <c r="I324" s="3" t="s">
-        <v>1421</v>
+        <v>1408</v>
       </c>
       <c r="J324" s="3"/>
       <c r="K324" s="3"/>
-    </row>
-    <row r="325" spans="1:11" ht="36" x14ac:dyDescent="0.3">
+      <c r="L324" s="3"/>
+    </row>
+    <row r="325" spans="1:12" ht="36" x14ac:dyDescent="0.3">
       <c r="A325" s="2">
         <v>325</v>
       </c>
@@ -14579,7 +14682,7 @@
         <v>334</v>
       </c>
       <c r="D325" s="3" t="s">
-        <v>1422</v>
+        <v>1409</v>
       </c>
       <c r="E325" s="3" t="s">
         <v>68</v>
@@ -14589,13 +14692,16 @@
       </c>
       <c r="G325" s="3"/>
       <c r="H325" s="3" t="s">
-        <v>1423</v>
-      </c>
-      <c r="I325" s="3"/>
+        <v>1474</v>
+      </c>
+      <c r="I325" s="3" t="s">
+        <v>1475</v>
+      </c>
       <c r="J325" s="3"/>
       <c r="K325" s="3"/>
-    </row>
-    <row r="326" spans="1:11" ht="36" x14ac:dyDescent="0.3">
+      <c r="L325" s="3"/>
+    </row>
+    <row r="326" spans="1:12" ht="36" x14ac:dyDescent="0.3">
       <c r="A326" s="2">
         <v>326</v>
       </c>
@@ -14606,23 +14712,24 @@
         <v>335</v>
       </c>
       <c r="D326" s="3" t="s">
-        <v>1424</v>
+        <v>1410</v>
       </c>
       <c r="E326" s="3" t="s">
         <v>544</v>
       </c>
       <c r="F326" s="3"/>
       <c r="G326" s="3" t="s">
-        <v>1425</v>
+        <v>1411</v>
       </c>
       <c r="H326" s="3" t="s">
-        <v>1426</v>
+        <v>1412</v>
       </c>
       <c r="I326" s="3"/>
       <c r="J326" s="3"/>
       <c r="K326" s="3"/>
-    </row>
-    <row r="327" spans="1:11" ht="36" x14ac:dyDescent="0.3">
+      <c r="L326" s="3"/>
+    </row>
+    <row r="327" spans="1:12" ht="36" x14ac:dyDescent="0.3">
       <c r="A327" s="2">
         <v>327</v>
       </c>
@@ -14633,23 +14740,26 @@
         <v>336</v>
       </c>
       <c r="D327" s="3" t="s">
-        <v>1427</v>
+        <v>1476</v>
       </c>
       <c r="E327" s="3" t="s">
-        <v>1428</v>
+        <v>1413</v>
       </c>
       <c r="F327" s="3" t="s">
-        <v>1429</v>
+        <v>1414</v>
       </c>
       <c r="G327" s="3"/>
       <c r="H327" s="3" t="s">
-        <v>1430</v>
-      </c>
-      <c r="I327" s="3"/>
+        <v>1477</v>
+      </c>
+      <c r="I327" s="3" t="s">
+        <v>1478</v>
+      </c>
       <c r="J327" s="3"/>
       <c r="K327" s="3"/>
-    </row>
-    <row r="328" spans="1:11" ht="54" x14ac:dyDescent="0.3">
+      <c r="L327" s="3"/>
+    </row>
+    <row r="328" spans="1:12" ht="54" x14ac:dyDescent="0.3">
       <c r="A328" s="2">
         <v>328</v>
       </c>
@@ -14663,22 +14773,25 @@
         <v>69</v>
       </c>
       <c r="E328" s="3" t="s">
-        <v>1431</v>
+        <v>1415</v>
       </c>
       <c r="F328" s="3" t="s">
         <v>264</v>
       </c>
       <c r="G328" s="3"/>
       <c r="H328" s="3" t="s">
-        <v>1432</v>
+        <v>1416</v>
       </c>
       <c r="I328" s="3" t="s">
-        <v>1433</v>
-      </c>
-      <c r="J328" s="3"/>
+        <v>1479</v>
+      </c>
+      <c r="J328" s="3" t="s">
+        <v>1480</v>
+      </c>
       <c r="K328" s="3"/>
-    </row>
-    <row r="329" spans="1:11" ht="54" x14ac:dyDescent="0.3">
+      <c r="L328" s="3"/>
+    </row>
+    <row r="329" spans="1:12" ht="54" x14ac:dyDescent="0.3">
       <c r="A329" s="2">
         <v>329</v>
       </c>
@@ -14699,17 +14812,18 @@
       </c>
       <c r="G329" s="3"/>
       <c r="H329" s="3" t="s">
-        <v>1434</v>
+        <v>1417</v>
       </c>
       <c r="I329" s="3" t="s">
-        <v>1435</v>
+        <v>1418</v>
       </c>
       <c r="J329" s="3" t="s">
-        <v>1436</v>
+        <v>1419</v>
       </c>
       <c r="K329" s="3"/>
-    </row>
-    <row r="330" spans="1:11" ht="54" x14ac:dyDescent="0.3">
+      <c r="L329" s="3"/>
+    </row>
+    <row r="330" spans="1:12" ht="54" x14ac:dyDescent="0.3">
       <c r="A330" s="2">
         <v>330</v>
       </c>
@@ -14720,21 +14834,22 @@
         <v>339</v>
       </c>
       <c r="D330" s="3" t="s">
-        <v>1437</v>
+        <v>1420</v>
       </c>
       <c r="E330" s="3" t="s">
-        <v>1438</v>
+        <v>1421</v>
       </c>
       <c r="F330" s="3"/>
       <c r="G330" s="3" t="s">
-        <v>1439</v>
+        <v>1422</v>
       </c>
       <c r="H330" s="3"/>
       <c r="I330" s="3"/>
       <c r="J330" s="3"/>
       <c r="K330" s="3"/>
-    </row>
-    <row r="331" spans="1:11" ht="54" x14ac:dyDescent="0.3">
+      <c r="L330" s="3"/>
+    </row>
+    <row r="331" spans="1:12" ht="54" x14ac:dyDescent="0.3">
       <c r="A331" s="2">
         <v>331</v>
       </c>
@@ -14751,21 +14866,22 @@
         <v>1047</v>
       </c>
       <c r="F331" s="3" t="s">
-        <v>1440</v>
+        <v>1423</v>
       </c>
       <c r="G331" s="3" t="s">
-        <v>1441</v>
+        <v>1424</v>
       </c>
       <c r="H331" s="3"/>
       <c r="I331" s="3" t="s">
-        <v>1442</v>
+        <v>1425</v>
       </c>
       <c r="J331" s="3" t="s">
-        <v>1443</v>
+        <v>1426</v>
       </c>
       <c r="K331" s="3"/>
-    </row>
-    <row r="332" spans="1:11" ht="54" x14ac:dyDescent="0.3">
+      <c r="L331" s="3"/>
+    </row>
+    <row r="332" spans="1:12" ht="54" x14ac:dyDescent="0.3">
       <c r="A332" s="2">
         <v>332</v>
       </c>
@@ -14776,25 +14892,26 @@
         <v>341</v>
       </c>
       <c r="D332" s="3" t="s">
-        <v>1444</v>
+        <v>1427</v>
       </c>
       <c r="E332" s="3" t="s">
-        <v>1445</v>
+        <v>1428</v>
       </c>
       <c r="F332" s="3" t="s">
-        <v>1446</v>
+        <v>1429</v>
       </c>
       <c r="G332" s="3"/>
       <c r="H332" s="3" t="s">
-        <v>1447</v>
+        <v>1430</v>
       </c>
       <c r="I332" s="3" t="s">
-        <v>1448</v>
+        <v>1431</v>
       </c>
       <c r="J332" s="3"/>
       <c r="K332" s="3"/>
-    </row>
-    <row r="333" spans="1:11" ht="36" x14ac:dyDescent="0.3">
+      <c r="L332" s="3"/>
+    </row>
+    <row r="333" spans="1:12" ht="36" x14ac:dyDescent="0.3">
       <c r="A333" s="2">
         <v>333</v>
       </c>
@@ -14805,23 +14922,24 @@
         <v>342</v>
       </c>
       <c r="D333" s="3" t="s">
-        <v>1449</v>
+        <v>1432</v>
       </c>
       <c r="E333" s="3" t="s">
         <v>129</v>
       </c>
       <c r="F333" s="3"/>
       <c r="G333" s="3" t="s">
-        <v>1450</v>
+        <v>1433</v>
       </c>
       <c r="H333" s="3" t="s">
-        <v>1451</v>
+        <v>1434</v>
       </c>
       <c r="I333" s="3"/>
       <c r="J333" s="3"/>
       <c r="K333" s="3"/>
-    </row>
-    <row r="334" spans="1:11" ht="54" x14ac:dyDescent="0.3">
+      <c r="L333" s="3"/>
+    </row>
+    <row r="334" spans="1:12" ht="54" x14ac:dyDescent="0.3">
       <c r="A334" s="2">
         <v>334</v>
       </c>
@@ -14832,21 +14950,22 @@
         <v>343</v>
       </c>
       <c r="D334" s="3" t="s">
-        <v>1452</v>
+        <v>1435</v>
       </c>
       <c r="E334" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="F334" s="3" t="s">
-        <v>1453</v>
-      </c>
-      <c r="G334" s="3"/>
+      <c r="F334" s="3"/>
+      <c r="G334" s="3" t="s">
+        <v>1436</v>
+      </c>
       <c r="H334" s="3"/>
       <c r="I334" s="3"/>
       <c r="J334" s="3"/>
       <c r="K334" s="3"/>
-    </row>
-    <row r="335" spans="1:11" ht="36" x14ac:dyDescent="0.3">
+      <c r="L334" s="3"/>
+    </row>
+    <row r="335" spans="1:12" ht="36" x14ac:dyDescent="0.3">
       <c r="A335" s="2">
         <v>335</v>
       </c>
@@ -14867,13 +14986,16 @@
       </c>
       <c r="G335" s="3"/>
       <c r="H335" s="3" t="s">
-        <v>1454</v>
-      </c>
-      <c r="I335" s="3"/>
+        <v>1481</v>
+      </c>
+      <c r="I335" s="3" t="s">
+        <v>1482</v>
+      </c>
       <c r="J335" s="3"/>
       <c r="K335" s="3"/>
-    </row>
-    <row r="336" spans="1:11" ht="36" x14ac:dyDescent="0.3">
+      <c r="L335" s="3"/>
+    </row>
+    <row r="336" spans="1:12" ht="36" x14ac:dyDescent="0.3">
       <c r="A336" s="2">
         <v>336</v>
       </c>
@@ -14890,15 +15012,20 @@
         <v>78</v>
       </c>
       <c r="F336" s="3" t="s">
-        <v>1455</v>
+        <v>1437</v>
       </c>
       <c r="G336" s="3"/>
-      <c r="H336" s="3"/>
-      <c r="I336" s="3"/>
+      <c r="H336" s="3" t="s">
+        <v>1483</v>
+      </c>
+      <c r="I336" s="3" t="s">
+        <v>1484</v>
+      </c>
       <c r="J336" s="3"/>
       <c r="K336" s="3"/>
-    </row>
-    <row r="337" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+      <c r="L336" s="3"/>
+    </row>
+    <row r="337" spans="1:12" ht="72" x14ac:dyDescent="0.3">
       <c r="A337" s="2">
         <v>337</v>
       </c>
@@ -14912,16 +15039,21 @@
         <v>79</v>
       </c>
       <c r="E337" s="3" t="s">
-        <v>1456</v>
+        <v>1438</v>
       </c>
       <c r="F337" s="3"/>
-      <c r="G337" s="3"/>
-      <c r="H337" s="3"/>
+      <c r="G337" s="3" t="s">
+        <v>1485</v>
+      </c>
+      <c r="H337" s="3" t="s">
+        <v>1486</v>
+      </c>
       <c r="I337" s="3"/>
       <c r="J337" s="3"/>
       <c r="K337" s="3"/>
-    </row>
-    <row r="338" spans="1:11" ht="54" x14ac:dyDescent="0.3">
+      <c r="L337" s="3"/>
+    </row>
+    <row r="338" spans="1:12" ht="54" x14ac:dyDescent="0.3">
       <c r="A338" s="2">
         <v>338</v>
       </c>
@@ -14942,17 +15074,18 @@
       </c>
       <c r="G338" s="3"/>
       <c r="H338" s="3" t="s">
-        <v>1457</v>
+        <v>1439</v>
       </c>
       <c r="I338" s="3" t="s">
-        <v>1458</v>
+        <v>1440</v>
       </c>
       <c r="J338" s="3" t="s">
-        <v>1459</v>
+        <v>1441</v>
       </c>
       <c r="K338" s="3"/>
-    </row>
-    <row r="339" spans="1:11" ht="36" x14ac:dyDescent="0.3">
+      <c r="L338" s="3"/>
+    </row>
+    <row r="339" spans="1:12" ht="36" x14ac:dyDescent="0.3">
       <c r="A339" s="2">
         <v>339</v>
       </c>
@@ -14969,19 +15102,20 @@
         <v>85</v>
       </c>
       <c r="F339" s="3" t="s">
-        <v>1460</v>
+        <v>1442</v>
       </c>
       <c r="G339" s="3"/>
       <c r="H339" s="3" t="s">
-        <v>1461</v>
+        <v>1443</v>
       </c>
       <c r="I339" s="3" t="s">
-        <v>1462</v>
+        <v>1444</v>
       </c>
       <c r="J339" s="3"/>
       <c r="K339" s="3"/>
-    </row>
-    <row r="340" spans="1:11" ht="36" x14ac:dyDescent="0.3">
+      <c r="L339" s="3"/>
+    </row>
+    <row r="340" spans="1:12" ht="36" x14ac:dyDescent="0.3">
       <c r="A340" s="2">
         <v>340</v>
       </c>
@@ -14992,7 +15126,7 @@
         <v>349</v>
       </c>
       <c r="D340" s="3" t="s">
-        <v>1463</v>
+        <v>1445</v>
       </c>
       <c r="E340" s="3" t="s">
         <v>271</v>
@@ -15002,15 +15136,16 @@
       </c>
       <c r="G340" s="3"/>
       <c r="H340" s="3" t="s">
-        <v>1464</v>
+        <v>1446</v>
       </c>
       <c r="I340" s="3" t="s">
-        <v>1465</v>
+        <v>1447</v>
       </c>
       <c r="J340" s="3"/>
       <c r="K340" s="3"/>
-    </row>
-    <row r="341" spans="1:11" ht="36" x14ac:dyDescent="0.3">
+      <c r="L340" s="3"/>
+    </row>
+    <row r="341" spans="1:12" ht="36" x14ac:dyDescent="0.3">
       <c r="A341" s="2">
         <v>341</v>
       </c>
@@ -15028,16 +15163,17 @@
       </c>
       <c r="F341" s="3"/>
       <c r="G341" s="3" t="s">
-        <v>1466</v>
+        <v>1448</v>
       </c>
       <c r="H341" s="3" t="s">
-        <v>1467</v>
+        <v>1449</v>
       </c>
       <c r="I341" s="3"/>
       <c r="J341" s="3"/>
       <c r="K341" s="3"/>
-    </row>
-    <row r="342" spans="1:11" ht="36" x14ac:dyDescent="0.3">
+      <c r="L341" s="3"/>
+    </row>
+    <row r="342" spans="1:12" ht="36" x14ac:dyDescent="0.3">
       <c r="A342" s="2">
         <v>342</v>
       </c>
@@ -15055,14 +15191,15 @@
       </c>
       <c r="F342" s="3"/>
       <c r="G342" s="3" t="s">
-        <v>1468</v>
+        <v>1450</v>
       </c>
       <c r="H342" s="3"/>
       <c r="I342" s="3"/>
       <c r="J342" s="3"/>
       <c r="K342" s="3"/>
-    </row>
-    <row r="343" spans="1:11" ht="54" x14ac:dyDescent="0.3">
+      <c r="L342" s="3"/>
+    </row>
+    <row r="343" spans="1:12" ht="54" x14ac:dyDescent="0.3">
       <c r="A343" s="2">
         <v>343</v>
       </c>
@@ -15083,15 +15220,16 @@
       </c>
       <c r="G343" s="3"/>
       <c r="H343" s="3" t="s">
-        <v>1469</v>
+        <v>1451</v>
       </c>
       <c r="I343" s="3" t="s">
-        <v>1470</v>
+        <v>1452</v>
       </c>
       <c r="J343" s="3"/>
       <c r="K343" s="3"/>
-    </row>
-    <row r="344" spans="1:11" ht="36" x14ac:dyDescent="0.3">
+      <c r="L343" s="3"/>
+    </row>
+    <row r="344" spans="1:12" ht="36" x14ac:dyDescent="0.3">
       <c r="A344" s="2">
         <v>344</v>
       </c>
@@ -15112,15 +15250,16 @@
       </c>
       <c r="G344" s="3"/>
       <c r="H344" s="3" t="s">
-        <v>1471</v>
+        <v>1453</v>
       </c>
       <c r="I344" s="3" t="s">
-        <v>1472</v>
+        <v>1454</v>
       </c>
       <c r="J344" s="3" t="s">
-        <v>1473</v>
+        <v>1455</v>
       </c>
       <c r="K344" s="3"/>
+      <c r="L344" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
